--- a/Id.xlsx
+++ b/Id.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$K$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$M$154</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="884">
   <si>
     <t>Adam</t>
   </si>
@@ -962,9 +962,6 @@
     <t>duyphucqb28@gmail.com</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>8704 North Tunnel St.</t>
   </si>
   <si>
@@ -2673,13 +2670,22 @@
   </si>
   <si>
     <t>lName</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2712,11 +2718,6 @@
       <color rgb="FF444444"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2772,7 +2773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2787,13 +2788,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3074,4343 +3072,5269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G146" workbookViewId="0">
-      <selection activeCell="J155" sqref="J155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="12.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="10"/>
-    <col min="10" max="10" width="40" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="9.140625" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="12.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="40" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>877</v>
+        <v>724</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="7">
-        <v>34636</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" ht="24">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="9">
+        <v>29</v>
+      </c>
+      <c r="H2" s="9">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="7">
-        <v>31417</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="9">
+        <v>5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="7">
-        <v>33084</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customFormat="1">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="9">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="7">
-        <v>32738</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="9">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="7">
-        <v>32813</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" customFormat="1">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="7">
-        <v>31824</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="9">
+        <v>16</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="7">
-        <v>32094</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customFormat="1">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="9">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="7">
-        <v>34208</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="9">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="7">
-        <v>34537</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="9">
+        <v>22</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="7">
-        <v>31486</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="9">
+        <v>15</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="7">
-        <v>32037</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" customFormat="1">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="9">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="7">
-        <v>31903</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="9">
+        <v>6</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="7">
-        <v>33846</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" customFormat="1">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="9">
+        <v>30</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="7">
-        <v>33834</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="9">
+        <v>18</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="7">
-        <v>33745</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" customFormat="1">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="9">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7">
-        <v>33353</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="9">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7">
-        <v>32960</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" customFormat="1">
-      <c r="A19" s="5" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="9">
+        <v>28</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7">
-        <v>31181</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="9">
+        <v>14</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="7">
-        <v>31505</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="9">
+        <v>3</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" customFormat="1">
-      <c r="A21" s="5" t="s">
+      <c r="L20" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="7">
-        <v>32324</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="9">
+        <v>30</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="7">
-        <v>31528</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" customFormat="1">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="9">
+        <v>26</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="7">
-        <v>33361</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="9">
+        <v>3</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="7">
-        <v>32427</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" customFormat="1">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="9">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9">
+        <v>10</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="7">
-        <v>32186</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="9">
+        <v>13</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="7">
-        <v>33263</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" customFormat="1">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="9">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="7">
-        <v>33228</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="9">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="7">
-        <v>31389</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" customFormat="1">
-      <c r="A29" s="5" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="9">
+        <v>8</v>
+      </c>
+      <c r="H28" s="9">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="7">
-        <v>33905</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="9">
+        <v>28</v>
+      </c>
+      <c r="H29" s="9">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="7">
-        <v>34133</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" ht="24">
-      <c r="A31" s="5" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="9">
+        <v>13</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="7">
-        <v>31963</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="9">
+        <v>5</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="7">
-        <v>33742</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" customFormat="1">
-      <c r="A33" s="5" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="9">
+        <v>18</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="7">
-        <v>34348</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="9">
+        <v>14</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="7">
-        <v>31583</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" customFormat="1">
-      <c r="A35" s="5" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="9">
+        <v>20</v>
+      </c>
+      <c r="H34" s="9">
+        <v>6</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="7">
-        <v>34143</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="9">
+        <v>23</v>
+      </c>
+      <c r="H35" s="9">
+        <v>6</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="7">
-        <v>33147</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" customFormat="1">
-      <c r="A37" s="5" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="7">
-        <v>33232</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="9">
+        <v>25</v>
+      </c>
+      <c r="H37" s="9">
+        <v>12</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="7">
-        <v>31130</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" customFormat="1">
-      <c r="A39" s="5" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="9">
+        <v>24</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="7">
-        <v>33835</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="9">
+        <v>19</v>
+      </c>
+      <c r="H39" s="9">
+        <v>8</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="7">
-        <v>34498</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" customFormat="1">
-      <c r="A41" s="5" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="9">
+        <v>13</v>
+      </c>
+      <c r="H40" s="9">
+        <v>6</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="7">
-        <v>33425</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="9">
+        <v>6</v>
+      </c>
+      <c r="H41" s="9">
+        <v>7</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="7">
-        <v>34548</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" customFormat="1">
-      <c r="A43" s="5" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="9">
+        <v>2</v>
+      </c>
+      <c r="H42" s="9">
+        <v>8</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="7">
-        <v>32200</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="9">
+        <v>27</v>
+      </c>
+      <c r="H43" s="9">
+        <v>2</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="7">
-        <v>31307</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" customFormat="1">
-      <c r="A45" s="5" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="9">
+        <v>17</v>
+      </c>
+      <c r="H44" s="9">
+        <v>9</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="7">
-        <v>32192</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="9">
+        <v>19</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="1"/>
+      <c r="D46" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="7">
-        <v>34100</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" customFormat="1">
-      <c r="A47" s="5" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="9">
+        <v>11</v>
+      </c>
+      <c r="H46" s="9">
+        <v>5</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="1"/>
+      <c r="D47" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="7">
-        <v>33643</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="9">
+        <v>9</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="1"/>
+      <c r="D48" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="7">
-        <v>33934</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" customFormat="1" ht="24">
-      <c r="A49" s="5" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="9">
+        <v>26</v>
+      </c>
+      <c r="H48" s="9">
+        <v>11</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="7">
-        <v>33328</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="9">
+        <v>31</v>
+      </c>
+      <c r="H49" s="9">
+        <v>3</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="7">
-        <v>31672</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" customFormat="1" ht="24">
-      <c r="A51" s="5" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="9">
+        <v>17</v>
+      </c>
+      <c r="H50" s="9">
+        <v>9</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="7">
-        <v>32714</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="F51" s="1"/>
+      <c r="G51" s="9">
+        <v>25</v>
+      </c>
+      <c r="H51" s="9">
+        <v>7</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="7">
-        <v>33202</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" customFormat="1">
-      <c r="A53" s="5" t="s">
+      <c r="F52" s="1"/>
+      <c r="G52" s="9">
+        <v>25</v>
+      </c>
+      <c r="H52" s="9">
+        <v>11</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="7">
-        <v>32884</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="9">
+        <v>11</v>
+      </c>
+      <c r="H53" s="9">
+        <v>1</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="7">
-        <v>32392</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A55" s="5" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="9">
+        <v>6</v>
+      </c>
+      <c r="H54" s="9">
+        <v>9</v>
+      </c>
+      <c r="I54" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="7">
-        <v>32228</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="F55" s="1"/>
+      <c r="G55" s="9">
+        <v>26</v>
+      </c>
+      <c r="H55" s="9">
+        <v>3</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="7">
-        <v>34171</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" customFormat="1">
-      <c r="A57" s="5" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="9">
+        <v>21</v>
+      </c>
+      <c r="H56" s="9">
+        <v>7</v>
+      </c>
+      <c r="I56" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="7">
-        <v>31531</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="F57" s="1"/>
+      <c r="G57" s="9">
+        <v>29</v>
+      </c>
+      <c r="H57" s="9">
+        <v>4</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="7">
-        <v>33614</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" customFormat="1" ht="24">
-      <c r="A59" s="5" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="9">
+        <v>11</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="7">
-        <v>31096</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="9">
+        <v>18</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="7">
-        <v>33514</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" customFormat="1">
-      <c r="A61" s="5" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="9">
+        <v>3</v>
+      </c>
+      <c r="H60" s="9">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="7">
-        <v>33783</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="F61" s="1"/>
+      <c r="G61" s="9">
+        <v>28</v>
+      </c>
+      <c r="H61" s="9">
+        <v>6</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="7">
-        <v>33326</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A63" s="5" t="s">
+      <c r="F62" s="1"/>
+      <c r="G62" s="9">
+        <v>29</v>
+      </c>
+      <c r="H62" s="9">
+        <v>3</v>
+      </c>
+      <c r="I62" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7">
-        <v>31389</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="9">
+        <v>8</v>
+      </c>
+      <c r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="7">
-        <v>31104</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A65" s="5" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="9">
+        <v>26</v>
+      </c>
+      <c r="H64" s="9">
+        <v>2</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="7">
-        <v>32010</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="9">
+        <v>21</v>
+      </c>
+      <c r="H65" s="9">
+        <v>8</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="7">
-        <v>32334</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" customFormat="1">
-      <c r="A67" s="5" t="s">
+      <c r="F66" s="1"/>
+      <c r="G66" s="9">
+        <v>10</v>
+      </c>
+      <c r="H66" s="9">
+        <v>7</v>
+      </c>
+      <c r="I66" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="7">
-        <v>33588</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="9">
+        <v>16</v>
+      </c>
+      <c r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="L67" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="7">
-        <v>31107</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A69" s="5" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9">
+        <v>3</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="7">
-        <v>33343</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="F69" s="1"/>
+      <c r="G69" s="9">
+        <v>15</v>
+      </c>
+      <c r="H69" s="9">
+        <v>4</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="7">
-        <v>32754</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" customFormat="1">
-      <c r="A71" s="5" t="s">
+      <c r="F70" s="1"/>
+      <c r="G70" s="9">
+        <v>3</v>
+      </c>
+      <c r="H70" s="9">
+        <v>9</v>
+      </c>
+      <c r="I70" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="7">
-        <v>34194</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="F71" s="1"/>
+      <c r="G71" s="9">
+        <v>13</v>
+      </c>
+      <c r="H71" s="9">
+        <v>8</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="7">
-        <v>34505</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" customFormat="1">
-      <c r="A73" s="5" t="s">
+      <c r="F72" s="1"/>
+      <c r="G72" s="9">
+        <v>20</v>
+      </c>
+      <c r="H72" s="9">
+        <v>6</v>
+      </c>
+      <c r="I72" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="7">
-        <v>33400</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" s="9">
+        <v>11</v>
+      </c>
+      <c r="H73" s="9">
+        <v>6</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="7">
-        <v>32760</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" customFormat="1">
-      <c r="A75" s="5" t="s">
+      <c r="F74" s="1"/>
+      <c r="G74" s="9">
+        <v>9</v>
+      </c>
+      <c r="H74" s="9">
+        <v>9</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="7">
-        <v>32913</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="9">
+        <v>9</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="7">
-        <v>34605</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" customFormat="1">
-      <c r="A77" s="5" t="s">
+      <c r="F76" s="1"/>
+      <c r="G76" s="9">
+        <v>28</v>
+      </c>
+      <c r="H76" s="9">
+        <v>9</v>
+      </c>
+      <c r="I76" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="7">
-        <v>33625</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="9">
+        <v>22</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="7">
-        <v>34083</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" customFormat="1">
-      <c r="A79" s="5" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="9">
+        <v>24</v>
+      </c>
+      <c r="H78" s="9">
+        <v>4</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="7">
-        <v>33304</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="F79" s="1"/>
+      <c r="G79" s="9">
+        <v>7</v>
+      </c>
+      <c r="H79" s="9">
+        <v>3</v>
+      </c>
+      <c r="I79" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="7">
-        <v>32097</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" customFormat="1" ht="24">
-      <c r="A81" s="5" t="s">
+      <c r="F80" s="1"/>
+      <c r="G80" s="9">
+        <v>16</v>
+      </c>
+      <c r="H80" s="9">
+        <v>11</v>
+      </c>
+      <c r="I80" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="7">
-        <v>34691</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="F81" s="1"/>
+      <c r="G81" s="9">
+        <v>23</v>
+      </c>
+      <c r="H81" s="9">
+        <v>12</v>
+      </c>
+      <c r="I81" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="7">
-        <v>34625</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" customFormat="1">
-      <c r="A83" s="5" t="s">
+      <c r="F82" s="1"/>
+      <c r="G82" s="9">
+        <v>18</v>
+      </c>
+      <c r="H82" s="9">
+        <v>10</v>
+      </c>
+      <c r="I82" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="1"/>
+      <c r="D83" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="7">
-        <v>31758</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="F83" s="1"/>
+      <c r="G83" s="9">
+        <v>12</v>
+      </c>
+      <c r="H83" s="9">
+        <v>12</v>
+      </c>
+      <c r="I83" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="1"/>
+      <c r="D84" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="7">
-        <v>31583</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" customFormat="1">
-      <c r="A85" s="5" t="s">
+      <c r="F84" s="1"/>
+      <c r="G84" s="9">
+        <v>20</v>
+      </c>
+      <c r="H84" s="9">
+        <v>6</v>
+      </c>
+      <c r="I84" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="1"/>
+      <c r="D85" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="7">
-        <v>33609</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="F85" s="1"/>
+      <c r="G85" s="9">
+        <v>6</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1</v>
+      </c>
+      <c r="I85" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="7">
-        <v>33601</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" customFormat="1">
-      <c r="A87" s="5" t="s">
+      <c r="F86" s="1"/>
+      <c r="G86" s="9">
+        <v>29</v>
+      </c>
+      <c r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="1"/>
+      <c r="D87" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="7">
-        <v>33603</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="F87" s="1"/>
+      <c r="G87" s="9">
+        <v>31</v>
+      </c>
+      <c r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="7">
-        <v>34099</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" customFormat="1" ht="24">
-      <c r="A89" s="5" t="s">
+      <c r="F88" s="1"/>
+      <c r="G88" s="9">
+        <v>10</v>
+      </c>
+      <c r="H88" s="9">
+        <v>5</v>
+      </c>
+      <c r="I88" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="1"/>
+      <c r="D89" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="7">
-        <v>31062</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="F89" s="1"/>
+      <c r="G89" s="9">
+        <v>15</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="1"/>
+      <c r="D90" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="7">
-        <v>31653</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A91" s="5" t="s">
+      <c r="F90" s="1"/>
+      <c r="G90" s="9">
+        <v>29</v>
+      </c>
+      <c r="H90" s="9">
+        <v>8</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="1"/>
+      <c r="D91" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="7">
-        <v>33378</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="F91" s="1"/>
+      <c r="G91" s="9">
+        <v>20</v>
+      </c>
+      <c r="H91" s="9">
+        <v>5</v>
+      </c>
+      <c r="I91" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="1"/>
+      <c r="D92" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="7">
-        <v>34672</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" customFormat="1">
-      <c r="A93" s="5" t="s">
+      <c r="F92" s="1"/>
+      <c r="G92" s="9">
+        <v>4</v>
+      </c>
+      <c r="H92" s="9">
+        <v>12</v>
+      </c>
+      <c r="I92" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="1"/>
+      <c r="D93" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="7">
-        <v>33633</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="F93" s="1"/>
+      <c r="G93" s="9">
+        <v>30</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1</v>
+      </c>
+      <c r="I93" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="1"/>
+      <c r="D94" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="7">
-        <v>33672</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" customFormat="1" ht="24">
-      <c r="A95" s="5" t="s">
+      <c r="F94" s="1"/>
+      <c r="G94" s="9">
+        <v>9</v>
+      </c>
+      <c r="H94" s="9">
+        <v>3</v>
+      </c>
+      <c r="I94" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="1"/>
+      <c r="D95" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="7">
-        <v>34553</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="F95" s="1"/>
+      <c r="G95" s="9">
+        <v>7</v>
+      </c>
+      <c r="H95" s="9">
+        <v>8</v>
+      </c>
+      <c r="I95" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="1"/>
+      <c r="D96" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="7">
-        <v>31134</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" customFormat="1">
-      <c r="A97" s="5" t="s">
+      <c r="F96" s="1"/>
+      <c r="G96" s="9">
+        <v>28</v>
+      </c>
+      <c r="H96" s="9">
+        <v>3</v>
+      </c>
+      <c r="I96" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="1"/>
+      <c r="D97" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="7">
-        <v>32919</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="F97" s="1"/>
+      <c r="G97" s="9">
+        <v>15</v>
+      </c>
+      <c r="H97" s="9">
+        <v>2</v>
+      </c>
+      <c r="I97" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="7">
-        <v>31320</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" customFormat="1">
-      <c r="A99" s="5" t="s">
+      <c r="F98" s="1"/>
+      <c r="G98" s="9">
+        <v>30</v>
+      </c>
+      <c r="H98" s="9">
+        <v>9</v>
+      </c>
+      <c r="I98" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="1"/>
+      <c r="D99" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="7">
-        <v>32497</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="F99" s="1"/>
+      <c r="G99" s="9">
+        <v>20</v>
+      </c>
+      <c r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="1"/>
+      <c r="D100" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="7">
-        <v>33711</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" customFormat="1">
-      <c r="A101" s="5" t="s">
+      <c r="F100" s="1"/>
+      <c r="G100" s="9">
+        <v>17</v>
+      </c>
+      <c r="H100" s="9">
+        <v>4</v>
+      </c>
+      <c r="I100" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="1"/>
+      <c r="D101" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="7">
-        <v>34404</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="F101" s="1"/>
+      <c r="G101" s="9">
+        <v>11</v>
+      </c>
+      <c r="H101" s="9">
+        <v>3</v>
+      </c>
+      <c r="I101" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="1"/>
+      <c r="D102" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="7">
-        <v>32129</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" customFormat="1">
-      <c r="A103" s="5" t="s">
+      <c r="F102" s="1"/>
+      <c r="G102" s="9">
+        <v>18</v>
+      </c>
+      <c r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="1"/>
+      <c r="D103" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="7">
-        <v>34118</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="F103" s="1"/>
+      <c r="G103" s="9">
+        <v>29</v>
+      </c>
+      <c r="H103" s="9">
+        <v>5</v>
+      </c>
+      <c r="I103" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="1"/>
+      <c r="D104" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="7">
-        <v>32559</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" customFormat="1">
-      <c r="A105" s="5" t="s">
+      <c r="F104" s="1"/>
+      <c r="G104" s="9">
+        <v>20</v>
+      </c>
+      <c r="H104" s="9">
+        <v>2</v>
+      </c>
+      <c r="I104" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="1"/>
+      <c r="D105" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="7">
-        <v>34231</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A106" s="3" t="s">
+      <c r="F105" s="1"/>
+      <c r="G105" s="9">
+        <v>19</v>
+      </c>
+      <c r="H105" s="9">
+        <v>9</v>
+      </c>
+      <c r="I105" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="1"/>
+      <c r="D106" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="7">
-        <v>31079</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" customFormat="1">
-      <c r="A107" s="5" t="s">
+      <c r="F106" s="1"/>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9">
+        <v>2</v>
+      </c>
+      <c r="I106" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="1"/>
+      <c r="D107" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="7">
-        <v>31446</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A108" s="3" t="s">
+      <c r="F107" s="1"/>
+      <c r="G107" s="9">
+        <v>3</v>
+      </c>
+      <c r="H107" s="9">
+        <v>2</v>
+      </c>
+      <c r="I107" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="1"/>
+      <c r="D108" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="7">
-        <v>32725</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" customFormat="1">
-      <c r="A109" s="5" t="s">
+      <c r="F108" s="1"/>
+      <c r="G108" s="9">
+        <v>5</v>
+      </c>
+      <c r="H108" s="9">
+        <v>8</v>
+      </c>
+      <c r="I108" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="1"/>
+      <c r="D109" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="7">
-        <v>34501</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="F109" s="1"/>
+      <c r="G109" s="9">
+        <v>16</v>
+      </c>
+      <c r="H109" s="9">
+        <v>6</v>
+      </c>
+      <c r="I109" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="1"/>
+      <c r="D110" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="7">
-        <v>33795</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" customFormat="1">
-      <c r="A111" s="5" t="s">
+      <c r="F110" s="1"/>
+      <c r="G110" s="9">
+        <v>10</v>
+      </c>
+      <c r="H110" s="9">
+        <v>7</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="1"/>
+      <c r="D111" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="7">
-        <v>34313</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A112" s="3" t="s">
+      <c r="F111" s="1"/>
+      <c r="G111" s="9">
+        <v>10</v>
+      </c>
+      <c r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="1"/>
+      <c r="D112" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="7">
-        <v>33191</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" customFormat="1">
-      <c r="A113" s="5" t="s">
+      <c r="F112" s="1"/>
+      <c r="G112" s="9">
+        <v>14</v>
+      </c>
+      <c r="H112" s="9">
+        <v>11</v>
+      </c>
+      <c r="I112" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="1"/>
+      <c r="D113" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="7">
-        <v>34252</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A114" s="3" t="s">
+      <c r="F113" s="1"/>
+      <c r="G113" s="9">
+        <v>10</v>
+      </c>
+      <c r="H113" s="9">
+        <v>10</v>
+      </c>
+      <c r="I113" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="1"/>
+      <c r="D114" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="7">
-        <v>34483</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" customFormat="1">
-      <c r="A115" s="5" t="s">
+      <c r="F114" s="1"/>
+      <c r="G114" s="9">
+        <v>29</v>
+      </c>
+      <c r="H114" s="9">
+        <v>5</v>
+      </c>
+      <c r="I114" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="7">
-        <v>33182</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A116" s="3" t="s">
+      <c r="F115" s="1"/>
+      <c r="G115" s="9">
+        <v>5</v>
+      </c>
+      <c r="H115" s="9">
+        <v>11</v>
+      </c>
+      <c r="I115" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="1"/>
+      <c r="D116" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="7">
-        <v>32194</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" customFormat="1">
-      <c r="A117" s="5" t="s">
+      <c r="F116" s="1"/>
+      <c r="G116" s="9">
+        <v>21</v>
+      </c>
+      <c r="H116" s="9">
+        <v>2</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="1"/>
+      <c r="D117" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="7">
-        <v>34115</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A118" s="3" t="s">
+      <c r="F117" s="1"/>
+      <c r="G117" s="9">
+        <v>26</v>
+      </c>
+      <c r="H117" s="9">
+        <v>5</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="1"/>
+      <c r="D118" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="7">
-        <v>32604</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" customFormat="1" ht="24">
-      <c r="A119" s="5" t="s">
+      <c r="F118" s="1"/>
+      <c r="G118" s="9">
+        <v>6</v>
+      </c>
+      <c r="H118" s="9">
+        <v>4</v>
+      </c>
+      <c r="I118" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="1"/>
+      <c r="D119" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="7">
-        <v>31579</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="F119" s="1"/>
+      <c r="G119" s="9">
+        <v>16</v>
+      </c>
+      <c r="H119" s="9">
+        <v>6</v>
+      </c>
+      <c r="I119" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="1"/>
+      <c r="D120" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="7">
-        <v>33193</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" customFormat="1">
-      <c r="A121" s="5" t="s">
+      <c r="F120" s="1"/>
+      <c r="G120" s="9">
+        <v>16</v>
+      </c>
+      <c r="H120" s="9">
+        <v>11</v>
+      </c>
+      <c r="I120" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="7">
-        <v>34117</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="F121" s="1"/>
+      <c r="G121" s="9">
+        <v>28</v>
+      </c>
+      <c r="H121" s="9">
+        <v>5</v>
+      </c>
+      <c r="I121" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="1"/>
+      <c r="D122" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="7">
-        <v>31646</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" customFormat="1">
-      <c r="A123" s="5" t="s">
+      <c r="F122" s="1"/>
+      <c r="G122" s="9">
+        <v>22</v>
+      </c>
+      <c r="H122" s="9">
+        <v>8</v>
+      </c>
+      <c r="I122" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B123" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="1"/>
+      <c r="D123" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="7">
-        <v>34260</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="F123" s="1"/>
+      <c r="G123" s="9">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9">
+        <v>10</v>
+      </c>
+      <c r="I123" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="1"/>
+      <c r="D124" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="7">
-        <v>33699</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A125" s="5" t="s">
+      <c r="F124" s="1"/>
+      <c r="G124" s="9">
+        <v>5</v>
+      </c>
+      <c r="H124" s="9">
+        <v>4</v>
+      </c>
+      <c r="I124" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="1"/>
+      <c r="D125" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="7">
-        <v>32090</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A126" s="3" t="s">
+      <c r="F125" s="1"/>
+      <c r="G125" s="9">
+        <v>9</v>
+      </c>
+      <c r="H125" s="9">
+        <v>11</v>
+      </c>
+      <c r="I125" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="1"/>
+      <c r="D126" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="7">
-        <v>33493</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" customFormat="1">
-      <c r="A127" s="5" t="s">
+      <c r="F126" s="1"/>
+      <c r="G126" s="9">
+        <v>12</v>
+      </c>
+      <c r="H126" s="9">
+        <v>9</v>
+      </c>
+      <c r="I126" s="9">
+        <v>1991</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="1"/>
+      <c r="D127" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E127" s="1"/>
-      <c r="F127" s="7">
-        <v>34119</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="F127" s="1"/>
+      <c r="G127" s="9">
+        <v>30</v>
+      </c>
+      <c r="H127" s="9">
+        <v>5</v>
+      </c>
+      <c r="I127" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="1"/>
+      <c r="D128" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="7">
-        <v>34613</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" customFormat="1">
-      <c r="A129" s="5" t="s">
+      <c r="F128" s="1"/>
+      <c r="G128" s="9">
+        <v>6</v>
+      </c>
+      <c r="H128" s="9">
+        <v>10</v>
+      </c>
+      <c r="I128" s="9">
+        <v>1994</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D129" s="1"/>
+      <c r="D129" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E129" s="1"/>
-      <c r="F129" s="7">
-        <v>31711</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A130" s="3" t="s">
+      <c r="F129" s="1"/>
+      <c r="G129" s="9">
+        <v>26</v>
+      </c>
+      <c r="H129" s="9">
+        <v>10</v>
+      </c>
+      <c r="I129" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J129" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E130" s="1"/>
-      <c r="F130" s="7">
-        <v>34210</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" customFormat="1">
-      <c r="A131" s="5" t="s">
+      <c r="F130" s="1"/>
+      <c r="G130" s="9">
+        <v>29</v>
+      </c>
+      <c r="H130" s="9">
+        <v>8</v>
+      </c>
+      <c r="I130" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D131" s="1"/>
+      <c r="D131" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="7">
-        <v>31781</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="F131" s="1"/>
+      <c r="G131" s="9">
+        <v>4</v>
+      </c>
+      <c r="H131" s="9">
+        <v>1</v>
+      </c>
+      <c r="I131" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="1"/>
+      <c r="D132" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="7">
-        <v>34070</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" customFormat="1">
-      <c r="A133" s="5" t="s">
+      <c r="F132" s="1"/>
+      <c r="G132" s="9">
+        <v>11</v>
+      </c>
+      <c r="H132" s="9">
+        <v>4</v>
+      </c>
+      <c r="I132" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="1"/>
+      <c r="D133" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="7">
-        <v>32214</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A134" s="3" t="s">
+      <c r="F133" s="1"/>
+      <c r="G133" s="9">
+        <v>12</v>
+      </c>
+      <c r="H133" s="9">
+        <v>3</v>
+      </c>
+      <c r="I133" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J133" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D134" s="1"/>
+      <c r="D134" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="7">
-        <v>32300</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" customFormat="1">
-      <c r="A135" s="5" t="s">
+      <c r="F134" s="1"/>
+      <c r="G134" s="9">
+        <v>6</v>
+      </c>
+      <c r="H134" s="9">
+        <v>6</v>
+      </c>
+      <c r="I134" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="1"/>
+      <c r="D135" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="7">
-        <v>33932</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A136" s="3" t="s">
+      <c r="F135" s="1"/>
+      <c r="G135" s="9">
+        <v>24</v>
+      </c>
+      <c r="H135" s="9">
+        <v>11</v>
+      </c>
+      <c r="I135" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J135" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="1"/>
+      <c r="D136" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="7">
-        <v>32460</v>
-      </c>
-      <c r="G136" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" customFormat="1">
-      <c r="A137" s="5" t="s">
+      <c r="F136" s="1"/>
+      <c r="G136" s="9">
+        <v>13</v>
+      </c>
+      <c r="H136" s="9">
+        <v>11</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="1"/>
+      <c r="D137" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="7">
-        <v>31926</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H137" s="1" t="s">
+      <c r="F137" s="1"/>
+      <c r="G137" s="9">
+        <v>29</v>
+      </c>
+      <c r="H137" s="9">
+        <v>5</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A138" s="3" t="s">
+      <c r="L137" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="1"/>
+      <c r="D138" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="7">
-        <v>31577</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" customFormat="1">
-      <c r="A139" s="5" t="s">
+      <c r="F138" s="1"/>
+      <c r="G138" s="9">
+        <v>14</v>
+      </c>
+      <c r="H138" s="9">
+        <v>6</v>
+      </c>
+      <c r="I138" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="1"/>
+      <c r="D139" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="7">
-        <v>31820</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A140" s="3" t="s">
+      <c r="F139" s="1"/>
+      <c r="G139" s="9">
+        <v>12</v>
+      </c>
+      <c r="H139" s="9">
+        <v>2</v>
+      </c>
+      <c r="I139" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="1"/>
+      <c r="D140" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="7">
-        <v>32422</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A141" s="5" t="s">
+      <c r="F140" s="1"/>
+      <c r="G140" s="9">
+        <v>6</v>
+      </c>
+      <c r="H140" s="9">
+        <v>10</v>
+      </c>
+      <c r="I140" s="9">
+        <v>1988</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D141" s="1"/>
+      <c r="D141" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E141" s="1"/>
-      <c r="F141" s="7">
-        <v>33947</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A142" s="3" t="s">
+      <c r="F141" s="1"/>
+      <c r="G141" s="9">
+        <v>9</v>
+      </c>
+      <c r="H141" s="9">
+        <v>12</v>
+      </c>
+      <c r="I141" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D142" s="1"/>
+      <c r="D142" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E142" s="1"/>
-      <c r="F142" s="7">
-        <v>31311</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A143" s="5" t="s">
+      <c r="F142" s="1"/>
+      <c r="G142" s="9">
+        <v>21</v>
+      </c>
+      <c r="H142" s="9">
+        <v>9</v>
+      </c>
+      <c r="I142" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D143" s="1"/>
+      <c r="D143" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E143" s="1"/>
-      <c r="F143" s="7">
-        <v>32040</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A144" s="3" t="s">
+      <c r="F143" s="1"/>
+      <c r="G143" s="9">
+        <v>20</v>
+      </c>
+      <c r="H143" s="9">
+        <v>9</v>
+      </c>
+      <c r="I143" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D144" s="1"/>
+      <c r="D144" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E144" s="1"/>
-      <c r="F144" s="7">
-        <v>33212</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" customFormat="1">
-      <c r="A145" s="5" t="s">
+      <c r="F144" s="1"/>
+      <c r="G144" s="9">
+        <v>5</v>
+      </c>
+      <c r="H144" s="9">
+        <v>12</v>
+      </c>
+      <c r="I144" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D145" s="1"/>
+      <c r="D145" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="7">
-        <v>31564</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" customFormat="1" ht="24" customHeight="1">
-      <c r="A146" s="3" t="s">
+      <c r="F145" s="1"/>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="H145" s="9">
+        <v>6</v>
+      </c>
+      <c r="I145" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D146" s="1"/>
+      <c r="D146" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="7">
-        <v>31478</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" customFormat="1" ht="28.5">
-      <c r="A147" s="5" t="s">
+      <c r="F146" s="1"/>
+      <c r="G146" s="9">
+        <v>7</v>
+      </c>
+      <c r="H146" s="9">
+        <v>3</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1986</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="1"/>
+      <c r="D147" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="7">
-        <v>31978</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A148" s="3" t="s">
+      <c r="F147" s="1"/>
+      <c r="G147" s="9">
+        <v>20</v>
+      </c>
+      <c r="H147" s="9">
+        <v>7</v>
+      </c>
+      <c r="I147" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J147" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="1"/>
+      <c r="D148" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="7">
-        <v>31353</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" customFormat="1">
-      <c r="A149" s="5" t="s">
+      <c r="F148" s="1"/>
+      <c r="G148" s="9">
+        <v>2</v>
+      </c>
+      <c r="H148" s="9">
+        <v>11</v>
+      </c>
+      <c r="I148" s="9">
+        <v>1985</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D149" s="1"/>
+      <c r="D149" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="7">
-        <v>32021</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A150" s="3" t="s">
+      <c r="F149" s="1"/>
+      <c r="G149" s="9">
+        <v>1</v>
+      </c>
+      <c r="H149" s="9">
+        <v>9</v>
+      </c>
+      <c r="I149" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="1"/>
+      <c r="D150" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="7">
-        <v>34078</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" customFormat="1">
-      <c r="A151" s="5" t="s">
+      <c r="F150" s="1"/>
+      <c r="G150" s="9">
+        <v>19</v>
+      </c>
+      <c r="H150" s="9">
+        <v>4</v>
+      </c>
+      <c r="I150" s="9">
+        <v>1993</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B151" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="1"/>
+      <c r="D151" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="7">
-        <v>33162</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A152" s="3" t="s">
+      <c r="F151" s="1"/>
+      <c r="G151" s="9">
+        <v>16</v>
+      </c>
+      <c r="H151" s="9">
+        <v>10</v>
+      </c>
+      <c r="I151" s="9">
+        <v>1990</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D152" s="1"/>
+      <c r="D152" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="7">
-        <v>32806</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" customFormat="1">
-      <c r="A153" s="5" t="s">
+      <c r="F152" s="1"/>
+      <c r="G152" s="9">
+        <v>25</v>
+      </c>
+      <c r="H152" s="9">
+        <v>10</v>
+      </c>
+      <c r="I152" s="9">
+        <v>1989</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="1"/>
+      <c r="D153" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="7">
-        <v>33674</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <c r="A154" s="3" t="s">
+      <c r="F153" s="1"/>
+      <c r="G153" s="9">
+        <v>11</v>
+      </c>
+      <c r="H153" s="9">
+        <v>3</v>
+      </c>
+      <c r="I153" s="9">
+        <v>1992</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>878</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D154" s="1"/>
+      <c r="D154" s="5" t="s">
+        <v>877</v>
+      </c>
       <c r="E154" s="1"/>
-      <c r="F154" s="7">
-        <v>31828</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>870</v>
+      <c r="F154" s="1"/>
+      <c r="G154" s="9">
+        <v>20</v>
+      </c>
+      <c r="H154" s="9">
+        <v>2</v>
+      </c>
+      <c r="I154" s="9">
+        <v>1987</v>
+      </c>
+      <c r="J154" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -956,12 +956,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>a12456Aa</t>
-  </si>
-  <si>
-    <t>duyphucqb28@gmail.com</t>
-  </si>
-  <si>
     <t>8704 North Tunnel St.</t>
   </si>
   <si>
@@ -2679,13 +2673,19 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>thithaota0ba0@gmail.com</t>
+  </si>
+  <si>
+    <t>a123456Aa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2719,8 +2719,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2742,6 +2748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2773,7 +2785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2792,6 +2804,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,7 +3089,7 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,16 +3109,16 @@
   <sheetData>
     <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>307</v>
@@ -3113,27 +3127,27 @@
         <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>883</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>154</v>
@@ -3142,13 +3156,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>309</v>
+        <v>876</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>883</v>
       </c>
       <c r="G2" s="9">
         <v>29</v>
@@ -3160,18 +3174,18 @@
         <v>1994</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>155</v>
@@ -3180,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3194,18 +3208,18 @@
         <v>1986</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>156</v>
@@ -3214,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -3228,18 +3242,18 @@
         <v>1990</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>157</v>
@@ -3248,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3262,18 +3276,18 @@
         <v>1989</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>158</v>
@@ -3282,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3296,18 +3310,18 @@
         <v>1989</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>159</v>
@@ -3316,7 +3330,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3330,18 +3344,18 @@
         <v>1987</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>160</v>
@@ -3350,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -3364,18 +3378,18 @@
         <v>1987</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>161</v>
@@ -3384,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3398,18 +3412,18 @@
         <v>1993</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>162</v>
@@ -3418,7 +3432,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3432,18 +3446,18 @@
         <v>1994</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>163</v>
@@ -3452,7 +3466,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -3466,18 +3480,18 @@
         <v>1986</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>164</v>
@@ -3486,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -3500,18 +3514,18 @@
         <v>1987</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>165</v>
@@ -3520,7 +3534,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -3534,18 +3548,18 @@
         <v>1987</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>166</v>
@@ -3554,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -3568,18 +3582,18 @@
         <v>1992</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>167</v>
@@ -3588,7 +3602,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3602,18 +3616,18 @@
         <v>1992</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>168</v>
@@ -3622,7 +3636,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -3636,18 +3650,18 @@
         <v>1992</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>169</v>
@@ -3656,7 +3670,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -3670,18 +3684,18 @@
         <v>1991</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>170</v>
@@ -3690,7 +3704,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -3704,18 +3718,18 @@
         <v>1990</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>171</v>
@@ -3724,7 +3738,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -3738,18 +3752,18 @@
         <v>1985</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>172</v>
@@ -3758,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3772,18 +3786,18 @@
         <v>1986</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>173</v>
@@ -3792,7 +3806,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3806,18 +3820,18 @@
         <v>1988</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>174</v>
@@ -3826,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3840,18 +3854,18 @@
         <v>1986</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>175</v>
@@ -3860,7 +3874,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -3874,18 +3888,18 @@
         <v>1991</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>176</v>
@@ -3894,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3908,18 +3922,18 @@
         <v>1988</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>177</v>
@@ -3928,7 +3942,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3942,18 +3956,18 @@
         <v>1988</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>178</v>
@@ -3962,7 +3976,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3976,18 +3990,18 @@
         <v>1991</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>179</v>
@@ -3996,7 +4010,7 @@
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -4010,18 +4024,18 @@
         <v>1990</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>180</v>
@@ -4030,7 +4044,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4044,18 +4058,18 @@
         <v>1985</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>181</v>
@@ -4064,7 +4078,7 @@
         <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -4078,18 +4092,18 @@
         <v>1992</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>182</v>
@@ -4098,7 +4112,7 @@
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4112,18 +4126,18 @@
         <v>1993</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>183</v>
@@ -4132,7 +4146,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4146,18 +4160,18 @@
         <v>1987</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="32" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>184</v>
@@ -4166,7 +4180,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -4180,18 +4194,18 @@
         <v>1992</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>185</v>
@@ -4200,7 +4214,7 @@
         <v>33</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -4214,18 +4228,18 @@
         <v>1994</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>186</v>
@@ -4234,7 +4248,7 @@
         <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4248,18 +4262,18 @@
         <v>1986</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>187</v>
@@ -4268,7 +4282,7 @@
         <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4282,18 +4296,18 @@
         <v>1993</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>188</v>
@@ -4302,7 +4316,7 @@
         <v>36</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4316,18 +4330,18 @@
         <v>1990</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>189</v>
@@ -4336,7 +4350,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4350,18 +4364,18 @@
         <v>1990</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>190</v>
@@ -4370,7 +4384,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4384,18 +4398,18 @@
         <v>1985</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>191</v>
@@ -4404,7 +4418,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -4418,18 +4432,18 @@
         <v>1992</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>192</v>
@@ -4438,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4452,18 +4466,18 @@
         <v>1994</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>193</v>
@@ -4472,7 +4486,7 @@
         <v>41</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4486,18 +4500,18 @@
         <v>1991</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>194</v>
@@ -4506,7 +4520,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4520,18 +4534,18 @@
         <v>1994</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>195</v>
@@ -4540,7 +4554,7 @@
         <v>43</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4554,18 +4568,18 @@
         <v>1988</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>196</v>
@@ -4574,7 +4588,7 @@
         <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4588,18 +4602,18 @@
         <v>1985</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>197</v>
@@ -4608,7 +4622,7 @@
         <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4622,18 +4636,18 @@
         <v>1988</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>198</v>
@@ -4642,7 +4656,7 @@
         <v>46</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4656,18 +4670,18 @@
         <v>1993</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>199</v>
@@ -4676,7 +4690,7 @@
         <v>47</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4690,18 +4704,18 @@
         <v>1992</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>200</v>
@@ -4710,7 +4724,7 @@
         <v>48</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4724,18 +4738,18 @@
         <v>1992</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>201</v>
@@ -4744,7 +4758,7 @@
         <v>49</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4758,18 +4772,18 @@
         <v>1991</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>202</v>
@@ -4778,7 +4792,7 @@
         <v>50</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4792,18 +4806,18 @@
         <v>1986</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>203</v>
@@ -4812,7 +4826,7 @@
         <v>51</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4826,18 +4840,18 @@
         <v>1989</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>204</v>
@@ -4846,7 +4860,7 @@
         <v>52</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4860,18 +4874,18 @@
         <v>1990</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>205</v>
@@ -4880,7 +4894,7 @@
         <v>53</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -4894,18 +4908,18 @@
         <v>1990</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>206</v>
@@ -4914,7 +4928,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -4928,18 +4942,18 @@
         <v>1988</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>207</v>
@@ -4948,7 +4962,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4962,18 +4976,18 @@
         <v>1988</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>208</v>
@@ -4982,7 +4996,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -4996,18 +5010,18 @@
         <v>1993</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>209</v>
@@ -5016,7 +5030,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5030,18 +5044,18 @@
         <v>1986</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>210</v>
@@ -5050,7 +5064,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5064,18 +5078,18 @@
         <v>1992</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>211</v>
@@ -5084,7 +5098,7 @@
         <v>59</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5098,18 +5112,18 @@
         <v>1985</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="60" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>212</v>
@@ -5118,7 +5132,7 @@
         <v>60</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5132,18 +5146,18 @@
         <v>1991</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>213</v>
@@ -5152,7 +5166,7 @@
         <v>61</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5166,18 +5180,18 @@
         <v>1992</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>214</v>
@@ -5186,7 +5200,7 @@
         <v>62</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5200,18 +5214,18 @@
         <v>1991</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>215</v>
@@ -5220,7 +5234,7 @@
         <v>63</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5234,18 +5248,18 @@
         <v>1985</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>216</v>
@@ -5254,7 +5268,7 @@
         <v>64</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5268,18 +5282,18 @@
         <v>1985</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>217</v>
@@ -5288,7 +5302,7 @@
         <v>65</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5302,18 +5316,18 @@
         <v>1987</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>218</v>
@@ -5322,7 +5336,7 @@
         <v>66</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5336,18 +5350,18 @@
         <v>1988</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>219</v>
@@ -5356,7 +5370,7 @@
         <v>67</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -5370,18 +5384,18 @@
         <v>1991</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>97</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>220</v>
@@ -5390,7 +5404,7 @@
         <v>68</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5404,18 +5418,18 @@
         <v>1985</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>221</v>
@@ -5424,7 +5438,7 @@
         <v>69</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5438,18 +5452,18 @@
         <v>1991</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>222</v>
@@ -5458,7 +5472,7 @@
         <v>70</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5472,18 +5486,18 @@
         <v>1989</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>223</v>
@@ -5492,7 +5506,7 @@
         <v>71</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -5506,18 +5520,18 @@
         <v>1993</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>224</v>
@@ -5526,7 +5540,7 @@
         <v>72</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5540,18 +5554,18 @@
         <v>1994</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>225</v>
@@ -5560,7 +5574,7 @@
         <v>73</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -5574,18 +5588,18 @@
         <v>1991</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="74" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>226</v>
@@ -5594,7 +5608,7 @@
         <v>74</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5608,18 +5622,18 @@
         <v>1989</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>227</v>
@@ -5628,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -5642,18 +5656,18 @@
         <v>1990</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>228</v>
@@ -5662,7 +5676,7 @@
         <v>76</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -5676,18 +5690,18 @@
         <v>1994</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>229</v>
@@ -5696,7 +5710,7 @@
         <v>77</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -5710,18 +5724,18 @@
         <v>1992</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>230</v>
@@ -5730,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -5744,18 +5758,18 @@
         <v>1993</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>231</v>
@@ -5764,7 +5778,7 @@
         <v>78</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -5778,18 +5792,18 @@
         <v>1991</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>232</v>
@@ -5798,7 +5812,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -5812,18 +5826,18 @@
         <v>1987</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="81" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>233</v>
@@ -5832,7 +5846,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -5846,18 +5860,18 @@
         <v>1994</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>234</v>
@@ -5866,7 +5880,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -5880,18 +5894,18 @@
         <v>1994</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>235</v>
@@ -5900,7 +5914,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -5914,18 +5928,18 @@
         <v>1986</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>236</v>
@@ -5934,7 +5948,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -5948,18 +5962,18 @@
         <v>1986</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>237</v>
@@ -5968,7 +5982,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -5982,18 +5996,18 @@
         <v>1992</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="86" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>238</v>
@@ -6002,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6016,18 +6030,18 @@
         <v>1991</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>239</v>
@@ -6036,7 +6050,7 @@
         <v>85</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -6050,18 +6064,18 @@
         <v>1991</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>240</v>
@@ -6070,7 +6084,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -6084,18 +6098,18 @@
         <v>1993</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>241</v>
@@ -6104,7 +6118,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -6118,18 +6132,18 @@
         <v>1985</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>242</v>
@@ -6138,7 +6152,7 @@
         <v>88</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6152,18 +6166,18 @@
         <v>1986</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="91" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>243</v>
@@ -6172,7 +6186,7 @@
         <v>89</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -6186,18 +6200,18 @@
         <v>1991</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>244</v>
@@ -6206,7 +6220,7 @@
         <v>90</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -6220,18 +6234,18 @@
         <v>1994</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>245</v>
@@ -6240,7 +6254,7 @@
         <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -6254,18 +6268,18 @@
         <v>1992</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="94" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>246</v>
@@ -6274,7 +6288,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -6288,18 +6302,18 @@
         <v>1992</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>247</v>
@@ -6308,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -6322,18 +6336,18 @@
         <v>1994</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>248</v>
@@ -6342,7 +6356,7 @@
         <v>101</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -6356,18 +6370,18 @@
         <v>1985</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>249</v>
@@ -6376,7 +6390,7 @@
         <v>102</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -6390,18 +6404,18 @@
         <v>1990</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>250</v>
@@ -6410,7 +6424,7 @@
         <v>103</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -6424,18 +6438,18 @@
         <v>1985</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>251</v>
@@ -6444,7 +6458,7 @@
         <v>104</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -6458,18 +6472,18 @@
         <v>1988</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>252</v>
@@ -6478,7 +6492,7 @@
         <v>105</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -6492,18 +6506,18 @@
         <v>1992</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>253</v>
@@ -6512,7 +6526,7 @@
         <v>95</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -6526,18 +6540,18 @@
         <v>1994</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="102" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>254</v>
@@ -6546,7 +6560,7 @@
         <v>106</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -6560,18 +6574,18 @@
         <v>1987</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>255</v>
@@ -6580,7 +6594,7 @@
         <v>107</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -6594,18 +6608,18 @@
         <v>1993</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>256</v>
@@ -6614,7 +6628,7 @@
         <v>108</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -6628,18 +6642,18 @@
         <v>1989</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>257</v>
@@ -6648,7 +6662,7 @@
         <v>109</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -6662,18 +6676,18 @@
         <v>1993</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>258</v>
@@ -6682,7 +6696,7 @@
         <v>110</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -6696,18 +6710,18 @@
         <v>1985</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>259</v>
@@ -6716,7 +6730,7 @@
         <v>111</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -6730,18 +6744,18 @@
         <v>1986</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="108" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>260</v>
@@ -6750,7 +6764,7 @@
         <v>112</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -6764,18 +6778,18 @@
         <v>1989</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>261</v>
@@ -6784,7 +6798,7 @@
         <v>113</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
@@ -6798,18 +6812,18 @@
         <v>1994</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="110" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>262</v>
@@ -6818,7 +6832,7 @@
         <v>114</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -6832,18 +6846,18 @@
         <v>1992</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>263</v>
@@ -6852,7 +6866,7 @@
         <v>115</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6866,18 +6880,18 @@
         <v>1993</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="112" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>264</v>
@@ -6886,7 +6900,7 @@
         <v>116</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
@@ -6900,18 +6914,18 @@
         <v>1990</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>265</v>
@@ -6920,7 +6934,7 @@
         <v>117</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -6934,18 +6948,18 @@
         <v>1993</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>266</v>
@@ -6954,7 +6968,7 @@
         <v>118</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -6968,18 +6982,18 @@
         <v>1994</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>267</v>
@@ -6988,7 +7002,7 @@
         <v>119</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -7002,18 +7016,18 @@
         <v>1990</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="116" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>268</v>
@@ -7022,7 +7036,7 @@
         <v>120</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -7036,18 +7050,18 @@
         <v>1988</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>269</v>
@@ -7056,7 +7070,7 @@
         <v>121</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -7070,18 +7084,18 @@
         <v>1993</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>270</v>
@@ -7090,7 +7104,7 @@
         <v>122</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -7104,18 +7118,18 @@
         <v>1989</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>271</v>
@@ -7124,7 +7138,7 @@
         <v>123</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -7138,18 +7152,18 @@
         <v>1986</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>272</v>
@@ -7158,7 +7172,7 @@
         <v>124</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -7172,18 +7186,18 @@
         <v>1990</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>273</v>
@@ -7192,7 +7206,7 @@
         <v>98</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -7206,18 +7220,18 @@
         <v>1993</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="122" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>274</v>
@@ -7226,7 +7240,7 @@
         <v>125</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -7240,18 +7254,18 @@
         <v>1986</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>275</v>
@@ -7260,7 +7274,7 @@
         <v>126</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -7274,18 +7288,18 @@
         <v>1993</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="124" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>276</v>
@@ -7294,7 +7308,7 @@
         <v>127</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -7308,18 +7322,18 @@
         <v>1992</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="125" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>277</v>
@@ -7328,7 +7342,7 @@
         <v>128</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -7342,18 +7356,18 @@
         <v>1987</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>278</v>
@@ -7362,7 +7376,7 @@
         <v>129</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -7376,18 +7390,18 @@
         <v>1991</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>279</v>
@@ -7396,7 +7410,7 @@
         <v>130</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -7410,18 +7424,18 @@
         <v>1993</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>280</v>
@@ -7430,7 +7444,7 @@
         <v>131</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -7444,18 +7458,18 @@
         <v>1994</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>281</v>
@@ -7464,7 +7478,7 @@
         <v>132</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -7478,18 +7492,18 @@
         <v>1986</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="130" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>282</v>
@@ -7498,7 +7512,7 @@
         <v>133</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -7512,18 +7526,18 @@
         <v>1993</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>283</v>
@@ -7532,7 +7546,7 @@
         <v>134</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -7546,18 +7560,18 @@
         <v>1987</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="132" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>284</v>
@@ -7566,7 +7580,7 @@
         <v>135</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -7580,18 +7594,18 @@
         <v>1993</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>285</v>
@@ -7600,7 +7614,7 @@
         <v>136</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -7614,18 +7628,18 @@
         <v>1988</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="134" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>286</v>
@@ -7634,7 +7648,7 @@
         <v>137</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -7648,18 +7662,18 @@
         <v>1988</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>287</v>
@@ -7668,7 +7682,7 @@
         <v>138</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -7682,18 +7696,18 @@
         <v>1992</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="136" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>288</v>
@@ -7702,7 +7716,7 @@
         <v>139</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -7716,18 +7730,18 @@
         <v>1988</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>289</v>
@@ -7736,7 +7750,7 @@
         <v>140</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -7750,18 +7764,18 @@
         <v>1987</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="138" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>290</v>
@@ -7770,7 +7784,7 @@
         <v>141</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -7784,18 +7798,18 @@
         <v>1986</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>291</v>
@@ -7804,7 +7818,7 @@
         <v>142</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -7818,18 +7832,18 @@
         <v>1987</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="140" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>292</v>
@@ -7838,7 +7852,7 @@
         <v>143</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -7852,18 +7866,18 @@
         <v>1988</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="141" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>293</v>
@@ -7872,7 +7886,7 @@
         <v>144</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -7886,18 +7900,18 @@
         <v>1992</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="142" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>294</v>
@@ -7906,7 +7920,7 @@
         <v>145</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -7920,18 +7934,18 @@
         <v>1985</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>295</v>
@@ -7940,7 +7954,7 @@
         <v>94</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -7954,18 +7968,18 @@
         <v>1987</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="144" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>296</v>
@@ -7974,7 +7988,7 @@
         <v>146</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -7988,18 +8002,18 @@
         <v>1990</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>297</v>
@@ -8008,7 +8022,7 @@
         <v>147</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -8022,18 +8036,18 @@
         <v>1986</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>298</v>
@@ -8042,7 +8056,7 @@
         <v>96</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -8056,18 +8070,18 @@
         <v>1986</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="147" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>299</v>
@@ -8076,7 +8090,7 @@
         <v>148</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -8090,18 +8104,18 @@
         <v>1987</v>
       </c>
       <c r="J147" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="148" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>300</v>
@@ -8110,7 +8124,7 @@
         <v>149</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -8124,18 +8138,18 @@
         <v>1985</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>301</v>
@@ -8144,7 +8158,7 @@
         <v>150</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -8158,18 +8172,18 @@
         <v>1987</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="150" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>302</v>
@@ -8178,7 +8192,7 @@
         <v>151</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -8192,18 +8206,18 @@
         <v>1993</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>303</v>
@@ -8212,7 +8226,7 @@
         <v>152</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -8226,18 +8240,18 @@
         <v>1990</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>304</v>
@@ -8246,7 +8260,7 @@
         <v>93</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -8260,18 +8274,18 @@
         <v>1989</v>
       </c>
       <c r="J152" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>305</v>
@@ -8280,7 +8294,7 @@
         <v>153</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -8294,18 +8308,18 @@
         <v>1992</v>
       </c>
       <c r="J153" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>306</v>
@@ -8314,7 +8328,7 @@
         <v>99</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -8328,13 +8342,13 @@
         <v>1987</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -26,8 +26,172 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>USER</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bạn là người gốc Tây Ban Nha
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Giá trị rồng cá nhân </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Toàn thời gian</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tình trạng hôn nhân
+2870:Cưới nhau
+2871:Chưa kết hôn
+2872:Độc Thân</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bạn là người dân tộc nào
+2863:Da trắng
+2864: Tây Ban nHa
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trình độ học vấn:
+2840:Cao đẳng
+2841: Đại học
+2842:Cao học</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="890">
   <si>
     <t>Adam</t>
   </si>
@@ -2679,13 +2843,31 @@
   </si>
   <si>
     <t>a123456Aa</t>
+  </si>
+  <si>
+    <t>demographics_Origin</t>
+  </si>
+  <si>
+    <t>demographics_Worth</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>demographics_Employment</t>
+  </si>
+  <si>
+    <t>demographics_Marital</t>
+  </si>
+  <si>
+    <t>demographics_Ethnicity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2723,6 +2905,25 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2785,7 +2986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,6 +3007,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3085,11 +3288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,13 +3304,17 @@
     <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="40" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="7"/>
+    <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>722</v>
       </c>
@@ -3144,8 +3351,26 @@
       <c r="L1" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>822</v>
       </c>
@@ -3182,8 +3407,31 @@
       <c r="L2" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M2" s="13">
+        <f ca="1">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
+        <v>2858</v>
+      </c>
+      <c r="N2" s="12">
+        <f ca="1">RANDBETWEEN(2849,2852)</f>
+        <v>2849</v>
+      </c>
+      <c r="O2" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P2" s="12">
+        <f ca="1">RANDBETWEEN(2870,2872)</f>
+        <v>2871</v>
+      </c>
+      <c r="Q2" s="12">
+        <f ca="1">RANDBETWEEN(2863,2864)</f>
+        <v>2864</v>
+      </c>
+      <c r="R2" s="12">
+        <f ca="1">RANDBETWEEN(2840,2842)</f>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>756</v>
       </c>
@@ -3216,8 +3464,31 @@
       <c r="L3" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M66" ca="1" si="0">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
+        <v>2858</v>
+      </c>
+      <c r="N3" s="12">
+        <f t="shared" ref="N3:N66" ca="1" si="1">RANDBETWEEN(2849,2852)</f>
+        <v>2851</v>
+      </c>
+      <c r="O3" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P3" s="12">
+        <f t="shared" ref="P3:P66" ca="1" si="2">RANDBETWEEN(2870,2872)</f>
+        <v>2870</v>
+      </c>
+      <c r="Q3" s="12">
+        <f t="shared" ref="Q3:Q66" ca="1" si="3">RANDBETWEEN(2863,2864)</f>
+        <v>2864</v>
+      </c>
+      <c r="R3" s="12">
+        <f t="shared" ref="R3:R66" ca="1" si="4">RANDBETWEEN(2840,2842)</f>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>771</v>
       </c>
@@ -3250,8 +3521,31 @@
       <c r="L4" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N4" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O4" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P4" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R4" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>830</v>
       </c>
@@ -3284,8 +3578,31 @@
       <c r="L5" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O5" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P5" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R5" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>787</v>
       </c>
@@ -3318,8 +3635,31 @@
       <c r="L6" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N6" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O6" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P6" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R6" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>757</v>
       </c>
@@ -3352,8 +3692,31 @@
       <c r="L7" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P7" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R7" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>749</v>
       </c>
@@ -3386,8 +3749,31 @@
       <c r="L8" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P8" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R8" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>762</v>
       </c>
@@ -3420,8 +3806,31 @@
       <c r="L9" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P9" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R9" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>816</v>
       </c>
@@ -3454,8 +3863,31 @@
       <c r="L10" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>720</v>
       </c>
@@ -3488,8 +3920,31 @@
       <c r="L11" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O11" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q11" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R11" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>870</v>
       </c>
@@ -3522,8 +3977,31 @@
       <c r="L12" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R12" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>814</v>
       </c>
@@ -3556,8 +4034,31 @@
       <c r="L13" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O13" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>752</v>
       </c>
@@ -3590,8 +4091,31 @@
       <c r="L14" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O14" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>739</v>
       </c>
@@ -3624,8 +4148,31 @@
       <c r="L15" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O15" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P15" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q15" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R15" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>759</v>
       </c>
@@ -3658,8 +4205,31 @@
       <c r="L16" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O16" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>740</v>
       </c>
@@ -3692,8 +4262,31 @@
       <c r="L17" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O17" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q17" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>781</v>
       </c>
@@ -3726,8 +4319,31 @@
       <c r="L18" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O18" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P18" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q18" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>736</v>
       </c>
@@ -3760,8 +4376,31 @@
       <c r="L19" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O19" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P19" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q19" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R19" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>866</v>
       </c>
@@ -3794,8 +4433,31 @@
       <c r="L20" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O20" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>812</v>
       </c>
@@ -3828,8 +4490,31 @@
       <c r="L21" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O21" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P21" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R21" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>861</v>
       </c>
@@ -3862,8 +4547,31 @@
       <c r="L22" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P22" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>775</v>
       </c>
@@ -3896,8 +4604,31 @@
       <c r="L23" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O23" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>746</v>
       </c>
@@ -3930,8 +4661,31 @@
       <c r="L24" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O24" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P24" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>802</v>
       </c>
@@ -3964,8 +4718,31 @@
       <c r="L25" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O25" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P25" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R25" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>862</v>
       </c>
@@ -3998,8 +4775,31 @@
       <c r="L26" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O26" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P26" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q26" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R26" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>772</v>
       </c>
@@ -4032,8 +4832,30 @@
       <c r="L27" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="O27" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>826</v>
       </c>
@@ -4066,8 +4888,31 @@
       <c r="L28" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O28" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P28" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R28" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>818</v>
       </c>
@@ -4100,8 +4945,31 @@
       <c r="L29" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N29" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O29" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P29" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>803</v>
       </c>
@@ -4134,8 +5002,31 @@
       <c r="L30" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O30" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P30" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>727</v>
       </c>
@@ -4168,8 +5059,31 @@
       <c r="L31" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O31" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q31" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R31" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>737</v>
       </c>
@@ -4202,8 +5116,31 @@
       <c r="L32" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O32" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>868</v>
       </c>
@@ -4236,8 +5173,31 @@
       <c r="L33" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O33" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>873</v>
       </c>
@@ -4270,8 +5230,31 @@
       <c r="L34" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O34" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>797</v>
       </c>
@@ -4304,8 +5287,31 @@
       <c r="L35" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O35" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P35" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q35" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R35" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>751</v>
       </c>
@@ -4338,8 +5344,31 @@
       <c r="L36" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O36" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>831</v>
       </c>
@@ -4372,8 +5401,31 @@
       <c r="L37" s="1" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O37" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>864</v>
       </c>
@@ -4406,8 +5458,31 @@
       <c r="L38" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O38" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>821</v>
       </c>
@@ -4440,8 +5515,31 @@
       <c r="L39" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N39" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O39" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P39" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q39" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>800</v>
       </c>
@@ -4474,8 +5572,31 @@
       <c r="L40" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O40" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P40" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q40" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>798</v>
       </c>
@@ -4508,8 +5629,31 @@
       <c r="L41" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N41" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O41" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P41" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q41" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>765</v>
       </c>
@@ -4542,8 +5686,31 @@
       <c r="L42" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O42" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P42" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>777</v>
       </c>
@@ -4576,8 +5743,31 @@
       <c r="L43" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O43" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>791</v>
       </c>
@@ -4610,8 +5800,31 @@
       <c r="L44" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O44" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P44" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q44" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R44" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>865</v>
       </c>
@@ -4644,8 +5857,31 @@
       <c r="L45" s="1" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N45" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O45" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P45" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q45" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R45" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>785</v>
       </c>
@@ -4678,8 +5914,31 @@
       <c r="L46" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O46" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P46" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q46" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R46" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>863</v>
       </c>
@@ -4712,8 +5971,31 @@
       <c r="L47" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N47" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O47" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P47" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q47" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R47" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>808</v>
       </c>
@@ -4746,8 +6028,31 @@
       <c r="L48" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M48" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O48" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P48" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q48" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R48" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>824</v>
       </c>
@@ -4780,8 +6085,31 @@
       <c r="L49" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O49" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P49" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q49" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R49" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>805</v>
       </c>
@@ -4814,8 +6142,31 @@
       <c r="L50" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M50" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N50" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O50" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P50" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q50" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R50" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>843</v>
       </c>
@@ -4848,8 +6199,31 @@
       <c r="L51" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N51" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O51" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P51" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q51" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R51" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>793</v>
       </c>
@@ -4882,8 +6256,31 @@
       <c r="L52" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O52" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P52" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q52" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R52" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>728</v>
       </c>
@@ -4916,8 +6313,31 @@
       <c r="L53" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O53" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P53" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q53" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R53" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>766</v>
       </c>
@@ -4950,8 +6370,31 @@
       <c r="L54" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M54" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N54" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O54" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P54" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2872</v>
+      </c>
+      <c r="Q54" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R54" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>729</v>
       </c>
@@ -4984,8 +6427,31 @@
       <c r="L55" s="1" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O55" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P55" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q55" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R55" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>783</v>
       </c>
@@ -5018,8 +6484,31 @@
       <c r="L56" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2850</v>
+      </c>
+      <c r="O56" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P56" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q56" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R56" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>839</v>
       </c>
@@ -5052,8 +6541,31 @@
       <c r="L57" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N57" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O57" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P57" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q57" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R57" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>834</v>
       </c>
@@ -5086,8 +6598,31 @@
       <c r="L58" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M58" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N58" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O58" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P58" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q58" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R58" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>832</v>
       </c>
@@ -5120,8 +6655,31 @@
       <c r="L59" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N59" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O59" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P59" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q59" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R59" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>827</v>
       </c>
@@ -5154,8 +6712,31 @@
       <c r="L60" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N60" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O60" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P60" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q60" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R60" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>726</v>
       </c>
@@ -5188,8 +6769,31 @@
       <c r="L61" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N61" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O61" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P61" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q61" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2864</v>
+      </c>
+      <c r="R61" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>789</v>
       </c>
@@ -5222,8 +6826,31 @@
       <c r="L62" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M62" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N62" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O62" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P62" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q62" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R62" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>795</v>
       </c>
@@ -5256,8 +6883,31 @@
       <c r="L63" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N63" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O63" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P63" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q63" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R63" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>734</v>
       </c>
@@ -5290,8 +6940,31 @@
       <c r="L64" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M64" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N64" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2849</v>
+      </c>
+      <c r="O64" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P64" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q64" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R64" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>819</v>
       </c>
@@ -5324,8 +6997,31 @@
       <c r="L65" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2852</v>
+      </c>
+      <c r="O65" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P65" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2871</v>
+      </c>
+      <c r="Q65" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R65" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>829</v>
       </c>
@@ -5358,8 +7054,31 @@
       <c r="L66" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>2862</v>
+      </c>
+      <c r="N66" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>2851</v>
+      </c>
+      <c r="O66" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P66" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2870</v>
+      </c>
+      <c r="Q66" s="12">
+        <f t="shared" ca="1" si="3"/>
+        <v>2863</v>
+      </c>
+      <c r="R66" s="12">
+        <f t="shared" ca="1" si="4"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>754</v>
       </c>
@@ -5392,8 +7111,31 @@
       <c r="L67" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="13">
+        <f t="shared" ref="M67:M130" ca="1" si="5">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
+        <v>2858</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" ref="N67:N130" ca="1" si="6">RANDBETWEEN(2849,2852)</f>
+        <v>2849</v>
+      </c>
+      <c r="O67" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P67" s="12">
+        <f t="shared" ref="P67:P130" ca="1" si="7">RANDBETWEEN(2870,2872)</f>
+        <v>2872</v>
+      </c>
+      <c r="Q67" s="12">
+        <f t="shared" ref="Q67:Q130" ca="1" si="8">RANDBETWEEN(2863,2864)</f>
+        <v>2863</v>
+      </c>
+      <c r="R67" s="12">
+        <f t="shared" ref="R67:R130" ca="1" si="9">RANDBETWEEN(2840,2842)</f>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>748</v>
       </c>
@@ -5426,8 +7168,31 @@
       <c r="L68" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M68" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N68" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O68" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P68" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q68" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R68" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>811</v>
       </c>
@@ -5460,8 +7225,31 @@
       <c r="L69" s="1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O69" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P69" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q69" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R69" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>779</v>
       </c>
@@ -5494,8 +7282,31 @@
       <c r="L70" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O70" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P70" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q70" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R70" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>731</v>
       </c>
@@ -5528,8 +7339,31 @@
       <c r="L71" s="1" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O71" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P71" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q71" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R71" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>809</v>
       </c>
@@ -5562,8 +7396,31 @@
       <c r="L72" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O72" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P72" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q72" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R72" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>857</v>
       </c>
@@ -5596,8 +7453,31 @@
       <c r="L73" s="1" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O73" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P73" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q73" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R73" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>724</v>
       </c>
@@ -5630,8 +7510,31 @@
       <c r="L74" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N74" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O74" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P74" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q74" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R74" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>806</v>
       </c>
@@ -5664,8 +7567,31 @@
       <c r="L75" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O75" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P75" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q75" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R75" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>758</v>
       </c>
@@ -5698,8 +7624,31 @@
       <c r="L76" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O76" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P76" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q76" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R76" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>844</v>
       </c>
@@ -5732,8 +7681,31 @@
       <c r="L77" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O77" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P77" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q77" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R77" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>869</v>
       </c>
@@ -5766,8 +7738,31 @@
       <c r="L78" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M78" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O78" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q78" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R78" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>796</v>
       </c>
@@ -5800,8 +7795,31 @@
       <c r="L79" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M79" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O79" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P79" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q79" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R79" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>817</v>
       </c>
@@ -5834,8 +7852,31 @@
       <c r="L80" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M80" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O80" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P80" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q80" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R80" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>741</v>
       </c>
@@ -5868,8 +7909,31 @@
       <c r="L81" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M81" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O81" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P81" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q81" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R81" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>750</v>
       </c>
@@ -5902,8 +7966,31 @@
       <c r="L82" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M82" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O82" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P82" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q82" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R82" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>786</v>
       </c>
@@ -5936,8 +8023,31 @@
       <c r="L83" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O83" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P83" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q83" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R83" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>850</v>
       </c>
@@ -5970,8 +8080,31 @@
       <c r="L84" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O84" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P84" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q84" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R84" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>733</v>
       </c>
@@ -6004,8 +8137,31 @@
       <c r="L85" s="1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O85" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P85" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q85" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R85" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>794</v>
       </c>
@@ -6038,8 +8194,31 @@
       <c r="L86" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O86" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P86" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q86" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R86" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>858</v>
       </c>
@@ -6072,8 +8251,31 @@
       <c r="L87" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N87" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O87" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P87" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q87" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R87" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>837</v>
       </c>
@@ -6106,8 +8308,31 @@
       <c r="L88" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M88" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N88" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O88" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P88" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q88" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R88" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>776</v>
       </c>
@@ -6140,8 +8365,31 @@
       <c r="L89" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N89" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O89" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P89" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q89" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R89" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>851</v>
       </c>
@@ -6174,8 +8422,31 @@
       <c r="L90" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M90" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N90" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O90" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P90" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q90" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R90" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>761</v>
       </c>
@@ -6208,8 +8479,31 @@
       <c r="L91" s="1" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N91" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O91" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P91" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q91" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R91" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>835</v>
       </c>
@@ -6242,8 +8536,31 @@
       <c r="L92" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N92" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O92" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P92" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q92" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R92" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>799</v>
       </c>
@@ -6276,8 +8593,31 @@
       <c r="L93" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N93" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O93" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P93" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q93" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R93" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>836</v>
       </c>
@@ -6310,8 +8650,31 @@
       <c r="L94" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M94" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N94" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O94" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P94" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q94" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R94" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>735</v>
       </c>
@@ -6344,8 +8707,31 @@
       <c r="L95" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N95" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O95" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P95" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q95" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R95" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>782</v>
       </c>
@@ -6378,8 +8764,31 @@
       <c r="L96" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N96" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O96" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P96" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q96" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R96" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>764</v>
       </c>
@@ -6412,8 +8821,31 @@
       <c r="L97" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N97" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O97" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P97" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q97" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R97" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>725</v>
       </c>
@@ -6446,8 +8878,31 @@
       <c r="L98" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N98" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O98" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P98" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q98" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R98" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>828</v>
       </c>
@@ -6480,8 +8935,31 @@
       <c r="L99" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N99" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O99" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P99" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q99" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R99" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>770</v>
       </c>
@@ -6514,8 +8992,31 @@
       <c r="L100" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M100" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N100" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O100" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P100" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q100" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R100" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>732</v>
       </c>
@@ -6548,8 +9049,31 @@
       <c r="L101" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N101" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O101" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P101" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q101" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R101" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>742</v>
       </c>
@@ -6582,8 +9106,31 @@
       <c r="L102" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N102" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O102" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P102" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q102" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R102" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>744</v>
       </c>
@@ -6616,8 +9163,31 @@
       <c r="L103" s="1" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N103" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O103" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P103" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q103" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R103" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>780</v>
       </c>
@@ -6650,8 +9220,31 @@
       <c r="L104" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N104" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O104" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P104" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q104" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R104" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>838</v>
       </c>
@@ -6684,8 +9277,31 @@
       <c r="L105" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N105" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O105" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P105" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q105" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R105" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>788</v>
       </c>
@@ -6718,8 +9334,31 @@
       <c r="L106" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N106" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O106" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P106" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q106" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R106" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>804</v>
       </c>
@@ -6752,8 +9391,31 @@
       <c r="L107" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N107" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O107" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P107" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q107" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R107" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>872</v>
       </c>
@@ -6786,8 +9448,31 @@
       <c r="L108" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N108" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O108" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P108" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q108" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R108" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>768</v>
       </c>
@@ -6820,8 +9505,31 @@
       <c r="L109" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N109" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O109" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P109" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q109" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R109" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>755</v>
       </c>
@@ -6854,8 +9562,31 @@
       <c r="L110" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N110" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O110" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P110" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q110" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R110" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>747</v>
       </c>
@@ -6888,8 +9619,31 @@
       <c r="L111" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N111" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O111" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P111" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q111" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R111" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>860</v>
       </c>
@@ -6922,8 +9676,31 @@
       <c r="L112" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N112" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O112" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P112" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q112" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R112" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>743</v>
       </c>
@@ -6956,8 +9733,31 @@
       <c r="L113" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N113" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O113" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P113" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q113" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R113" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>801</v>
       </c>
@@ -6990,8 +9790,31 @@
       <c r="L114" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M114" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N114" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O114" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P114" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q114" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R114" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>769</v>
       </c>
@@ -7024,8 +9847,31 @@
       <c r="L115" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M115" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N115" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O115" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P115" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q115" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R115" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>853</v>
       </c>
@@ -7058,8 +9904,31 @@
       <c r="L116" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N116" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O116" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P116" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q116" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R116" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>773</v>
       </c>
@@ -7092,8 +9961,31 @@
       <c r="L117" s="1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N117" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O117" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P117" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q117" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R117" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>856</v>
       </c>
@@ -7126,8 +10018,31 @@
       <c r="L118" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="M118" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N118" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O118" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P118" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q118" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R118" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>763</v>
       </c>
@@ -7160,8 +10075,31 @@
       <c r="L119" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M119" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N119" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O119" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P119" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q119" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R119" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>774</v>
       </c>
@@ -7194,8 +10132,31 @@
       <c r="L120" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M120" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N120" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O120" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P120" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q120" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R120" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>721</v>
       </c>
@@ -7228,8 +10189,31 @@
       <c r="L121" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N121" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O121" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P121" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q121" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R121" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>723</v>
       </c>
@@ -7262,8 +10246,31 @@
       <c r="L122" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N122" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O122" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P122" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q122" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R122" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>760</v>
       </c>
@@ -7296,8 +10303,31 @@
       <c r="L123" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N123" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2851</v>
+      </c>
+      <c r="O123" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P123" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q123" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R123" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>854</v>
       </c>
@@ -7330,8 +10360,31 @@
       <c r="L124" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M124" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N124" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O124" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P124" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q124" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R124" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>840</v>
       </c>
@@ -7364,8 +10417,31 @@
       <c r="L125" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N125" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O125" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P125" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q125" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R125" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>745</v>
       </c>
@@ -7398,8 +10474,31 @@
       <c r="L126" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N126" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2852</v>
+      </c>
+      <c r="O126" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P126" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q126" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R126" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>823</v>
       </c>
@@ -7432,8 +10531,31 @@
       <c r="L127" s="1" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N127" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O127" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P127" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q127" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R127" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>792</v>
       </c>
@@ -7466,8 +10588,31 @@
       <c r="L128" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N128" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O128" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P128" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2871</v>
+      </c>
+      <c r="Q128" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R128" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>778</v>
       </c>
@@ -7500,8 +10645,31 @@
       <c r="L129" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2858</v>
+      </c>
+      <c r="N129" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2850</v>
+      </c>
+      <c r="O129" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P129" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2872</v>
+      </c>
+      <c r="Q129" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2864</v>
+      </c>
+      <c r="R129" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>790</v>
       </c>
@@ -7534,8 +10702,31 @@
       <c r="L130" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="13">
+        <f t="shared" ca="1" si="5"/>
+        <v>2862</v>
+      </c>
+      <c r="N130" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>2849</v>
+      </c>
+      <c r="O130" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P130" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>2870</v>
+      </c>
+      <c r="Q130" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>2863</v>
+      </c>
+      <c r="R130" s="12">
+        <f t="shared" ca="1" si="9"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>847</v>
       </c>
@@ -7568,8 +10759,31 @@
       <c r="L131" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="13">
+        <f t="shared" ref="M131:M154" ca="1" si="10">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
+        <v>2858</v>
+      </c>
+      <c r="N131" s="12">
+        <f t="shared" ref="N131:N154" ca="1" si="11">RANDBETWEEN(2849,2852)</f>
+        <v>2851</v>
+      </c>
+      <c r="O131" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P131" s="12">
+        <f t="shared" ref="P131:P154" ca="1" si="12">RANDBETWEEN(2870,2872)</f>
+        <v>2870</v>
+      </c>
+      <c r="Q131" s="12">
+        <f t="shared" ref="Q131:Q154" ca="1" si="13">RANDBETWEEN(2863,2864)</f>
+        <v>2864</v>
+      </c>
+      <c r="R131" s="12">
+        <f t="shared" ref="R131:R154" ca="1" si="14">RANDBETWEEN(2840,2842)</f>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>852</v>
       </c>
@@ -7602,8 +10816,31 @@
       <c r="L132" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N132" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O132" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P132" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q132" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R132" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>753</v>
       </c>
@@ -7636,8 +10873,31 @@
       <c r="L133" s="1" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N133" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O133" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P133" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q133" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R133" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>820</v>
       </c>
@@ -7670,8 +10930,31 @@
       <c r="L134" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N134" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O134" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P134" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q134" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R134" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>738</v>
       </c>
@@ -7704,8 +10987,31 @@
       <c r="L135" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N135" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O135" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P135" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q135" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R135" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>833</v>
       </c>
@@ -7738,8 +11044,31 @@
       <c r="L136" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N136" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O136" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P136" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q136" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R136" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>730</v>
       </c>
@@ -7772,8 +11101,31 @@
       <c r="L137" s="1" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M137" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N137" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2851</v>
+      </c>
+      <c r="O137" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P137" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q137" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R137" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>767</v>
       </c>
@@ -7806,8 +11158,31 @@
       <c r="L138" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M138" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N138" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O138" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P138" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q138" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R138" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>813</v>
       </c>
@@ -7840,8 +11215,31 @@
       <c r="L139" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M139" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N139" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O139" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P139" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q139" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R139" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>784</v>
       </c>
@@ -7874,8 +11272,31 @@
       <c r="L140" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M140" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N140" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O140" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P140" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q140" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R140" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>859</v>
       </c>
@@ -7908,8 +11329,31 @@
       <c r="L141" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M141" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N141" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O141" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P141" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q141" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R141" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>815</v>
       </c>
@@ -7942,8 +11386,31 @@
       <c r="L142" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M142" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N142" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O142" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P142" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q142" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R142" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>841</v>
       </c>
@@ -7976,8 +11443,31 @@
       <c r="L143" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M143" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N143" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O143" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P143" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q143" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R143" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>849</v>
       </c>
@@ -8010,8 +11500,31 @@
       <c r="L144" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M144" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N144" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2850</v>
+      </c>
+      <c r="O144" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P144" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q144" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R144" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>845</v>
       </c>
@@ -8044,8 +11557,31 @@
       <c r="L145" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M145" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N145" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O145" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P145" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q145" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R145" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>825</v>
       </c>
@@ -8078,8 +11614,31 @@
       <c r="L146" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="M146" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N146" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O146" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P146" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q146" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R146" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>842</v>
       </c>
@@ -8112,8 +11671,31 @@
       <c r="L147" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M147" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N147" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2850</v>
+      </c>
+      <c r="O147" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P147" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q147" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R147" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>871</v>
       </c>
@@ -8146,8 +11728,31 @@
       <c r="L148" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M148" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N148" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O148" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P148" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q148" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R148" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>848</v>
       </c>
@@ -8180,8 +11785,31 @@
       <c r="L149" s="1" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N149" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O149" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P149" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q149" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R149" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>810</v>
       </c>
@@ -8214,8 +11842,31 @@
       <c r="L150" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M150" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N150" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2851</v>
+      </c>
+      <c r="O150" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P150" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q150" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R150" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>807</v>
       </c>
@@ -8248,8 +11899,31 @@
       <c r="L151" s="1" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N151" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O151" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P151" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q151" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2864</v>
+      </c>
+      <c r="R151" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>846</v>
       </c>
@@ -8282,8 +11956,31 @@
       <c r="L152" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M152" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N152" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O152" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P152" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2871</v>
+      </c>
+      <c r="Q152" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R152" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>855</v>
       </c>
@@ -8316,8 +12013,31 @@
       <c r="L153" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2862</v>
+      </c>
+      <c r="N153" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2849</v>
+      </c>
+      <c r="O153" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P153" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2870</v>
+      </c>
+      <c r="Q153" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R153" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>867</v>
       </c>
@@ -8350,9 +12070,33 @@
       <c r="L154" s="1" t="s">
         <v>719</v>
       </c>
+      <c r="M154" s="13">
+        <f t="shared" ca="1" si="10"/>
+        <v>2858</v>
+      </c>
+      <c r="N154" s="12">
+        <f t="shared" ca="1" si="11"/>
+        <v>2852</v>
+      </c>
+      <c r="O154" s="12">
+        <v>2830</v>
+      </c>
+      <c r="P154" s="12">
+        <f t="shared" ca="1" si="12"/>
+        <v>2872</v>
+      </c>
+      <c r="Q154" s="12">
+        <f t="shared" ca="1" si="13"/>
+        <v>2863</v>
+      </c>
+      <c r="R154" s="12">
+        <f t="shared" ca="1" si="14"/>
+        <v>2840</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Id.xlsx
+++ b/Id.xlsx
@@ -32,6 +32,32 @@
     <author>USER</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+demographics_Gender_2828:MALE
+demographics_Gender_2829:FMALE
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2818,12 +2844,6 @@
     <t>fName</t>
   </si>
   <si>
-    <t>FMALE</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
@@ -2861,6 +2881,12 @@
   </si>
   <si>
     <t>demographics_Ethnicity</t>
+  </si>
+  <si>
+    <t>demographics_Gender_2828</t>
+  </si>
+  <si>
+    <t>demographics_Gender_2829</t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2982,11 +3008,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3009,6 +3048,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3292,13 +3332,15 @@
   <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="2" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="46.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="12.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
@@ -3322,25 +3364,25 @@
         <v>874</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>564</v>
@@ -3352,22 +3394,22 @@
         <v>566</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>885</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>889</v>
-      </c>
       <c r="R1" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3380,14 +3422,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>876</v>
+      <c r="D2" s="12" t="s">
+        <v>888</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G2" s="9">
         <v>29</v>
@@ -3408,27 +3450,22 @@
         <v>567</v>
       </c>
       <c r="M2" s="13">
-        <f ca="1">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
         <v>2858</v>
       </c>
       <c r="N2" s="12">
-        <f ca="1">RANDBETWEEN(2849,2852)</f>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O2" s="12">
         <v>2830</v>
       </c>
       <c r="P2" s="12">
-        <f ca="1">RANDBETWEEN(2870,2872)</f>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q2" s="12">
-        <f ca="1">RANDBETWEEN(2863,2864)</f>
         <v>2864</v>
       </c>
       <c r="R2" s="12">
-        <f ca="1">RANDBETWEEN(2840,2842)</f>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="3" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -3441,10 +3478,10 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="D3" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9">
         <v>5</v>
@@ -3465,27 +3502,22 @@
         <v>568</v>
       </c>
       <c r="M3" s="13">
-        <f t="shared" ref="M3:M66" ca="1" si="0">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
         <v>2858</v>
       </c>
       <c r="N3" s="12">
-        <f t="shared" ref="N3:N66" ca="1" si="1">RANDBETWEEN(2849,2852)</f>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O3" s="12">
         <v>2830</v>
       </c>
       <c r="P3" s="12">
-        <f t="shared" ref="P3:P66" ca="1" si="2">RANDBETWEEN(2870,2872)</f>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q3" s="12">
-        <f t="shared" ref="Q3:Q66" ca="1" si="3">RANDBETWEEN(2863,2864)</f>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R3" s="12">
-        <f t="shared" ref="R3:R66" ca="1" si="4">RANDBETWEEN(2840,2842)</f>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="4" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,10 +3530,10 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="D4" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="1"/>
       <c r="G4" s="9">
         <v>30</v>
@@ -3522,27 +3554,22 @@
         <v>569</v>
       </c>
       <c r="M4" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N4" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O4" s="12">
         <v>2830</v>
       </c>
       <c r="P4" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q4" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R4" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3555,10 +3582,10 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9">
         <v>18</v>
@@ -3579,26 +3606,21 @@
         <v>570</v>
       </c>
       <c r="M5" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N5" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O5" s="12">
         <v>2830</v>
       </c>
       <c r="P5" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q5" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -3612,10 +3634,10 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9">
         <v>1</v>
@@ -3636,26 +3658,21 @@
         <v>571</v>
       </c>
       <c r="M6" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O6" s="12">
         <v>2830</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q6" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R6" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -3669,10 +3686,10 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9">
         <v>16</v>
@@ -3693,27 +3710,22 @@
         <v>572</v>
       </c>
       <c r="M7" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N7" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2850</v>
       </c>
       <c r="O7" s="12">
         <v>2830</v>
       </c>
       <c r="P7" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q7" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R7" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="8" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3726,10 +3738,10 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="D8" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9">
         <v>13</v>
@@ -3750,26 +3762,21 @@
         <v>573</v>
       </c>
       <c r="M8" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O8" s="12">
         <v>2830</v>
       </c>
       <c r="P8" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q8" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R8" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -3783,10 +3790,10 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="D9" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9">
         <v>27</v>
@@ -3807,27 +3814,22 @@
         <v>574</v>
       </c>
       <c r="M9" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N9" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O9" s="12">
         <v>2830</v>
       </c>
       <c r="P9" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q9" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R9" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="10" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,10 +3842,10 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9">
         <v>22</v>
@@ -3864,27 +3866,22 @@
         <v>575</v>
       </c>
       <c r="M10" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N10" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O10" s="12">
         <v>2830</v>
       </c>
       <c r="P10" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R10" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="11" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3897,10 +3894,10 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="D11" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E11" s="14"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9">
         <v>15</v>
@@ -3921,26 +3918,21 @@
         <v>576</v>
       </c>
       <c r="M11" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O11" s="12">
         <v>2830</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q11" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R11" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -3954,10 +3946,10 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9">
         <v>17</v>
@@ -3978,27 +3970,22 @@
         <v>577</v>
       </c>
       <c r="M12" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2850</v>
       </c>
       <c r="O12" s="12">
         <v>2830</v>
       </c>
       <c r="P12" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q12" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R12" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4011,10 +3998,10 @@
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="D13" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9">
         <v>6</v>
@@ -4035,27 +4022,22 @@
         <v>578</v>
       </c>
       <c r="M13" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O13" s="12">
         <v>2830</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="14" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4068,10 +4050,10 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="D14" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E14" s="14"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9">
         <v>30</v>
@@ -4092,26 +4074,21 @@
         <v>579</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N14" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2849</v>
       </c>
       <c r="O14" s="12">
         <v>2830</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q14" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R14" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -4125,10 +4102,10 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="D15" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9">
         <v>18</v>
@@ -4149,26 +4126,21 @@
         <v>580</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O15" s="12">
         <v>2830</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q15" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R15" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -4182,10 +4154,10 @@
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="D16" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E16" s="14"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9">
         <v>21</v>
@@ -4206,27 +4178,22 @@
         <v>581</v>
       </c>
       <c r="M16" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N16" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O16" s="12">
         <v>2830</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q16" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R16" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4239,10 +4206,10 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="D17" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E17" s="14"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9">
         <v>25</v>
@@ -4263,26 +4230,21 @@
         <v>582</v>
       </c>
       <c r="M17" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N17" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O17" s="12">
         <v>2830</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q17" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R17" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -4296,10 +4258,10 @@
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9">
         <v>28</v>
@@ -4320,26 +4282,21 @@
         <v>583</v>
       </c>
       <c r="M18" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O18" s="12">
         <v>2830</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q18" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R18" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -4353,10 +4310,10 @@
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="D19" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9">
         <v>14</v>
@@ -4377,26 +4334,21 @@
         <v>584</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O19" s="12">
         <v>2830</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R19" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -4410,10 +4362,10 @@
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E20" s="14"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9">
         <v>3</v>
@@ -4434,27 +4386,22 @@
         <v>585</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O20" s="12">
         <v>2830</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q20" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R20" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="21" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4467,10 +4414,10 @@
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E21" s="1"/>
+      <c r="D21" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9">
         <v>30</v>
@@ -4491,27 +4438,22 @@
         <v>586</v>
       </c>
       <c r="M21" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N21" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2850</v>
       </c>
       <c r="O21" s="12">
         <v>2830</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q21" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R21" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="22" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,10 +4466,10 @@
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E22" s="1"/>
+      <c r="D22" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E22" s="14"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9">
         <v>26</v>
@@ -4548,27 +4490,22 @@
         <v>587</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O22" s="12">
         <v>2830</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R22" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="23" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4581,10 +4518,10 @@
       <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="D23" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E23" s="14"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9">
         <v>3</v>
@@ -4605,27 +4542,22 @@
         <v>588</v>
       </c>
       <c r="M23" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N23" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O23" s="12">
         <v>2830</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q23" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R23" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="24" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4638,10 +4570,10 @@
       <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E24" s="1"/>
+      <c r="D24" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E24" s="14"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9">
         <v>11</v>
@@ -4662,26 +4594,21 @@
         <v>589</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O24" s="12">
         <v>2830</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q24" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R24" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -4695,10 +4622,10 @@
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="D25" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E25" s="14"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9">
         <v>13</v>
@@ -4719,27 +4646,22 @@
         <v>590</v>
       </c>
       <c r="M25" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N25" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O25" s="12">
         <v>2830</v>
       </c>
       <c r="P25" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q25" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R25" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="26" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4752,10 +4674,10 @@
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="D26" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9">
         <v>25</v>
@@ -4776,26 +4698,21 @@
         <v>591</v>
       </c>
       <c r="M26" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O26" s="12">
         <v>2830</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q26" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R26" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2841</v>
       </c>
     </row>
@@ -4809,10 +4726,10 @@
       <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E27" s="14"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9">
         <v>21</v>
@@ -4833,26 +4750,22 @@
         <v>592</v>
       </c>
       <c r="M27" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="O27" s="12">
         <v>2830</v>
       </c>
       <c r="P27" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q27" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R27" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="28" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,10 +4778,10 @@
       <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E28" s="14"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9">
         <v>8</v>
@@ -4889,27 +4802,22 @@
         <v>593</v>
       </c>
       <c r="M28" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N28" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O28" s="12">
         <v>2830</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q28" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R28" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="29" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -4922,10 +4830,10 @@
       <c r="C29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="D29" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E29" s="14"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9">
         <v>28</v>
@@ -4946,27 +4854,22 @@
         <v>594</v>
       </c>
       <c r="M29" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O29" s="12">
         <v>2830</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R29" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="30" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,10 +4882,10 @@
       <c r="C30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="D30" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E30" s="14"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9">
         <v>13</v>
@@ -5003,26 +4906,21 @@
         <v>595</v>
       </c>
       <c r="M30" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O30" s="12">
         <v>2830</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -5036,10 +4934,10 @@
       <c r="C31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="D31" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E31" s="14"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9">
         <v>5</v>
@@ -5060,27 +4958,22 @@
         <v>596</v>
       </c>
       <c r="M31" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N31" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O31" s="12">
         <v>2830</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q31" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R31" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="32" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5093,10 +4986,10 @@
       <c r="C32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="D32" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E32" s="14"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9">
         <v>18</v>
@@ -5117,27 +5010,22 @@
         <v>597</v>
       </c>
       <c r="M32" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O32" s="12">
         <v>2830</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q32" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R32" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5150,10 +5038,10 @@
       <c r="C33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="D33" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E33" s="14"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9">
         <v>14</v>
@@ -5174,27 +5062,22 @@
         <v>598</v>
       </c>
       <c r="M33" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N33" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O33" s="12">
         <v>2830</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q33" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R33" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="34" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5207,10 +5090,10 @@
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="D34" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9">
         <v>20</v>
@@ -5231,27 +5114,22 @@
         <v>599</v>
       </c>
       <c r="M34" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N34" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O34" s="12">
         <v>2830</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q34" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R34" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5264,10 +5142,10 @@
       <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="D35" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E35" s="14"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9">
         <v>23</v>
@@ -5288,27 +5166,22 @@
         <v>600</v>
       </c>
       <c r="M35" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N35" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2849</v>
       </c>
       <c r="O35" s="12">
         <v>2830</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q35" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R35" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="36" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,10 +5194,10 @@
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="D36" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E36" s="14"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9">
         <v>1</v>
@@ -5345,26 +5218,21 @@
         <v>601</v>
       </c>
       <c r="M36" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N36" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2849</v>
       </c>
       <c r="O36" s="12">
         <v>2830</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q36" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R36" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2841</v>
       </c>
     </row>
@@ -5378,10 +5246,10 @@
       <c r="C37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E37" s="1"/>
+      <c r="D37" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E37" s="14"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9">
         <v>25</v>
@@ -5402,27 +5270,22 @@
         <v>602</v>
       </c>
       <c r="M37" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N37" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O37" s="12">
         <v>2830</v>
       </c>
       <c r="P37" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q37" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R37" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="38" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5435,10 +5298,10 @@
       <c r="C38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="D38" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E38" s="14"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9">
         <v>24</v>
@@ -5459,26 +5322,21 @@
         <v>603</v>
       </c>
       <c r="M38" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O38" s="12">
         <v>2830</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2872</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R38" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2841</v>
       </c>
     </row>
@@ -5492,10 +5350,10 @@
       <c r="C39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="D39" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E39" s="14"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9">
         <v>19</v>
@@ -5516,27 +5374,22 @@
         <v>604</v>
       </c>
       <c r="M39" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2850</v>
       </c>
       <c r="O39" s="12">
         <v>2830</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R39" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="40" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5549,10 +5402,10 @@
       <c r="C40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E40" s="1"/>
+      <c r="D40" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E40" s="14"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9">
         <v>13</v>
@@ -5573,27 +5426,22 @@
         <v>605</v>
       </c>
       <c r="M40" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N40" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O40" s="12">
         <v>2830</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2871</v>
       </c>
       <c r="Q40" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R40" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="41" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5606,10 +5454,10 @@
       <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E41" s="1"/>
+      <c r="D41" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E41" s="14"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9">
         <v>6</v>
@@ -5630,27 +5478,22 @@
         <v>606</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O41" s="12">
         <v>2830</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q41" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R41" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="42" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,10 +5506,10 @@
       <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E42" s="1"/>
+      <c r="D42" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E42" s="14"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9">
         <v>2</v>
@@ -5687,27 +5530,22 @@
         <v>607</v>
       </c>
       <c r="M42" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O42" s="12">
         <v>2830</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R42" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="43" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5720,10 +5558,10 @@
       <c r="C43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E43" s="1"/>
+      <c r="D43" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E43" s="14"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9">
         <v>27</v>
@@ -5744,27 +5582,22 @@
         <v>608</v>
       </c>
       <c r="M43" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N43" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2851</v>
       </c>
       <c r="O43" s="12">
         <v>2830</v>
       </c>
       <c r="P43" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q43" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R43" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="44" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,10 +5610,10 @@
       <c r="C44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E44" s="1"/>
+      <c r="D44" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E44" s="14"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9">
         <v>17</v>
@@ -5801,27 +5634,22 @@
         <v>609</v>
       </c>
       <c r="M44" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N44" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O44" s="12">
         <v>2830</v>
       </c>
       <c r="P44" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q44" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R44" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="45" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5834,10 +5662,10 @@
       <c r="C45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E45" s="1"/>
+      <c r="D45" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E45" s="14"/>
       <c r="F45" s="1"/>
       <c r="G45" s="9">
         <v>19</v>
@@ -5858,26 +5686,21 @@
         <v>610</v>
       </c>
       <c r="M45" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N45" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O45" s="12">
         <v>2830</v>
       </c>
       <c r="P45" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q45" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R45" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2841</v>
       </c>
     </row>
@@ -5891,10 +5714,10 @@
       <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="D46" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E46" s="14"/>
       <c r="F46" s="1"/>
       <c r="G46" s="9">
         <v>11</v>
@@ -5915,27 +5738,22 @@
         <v>611</v>
       </c>
       <c r="M46" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N46" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O46" s="12">
         <v>2830</v>
       </c>
       <c r="P46" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q46" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R46" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -5948,10 +5766,10 @@
       <c r="C47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E47" s="1"/>
+      <c r="D47" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E47" s="14"/>
       <c r="F47" s="1"/>
       <c r="G47" s="9">
         <v>9</v>
@@ -5972,26 +5790,21 @@
         <v>612</v>
       </c>
       <c r="M47" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N47" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O47" s="12">
         <v>2830</v>
       </c>
       <c r="P47" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q47" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R47" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -6005,10 +5818,10 @@
       <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E48" s="1"/>
+      <c r="D48" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E48" s="14"/>
       <c r="F48" s="1"/>
       <c r="G48" s="9">
         <v>26</v>
@@ -6029,26 +5842,21 @@
         <v>613</v>
       </c>
       <c r="M48" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N48" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O48" s="12">
         <v>2830</v>
       </c>
       <c r="P48" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q48" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R48" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -6062,10 +5870,10 @@
       <c r="C49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E49" s="1"/>
+      <c r="D49" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E49" s="14"/>
       <c r="F49" s="1"/>
       <c r="G49" s="9">
         <v>31</v>
@@ -6086,27 +5894,22 @@
         <v>614</v>
       </c>
       <c r="M49" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N49" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O49" s="12">
         <v>2830</v>
       </c>
       <c r="P49" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q49" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R49" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="50" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6119,10 +5922,10 @@
       <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E50" s="1"/>
+      <c r="D50" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E50" s="14"/>
       <c r="F50" s="1"/>
       <c r="G50" s="9">
         <v>17</v>
@@ -6143,27 +5946,22 @@
         <v>615</v>
       </c>
       <c r="M50" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N50" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O50" s="12">
         <v>2830</v>
       </c>
       <c r="P50" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q50" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R50" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="51" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -6176,10 +5974,10 @@
       <c r="C51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E51" s="1"/>
+      <c r="D51" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E51" s="14"/>
       <c r="F51" s="1"/>
       <c r="G51" s="9">
         <v>25</v>
@@ -6200,27 +5998,22 @@
         <v>616</v>
       </c>
       <c r="M51" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N51" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O51" s="12">
         <v>2830</v>
       </c>
       <c r="P51" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q51" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R51" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="52" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6233,10 +6026,10 @@
       <c r="C52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E52" s="1"/>
+      <c r="D52" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E52" s="14"/>
       <c r="F52" s="1"/>
       <c r="G52" s="9">
         <v>25</v>
@@ -6257,26 +6050,21 @@
         <v>617</v>
       </c>
       <c r="M52" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O52" s="12">
         <v>2830</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -6290,10 +6078,10 @@
       <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E53" s="1"/>
+      <c r="D53" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E53" s="14"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9">
         <v>11</v>
@@ -6314,27 +6102,22 @@
         <v>618</v>
       </c>
       <c r="M53" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O53" s="12">
         <v>2830</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="54" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,10 +6130,10 @@
       <c r="C54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E54" s="1"/>
+      <c r="D54" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E54" s="14"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9">
         <v>6</v>
@@ -6371,26 +6154,21 @@
         <v>619</v>
       </c>
       <c r="M54" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O54" s="12">
         <v>2830</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2842</v>
       </c>
     </row>
@@ -6404,10 +6182,10 @@
       <c r="C55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="D55" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E55" s="14"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9">
         <v>26</v>
@@ -6428,27 +6206,22 @@
         <v>620</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O55" s="12">
         <v>2830</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R55" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="56" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6461,10 +6234,10 @@
       <c r="C56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="D56" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E56" s="14"/>
       <c r="F56" s="1"/>
       <c r="G56" s="9">
         <v>21</v>
@@ -6485,27 +6258,22 @@
         <v>621</v>
       </c>
       <c r="M56" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O56" s="12">
         <v>2830</v>
       </c>
       <c r="P56" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q56" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R56" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="57" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6518,10 +6286,10 @@
       <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E57" s="1"/>
+      <c r="D57" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E57" s="14"/>
       <c r="F57" s="1"/>
       <c r="G57" s="9">
         <v>29</v>
@@ -6542,26 +6310,21 @@
         <v>622</v>
       </c>
       <c r="M57" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N57" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O57" s="12">
         <v>2830</v>
       </c>
       <c r="P57" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q57" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R57" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -6575,10 +6338,10 @@
       <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E58" s="1"/>
+      <c r="D58" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E58" s="14"/>
       <c r="F58" s="1"/>
       <c r="G58" s="9">
         <v>11</v>
@@ -6599,26 +6362,21 @@
         <v>623</v>
       </c>
       <c r="M58" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N58" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O58" s="12">
         <v>2830</v>
       </c>
       <c r="P58" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q58" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2864</v>
       </c>
       <c r="R58" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -6632,10 +6390,10 @@
       <c r="C59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E59" s="1"/>
+      <c r="D59" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E59" s="14"/>
       <c r="F59" s="1"/>
       <c r="G59" s="9">
         <v>18</v>
@@ -6656,26 +6414,21 @@
         <v>624</v>
       </c>
       <c r="M59" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N59" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O59" s="12">
         <v>2830</v>
       </c>
       <c r="P59" s="12">
-        <f t="shared" ca="1" si="2"/>
         <v>2870</v>
       </c>
       <c r="Q59" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R59" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -6689,10 +6442,10 @@
       <c r="C60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E60" s="1"/>
+      <c r="D60" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E60" s="14"/>
       <c r="F60" s="1"/>
       <c r="G60" s="9">
         <v>3</v>
@@ -6713,27 +6466,22 @@
         <v>625</v>
       </c>
       <c r="M60" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N60" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2852</v>
       </c>
       <c r="O60" s="12">
         <v>2830</v>
       </c>
       <c r="P60" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q60" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R60" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="61" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -6746,10 +6494,10 @@
       <c r="C61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E61" s="1"/>
+      <c r="D61" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E61" s="14"/>
       <c r="F61" s="1"/>
       <c r="G61" s="9">
         <v>28</v>
@@ -6770,27 +6518,22 @@
         <v>626</v>
       </c>
       <c r="M61" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N61" s="12">
-        <f t="shared" ca="1" si="1"/>
         <v>2849</v>
       </c>
       <c r="O61" s="12">
         <v>2830</v>
       </c>
       <c r="P61" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q61" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R61" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="62" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6803,10 +6546,10 @@
       <c r="C62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E62" s="1"/>
+      <c r="D62" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E62" s="14"/>
       <c r="F62" s="1"/>
       <c r="G62" s="9">
         <v>29</v>
@@ -6827,27 +6570,22 @@
         <v>627</v>
       </c>
       <c r="M62" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N62" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O62" s="12">
         <v>2830</v>
       </c>
       <c r="P62" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q62" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R62" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="63" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -6860,10 +6598,10 @@
       <c r="C63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E63" s="1"/>
+      <c r="D63" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E63" s="14"/>
       <c r="F63" s="1"/>
       <c r="G63" s="9">
         <v>8</v>
@@ -6884,27 +6622,22 @@
         <v>628</v>
       </c>
       <c r="M63" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2862</v>
       </c>
       <c r="N63" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O63" s="12">
         <v>2830</v>
       </c>
       <c r="P63" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q63" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R63" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="64" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,10 +6650,10 @@
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E64" s="1"/>
+      <c r="D64" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E64" s="14"/>
       <c r="F64" s="1"/>
       <c r="G64" s="9">
         <v>26</v>
@@ -6941,26 +6674,21 @@
         <v>629</v>
       </c>
       <c r="M64" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N64" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O64" s="12">
         <v>2830</v>
       </c>
       <c r="P64" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q64" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R64" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2841</v>
       </c>
     </row>
@@ -6974,10 +6702,10 @@
       <c r="C65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E65" s="1"/>
+      <c r="D65" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E65" s="14"/>
       <c r="F65" s="1"/>
       <c r="G65" s="9">
         <v>21</v>
@@ -6998,27 +6726,22 @@
         <v>630</v>
       </c>
       <c r="M65" s="13">
-        <f t="shared" ca="1" si="0"/>
         <v>2858</v>
       </c>
       <c r="N65" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O65" s="12">
         <v>2830</v>
       </c>
       <c r="P65" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q65" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R65" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="66" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7031,10 +6754,10 @@
       <c r="C66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E66" s="1"/>
+      <c r="D66" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E66" s="14"/>
       <c r="F66" s="1"/>
       <c r="G66" s="9">
         <v>10</v>
@@ -7055,26 +6778,21 @@
         <v>631</v>
       </c>
       <c r="M66" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N66" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O66" s="12">
         <v>2830</v>
       </c>
       <c r="P66" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q66" s="12">
-        <f t="shared" ca="1" si="3"/>
         <v>2863</v>
       </c>
       <c r="R66" s="12">
-        <f t="shared" ca="1" si="4"/>
         <v>2840</v>
       </c>
     </row>
@@ -7088,10 +6806,10 @@
       <c r="C67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E67" s="1"/>
+      <c r="D67" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E67" s="14"/>
       <c r="F67" s="1"/>
       <c r="G67" s="9">
         <v>16</v>
@@ -7112,26 +6830,21 @@
         <v>632</v>
       </c>
       <c r="M67" s="13">
-        <f t="shared" ref="M67:M130" ca="1" si="5">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
         <v>2858</v>
       </c>
       <c r="N67" s="12">
-        <f t="shared" ref="N67:N130" ca="1" si="6">RANDBETWEEN(2849,2852)</f>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O67" s="12">
         <v>2830</v>
       </c>
       <c r="P67" s="12">
-        <f t="shared" ref="P67:P130" ca="1" si="7">RANDBETWEEN(2870,2872)</f>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q67" s="12">
-        <f t="shared" ref="Q67:Q130" ca="1" si="8">RANDBETWEEN(2863,2864)</f>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R67" s="12">
-        <f t="shared" ref="R67:R130" ca="1" si="9">RANDBETWEEN(2840,2842)</f>
         <v>2840</v>
       </c>
     </row>
@@ -7145,10 +6858,10 @@
       <c r="C68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E68" s="1"/>
+      <c r="D68" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E68" s="14"/>
       <c r="F68" s="1"/>
       <c r="G68" s="9">
         <v>1</v>
@@ -7169,26 +6882,21 @@
         <v>633</v>
       </c>
       <c r="M68" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N68" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2852</v>
       </c>
       <c r="O68" s="12">
         <v>2830</v>
       </c>
       <c r="P68" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2871</v>
       </c>
       <c r="Q68" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R68" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -7202,10 +6910,10 @@
       <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="D69" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E69" s="14"/>
       <c r="F69" s="1"/>
       <c r="G69" s="9">
         <v>15</v>
@@ -7226,27 +6934,22 @@
         <v>634</v>
       </c>
       <c r="M69" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N69" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O69" s="12">
         <v>2830</v>
       </c>
       <c r="P69" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q69" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R69" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="70" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7259,10 +6962,10 @@
       <c r="C70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E70" s="1"/>
+      <c r="D70" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E70" s="14"/>
       <c r="F70" s="1"/>
       <c r="G70" s="9">
         <v>3</v>
@@ -7283,26 +6986,21 @@
         <v>635</v>
       </c>
       <c r="M70" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N70" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O70" s="12">
         <v>2830</v>
       </c>
       <c r="P70" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q70" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R70" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2842</v>
       </c>
     </row>
@@ -7316,10 +7014,10 @@
       <c r="C71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E71" s="1"/>
+      <c r="D71" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E71" s="14"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9">
         <v>13</v>
@@ -7340,27 +7038,22 @@
         <v>636</v>
       </c>
       <c r="M71" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N71" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O71" s="12">
         <v>2830</v>
       </c>
       <c r="P71" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q71" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R71" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="72" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -7373,10 +7066,10 @@
       <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E72" s="1"/>
+      <c r="D72" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E72" s="14"/>
       <c r="F72" s="1"/>
       <c r="G72" s="9">
         <v>20</v>
@@ -7397,27 +7090,22 @@
         <v>637</v>
       </c>
       <c r="M72" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N72" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O72" s="12">
         <v>2830</v>
       </c>
       <c r="P72" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q72" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R72" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="73" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7430,10 +7118,10 @@
       <c r="C73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E73" s="1"/>
+      <c r="D73" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E73" s="14"/>
       <c r="F73" s="1"/>
       <c r="G73" s="9">
         <v>11</v>
@@ -7454,27 +7142,22 @@
         <v>638</v>
       </c>
       <c r="M73" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N73" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O73" s="12">
         <v>2830</v>
       </c>
       <c r="P73" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q73" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R73" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="74" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7487,10 +7170,10 @@
       <c r="C74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E74" s="1"/>
+      <c r="D74" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E74" s="14"/>
       <c r="F74" s="1"/>
       <c r="G74" s="9">
         <v>9</v>
@@ -7511,27 +7194,22 @@
         <v>639</v>
       </c>
       <c r="M74" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N74" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2850</v>
       </c>
       <c r="O74" s="12">
         <v>2830</v>
       </c>
       <c r="P74" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q74" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R74" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="75" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7544,10 +7222,10 @@
       <c r="C75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E75" s="1"/>
+      <c r="D75" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E75" s="14"/>
       <c r="F75" s="1"/>
       <c r="G75" s="9">
         <v>9</v>
@@ -7568,27 +7246,22 @@
         <v>640</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N75" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2849</v>
       </c>
       <c r="O75" s="12">
         <v>2830</v>
       </c>
       <c r="P75" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q75" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R75" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="76" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7601,10 +7274,10 @@
       <c r="C76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E76" s="1"/>
+      <c r="D76" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E76" s="14"/>
       <c r="F76" s="1"/>
       <c r="G76" s="9">
         <v>28</v>
@@ -7625,27 +7298,22 @@
         <v>641</v>
       </c>
       <c r="M76" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N76" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O76" s="12">
         <v>2830</v>
       </c>
       <c r="P76" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q76" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R76" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="77" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7658,10 +7326,10 @@
       <c r="C77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E77" s="1"/>
+      <c r="D77" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E77" s="14"/>
       <c r="F77" s="1"/>
       <c r="G77" s="9">
         <v>22</v>
@@ -7682,26 +7350,21 @@
         <v>642</v>
       </c>
       <c r="M77" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N77" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O77" s="12">
         <v>2830</v>
       </c>
       <c r="P77" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q77" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R77" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -7715,10 +7378,10 @@
       <c r="C78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E78" s="1"/>
+      <c r="D78" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E78" s="14"/>
       <c r="F78" s="1"/>
       <c r="G78" s="9">
         <v>24</v>
@@ -7739,27 +7402,22 @@
         <v>643</v>
       </c>
       <c r="M78" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N78" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O78" s="12">
         <v>2830</v>
       </c>
       <c r="P78" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q78" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R78" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="79" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -7772,10 +7430,10 @@
       <c r="C79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E79" s="1"/>
+      <c r="D79" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E79" s="14"/>
       <c r="F79" s="1"/>
       <c r="G79" s="9">
         <v>7</v>
@@ -7796,27 +7454,22 @@
         <v>644</v>
       </c>
       <c r="M79" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N79" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O79" s="12">
         <v>2830</v>
       </c>
       <c r="P79" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q79" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R79" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="80" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7829,10 +7482,10 @@
       <c r="C80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E80" s="1"/>
+      <c r="D80" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E80" s="14"/>
       <c r="F80" s="1"/>
       <c r="G80" s="9">
         <v>16</v>
@@ -7853,27 +7506,22 @@
         <v>645</v>
       </c>
       <c r="M80" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N80" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O80" s="12">
         <v>2830</v>
       </c>
       <c r="P80" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q80" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R80" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="81" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -7886,10 +7534,10 @@
       <c r="C81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E81" s="1"/>
+      <c r="D81" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E81" s="14"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9">
         <v>23</v>
@@ -7910,26 +7558,21 @@
         <v>646</v>
       </c>
       <c r="M81" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N81" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O81" s="12">
         <v>2830</v>
       </c>
       <c r="P81" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q81" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R81" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -7943,10 +7586,10 @@
       <c r="C82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E82" s="1"/>
+      <c r="D82" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E82" s="14"/>
       <c r="F82" s="1"/>
       <c r="G82" s="9">
         <v>18</v>
@@ -7967,27 +7610,22 @@
         <v>647</v>
       </c>
       <c r="M82" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N82" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O82" s="12">
         <v>2830</v>
       </c>
       <c r="P82" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q82" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R82" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="83" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8000,10 +7638,10 @@
       <c r="C83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E83" s="1"/>
+      <c r="D83" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E83" s="14"/>
       <c r="F83" s="1"/>
       <c r="G83" s="9">
         <v>12</v>
@@ -8024,27 +7662,22 @@
         <v>648</v>
       </c>
       <c r="M83" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N83" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O83" s="12">
         <v>2830</v>
       </c>
       <c r="P83" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2871</v>
       </c>
       <c r="Q83" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R83" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="84" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8057,10 +7690,10 @@
       <c r="C84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E84" s="1"/>
+      <c r="D84" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E84" s="14"/>
       <c r="F84" s="1"/>
       <c r="G84" s="9">
         <v>20</v>
@@ -8081,26 +7714,21 @@
         <v>649</v>
       </c>
       <c r="M84" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N84" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O84" s="12">
         <v>2830</v>
       </c>
       <c r="P84" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q84" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R84" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -8114,10 +7742,10 @@
       <c r="C85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E85" s="1"/>
+      <c r="D85" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E85" s="14"/>
       <c r="F85" s="1"/>
       <c r="G85" s="9">
         <v>6</v>
@@ -8138,26 +7766,21 @@
         <v>650</v>
       </c>
       <c r="M85" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N85" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O85" s="12">
         <v>2830</v>
       </c>
       <c r="P85" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q85" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R85" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2840</v>
       </c>
     </row>
@@ -8171,10 +7794,10 @@
       <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E86" s="1"/>
+      <c r="D86" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E86" s="14"/>
       <c r="F86" s="1"/>
       <c r="G86" s="9">
         <v>29</v>
@@ -8195,27 +7818,22 @@
         <v>651</v>
       </c>
       <c r="M86" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N86" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O86" s="12">
         <v>2830</v>
       </c>
       <c r="P86" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q86" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R86" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="87" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8228,10 +7846,10 @@
       <c r="C87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E87" s="1"/>
+      <c r="D87" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E87" s="14"/>
       <c r="F87" s="1"/>
       <c r="G87" s="9">
         <v>31</v>
@@ -8252,27 +7870,22 @@
         <v>652</v>
       </c>
       <c r="M87" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N87" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2852</v>
       </c>
       <c r="O87" s="12">
         <v>2830</v>
       </c>
       <c r="P87" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q87" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R87" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="88" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8285,10 +7898,10 @@
       <c r="C88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E88" s="1"/>
+      <c r="D88" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E88" s="14"/>
       <c r="F88" s="1"/>
       <c r="G88" s="9">
         <v>10</v>
@@ -8309,27 +7922,22 @@
         <v>653</v>
       </c>
       <c r="M88" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N88" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O88" s="12">
         <v>2830</v>
       </c>
       <c r="P88" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q88" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R88" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="89" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -8342,10 +7950,10 @@
       <c r="C89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E89" s="1"/>
+      <c r="D89" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E89" s="14"/>
       <c r="F89" s="1"/>
       <c r="G89" s="9">
         <v>15</v>
@@ -8366,27 +7974,22 @@
         <v>654</v>
       </c>
       <c r="M89" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N89" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2852</v>
       </c>
       <c r="O89" s="12">
         <v>2830</v>
       </c>
       <c r="P89" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2872</v>
       </c>
       <c r="Q89" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R89" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="90" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8399,10 +8002,10 @@
       <c r="C90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E90" s="1"/>
+      <c r="D90" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E90" s="14"/>
       <c r="F90" s="1"/>
       <c r="G90" s="9">
         <v>29</v>
@@ -8423,27 +8026,22 @@
         <v>655</v>
       </c>
       <c r="M90" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N90" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O90" s="12">
         <v>2830</v>
       </c>
       <c r="P90" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q90" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R90" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="91" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -8456,10 +8054,10 @@
       <c r="C91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E91" s="1"/>
+      <c r="D91" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E91" s="14"/>
       <c r="F91" s="1"/>
       <c r="G91" s="9">
         <v>20</v>
@@ -8480,27 +8078,22 @@
         <v>656</v>
       </c>
       <c r="M91" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N91" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O91" s="12">
         <v>2830</v>
       </c>
       <c r="P91" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2871</v>
       </c>
       <c r="Q91" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R91" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="92" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8513,10 +8106,10 @@
       <c r="C92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E92" s="1"/>
+      <c r="D92" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E92" s="14"/>
       <c r="F92" s="1"/>
       <c r="G92" s="9">
         <v>4</v>
@@ -8537,27 +8130,22 @@
         <v>657</v>
       </c>
       <c r="M92" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N92" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O92" s="12">
         <v>2830</v>
       </c>
       <c r="P92" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2870</v>
       </c>
       <c r="Q92" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R92" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="93" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8570,10 +8158,10 @@
       <c r="C93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E93" s="1"/>
+      <c r="D93" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E93" s="14"/>
       <c r="F93" s="1"/>
       <c r="G93" s="9">
         <v>30</v>
@@ -8594,26 +8182,21 @@
         <v>658</v>
       </c>
       <c r="M93" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N93" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2849</v>
       </c>
       <c r="O93" s="12">
         <v>2830</v>
       </c>
       <c r="P93" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2872</v>
       </c>
       <c r="Q93" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R93" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -8627,10 +8210,10 @@
       <c r="C94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="D94" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="E94" s="14"/>
       <c r="F94" s="1"/>
       <c r="G94" s="9">
         <v>9</v>
@@ -8651,27 +8234,22 @@
         <v>659</v>
       </c>
       <c r="M94" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N94" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O94" s="12">
         <v>2830</v>
       </c>
       <c r="P94" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q94" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R94" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="95" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -8684,10 +8262,10 @@
       <c r="C95" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E95" s="1"/>
+      <c r="D95" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E95" s="14"/>
       <c r="F95" s="1"/>
       <c r="G95" s="9">
         <v>7</v>
@@ -8708,26 +8286,21 @@
         <v>660</v>
       </c>
       <c r="M95" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N95" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O95" s="12">
         <v>2830</v>
       </c>
       <c r="P95" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q95" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R95" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2842</v>
       </c>
     </row>
@@ -8741,10 +8314,10 @@
       <c r="C96" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E96" s="1"/>
+      <c r="D96" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E96" s="14"/>
       <c r="F96" s="1"/>
       <c r="G96" s="9">
         <v>28</v>
@@ -8765,27 +8338,22 @@
         <v>661</v>
       </c>
       <c r="M96" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N96" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2849</v>
       </c>
       <c r="O96" s="12">
         <v>2830</v>
       </c>
       <c r="P96" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q96" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R96" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="97" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -8798,10 +8366,10 @@
       <c r="C97" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E97" s="1"/>
+      <c r="D97" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E97" s="14"/>
       <c r="F97" s="1"/>
       <c r="G97" s="9">
         <v>15</v>
@@ -8822,27 +8390,22 @@
         <v>662</v>
       </c>
       <c r="M97" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N97" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O97" s="12">
         <v>2830</v>
       </c>
       <c r="P97" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q97" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R97" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="98" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8855,10 +8418,10 @@
       <c r="C98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E98" s="1"/>
+      <c r="D98" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E98" s="14"/>
       <c r="F98" s="1"/>
       <c r="G98" s="9">
         <v>30</v>
@@ -8879,26 +8442,21 @@
         <v>663</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N98" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O98" s="12">
         <v>2830</v>
       </c>
       <c r="P98" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2871</v>
       </c>
       <c r="Q98" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R98" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -8912,10 +8470,10 @@
       <c r="C99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E99" s="1"/>
+      <c r="D99" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E99" s="14"/>
       <c r="F99" s="1"/>
       <c r="G99" s="9">
         <v>20</v>
@@ -8936,27 +8494,22 @@
         <v>664</v>
       </c>
       <c r="M99" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N99" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O99" s="12">
         <v>2830</v>
       </c>
       <c r="P99" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q99" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R99" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="100" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8969,10 +8522,10 @@
       <c r="C100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E100" s="1"/>
+      <c r="D100" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E100" s="14"/>
       <c r="F100" s="1"/>
       <c r="G100" s="9">
         <v>17</v>
@@ -8993,27 +8546,22 @@
         <v>665</v>
       </c>
       <c r="M100" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N100" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O100" s="12">
         <v>2830</v>
       </c>
       <c r="P100" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q100" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R100" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="101" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9026,10 +8574,10 @@
       <c r="C101" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E101" s="1"/>
+      <c r="D101" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E101" s="14"/>
       <c r="F101" s="1"/>
       <c r="G101" s="9">
         <v>11</v>
@@ -9050,27 +8598,22 @@
         <v>666</v>
       </c>
       <c r="M101" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N101" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O101" s="12">
         <v>2830</v>
       </c>
       <c r="P101" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q101" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R101" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="102" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9083,10 +8626,10 @@
       <c r="C102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E102" s="1"/>
+      <c r="D102" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E102" s="14"/>
       <c r="F102" s="1"/>
       <c r="G102" s="9">
         <v>18</v>
@@ -9107,27 +8650,22 @@
         <v>667</v>
       </c>
       <c r="M102" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N102" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O102" s="12">
         <v>2830</v>
       </c>
       <c r="P102" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q102" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R102" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="103" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9140,10 +8678,10 @@
       <c r="C103" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E103" s="1"/>
+      <c r="D103" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E103" s="14"/>
       <c r="F103" s="1"/>
       <c r="G103" s="9">
         <v>29</v>
@@ -9164,27 +8702,22 @@
         <v>668</v>
       </c>
       <c r="M103" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N103" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O103" s="12">
         <v>2830</v>
       </c>
       <c r="P103" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2872</v>
       </c>
       <c r="Q103" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R103" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="104" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9197,10 +8730,10 @@
       <c r="C104" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E104" s="1"/>
+      <c r="D104" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E104" s="14"/>
       <c r="F104" s="1"/>
       <c r="G104" s="9">
         <v>20</v>
@@ -9221,27 +8754,22 @@
         <v>669</v>
       </c>
       <c r="M104" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N104" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O104" s="12">
         <v>2830</v>
       </c>
       <c r="P104" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q104" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R104" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="105" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9254,10 +8782,10 @@
       <c r="C105" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E105" s="1"/>
+      <c r="D105" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E105" s="14"/>
       <c r="F105" s="1"/>
       <c r="G105" s="9">
         <v>19</v>
@@ -9278,27 +8806,22 @@
         <v>670</v>
       </c>
       <c r="M105" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N105" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O105" s="12">
         <v>2830</v>
       </c>
       <c r="P105" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q105" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R105" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="106" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9311,10 +8834,10 @@
       <c r="C106" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E106" s="1"/>
+      <c r="D106" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E106" s="14"/>
       <c r="F106" s="1"/>
       <c r="G106" s="9">
         <v>1</v>
@@ -9335,27 +8858,22 @@
         <v>671</v>
       </c>
       <c r="M106" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N106" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O106" s="12">
         <v>2830</v>
       </c>
       <c r="P106" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q106" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R106" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="107" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9368,10 +8886,10 @@
       <c r="C107" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E107" s="1"/>
+      <c r="D107" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E107" s="14"/>
       <c r="F107" s="1"/>
       <c r="G107" s="9">
         <v>3</v>
@@ -9392,26 +8910,21 @@
         <v>672</v>
       </c>
       <c r="M107" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N107" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O107" s="12">
         <v>2830</v>
       </c>
       <c r="P107" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q107" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R107" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -9425,10 +8938,10 @@
       <c r="C108" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E108" s="1"/>
+      <c r="D108" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E108" s="14"/>
       <c r="F108" s="1"/>
       <c r="G108" s="9">
         <v>5</v>
@@ -9449,27 +8962,22 @@
         <v>673</v>
       </c>
       <c r="M108" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N108" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O108" s="12">
         <v>2830</v>
       </c>
       <c r="P108" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q108" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R108" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="109" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9482,10 +8990,10 @@
       <c r="C109" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="D109" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E109" s="14"/>
       <c r="F109" s="1"/>
       <c r="G109" s="9">
         <v>16</v>
@@ -9506,27 +9014,22 @@
         <v>674</v>
       </c>
       <c r="M109" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N109" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O109" s="12">
         <v>2830</v>
       </c>
       <c r="P109" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q109" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R109" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="110" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9539,10 +9042,10 @@
       <c r="C110" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E110" s="1"/>
+      <c r="D110" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E110" s="14"/>
       <c r="F110" s="1"/>
       <c r="G110" s="9">
         <v>10</v>
@@ -9563,27 +9066,22 @@
         <v>675</v>
       </c>
       <c r="M110" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N110" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O110" s="12">
         <v>2830</v>
       </c>
       <c r="P110" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q110" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R110" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="111" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9596,10 +9094,10 @@
       <c r="C111" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E111" s="1"/>
+      <c r="D111" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E111" s="14"/>
       <c r="F111" s="1"/>
       <c r="G111" s="9">
         <v>10</v>
@@ -9620,27 +9118,22 @@
         <v>676</v>
       </c>
       <c r="M111" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N111" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2851</v>
       </c>
       <c r="O111" s="12">
         <v>2830</v>
       </c>
       <c r="P111" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q111" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R111" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="112" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9653,10 +9146,10 @@
       <c r="C112" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E112" s="1"/>
+      <c r="D112" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E112" s="14"/>
       <c r="F112" s="1"/>
       <c r="G112" s="9">
         <v>14</v>
@@ -9677,27 +9170,22 @@
         <v>677</v>
       </c>
       <c r="M112" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N112" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O112" s="12">
         <v>2830</v>
       </c>
       <c r="P112" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q112" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R112" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="113" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9710,10 +9198,10 @@
       <c r="C113" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E113" s="1"/>
+      <c r="D113" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E113" s="14"/>
       <c r="F113" s="1"/>
       <c r="G113" s="9">
         <v>10</v>
@@ -9734,27 +9222,22 @@
         <v>678</v>
       </c>
       <c r="M113" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N113" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O113" s="12">
         <v>2830</v>
       </c>
       <c r="P113" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q113" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R113" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="114" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9767,10 +9250,10 @@
       <c r="C114" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E114" s="1"/>
+      <c r="D114" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E114" s="14"/>
       <c r="F114" s="1"/>
       <c r="G114" s="9">
         <v>29</v>
@@ -9791,27 +9274,22 @@
         <v>679</v>
       </c>
       <c r="M114" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N114" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O114" s="12">
         <v>2830</v>
       </c>
       <c r="P114" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q114" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R114" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="115" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9824,10 +9302,10 @@
       <c r="C115" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E115" s="1"/>
+      <c r="D115" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E115" s="14"/>
       <c r="F115" s="1"/>
       <c r="G115" s="9">
         <v>5</v>
@@ -9848,26 +9326,21 @@
         <v>680</v>
       </c>
       <c r="M115" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N115" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2852</v>
       </c>
       <c r="O115" s="12">
         <v>2830</v>
       </c>
       <c r="P115" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q115" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R115" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -9881,10 +9354,10 @@
       <c r="C116" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E116" s="1"/>
+      <c r="D116" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E116" s="14"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9">
         <v>21</v>
@@ -9905,27 +9378,22 @@
         <v>681</v>
       </c>
       <c r="M116" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N116" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2850</v>
       </c>
       <c r="O116" s="12">
         <v>2830</v>
       </c>
       <c r="P116" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2870</v>
       </c>
       <c r="Q116" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R116" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="117" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -9938,10 +9406,10 @@
       <c r="C117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E117" s="1"/>
+      <c r="D117" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E117" s="14"/>
       <c r="F117" s="1"/>
       <c r="G117" s="9">
         <v>26</v>
@@ -9962,27 +9430,22 @@
         <v>682</v>
       </c>
       <c r="M117" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N117" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O117" s="12">
         <v>2830</v>
       </c>
       <c r="P117" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q117" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R117" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="118" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -9995,10 +9458,10 @@
       <c r="C118" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E118" s="1"/>
+      <c r="D118" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E118" s="14"/>
       <c r="F118" s="1"/>
       <c r="G118" s="9">
         <v>6</v>
@@ -10019,27 +9482,22 @@
         <v>683</v>
       </c>
       <c r="M118" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N118" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O118" s="12">
         <v>2830</v>
       </c>
       <c r="P118" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q118" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R118" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="119" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
@@ -10052,10 +9510,10 @@
       <c r="C119" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E119" s="1"/>
+      <c r="D119" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E119" s="14"/>
       <c r="F119" s="1"/>
       <c r="G119" s="9">
         <v>16</v>
@@ -10076,26 +9534,21 @@
         <v>684</v>
       </c>
       <c r="M119" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N119" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O119" s="12">
         <v>2830</v>
       </c>
       <c r="P119" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q119" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R119" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2840</v>
       </c>
     </row>
@@ -10109,10 +9562,10 @@
       <c r="C120" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E120" s="1"/>
+      <c r="D120" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E120" s="14"/>
       <c r="F120" s="1"/>
       <c r="G120" s="9">
         <v>16</v>
@@ -10133,27 +9586,22 @@
         <v>685</v>
       </c>
       <c r="M120" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N120" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="O120" s="12">
         <v>2830</v>
       </c>
       <c r="P120" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q120" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R120" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="121" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10166,10 +9614,10 @@
       <c r="C121" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E121" s="1"/>
+      <c r="D121" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E121" s="14"/>
       <c r="F121" s="1"/>
       <c r="G121" s="9">
         <v>28</v>
@@ -10190,27 +9638,22 @@
         <v>686</v>
       </c>
       <c r="M121" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N121" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O121" s="12">
         <v>2830</v>
       </c>
       <c r="P121" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2870</v>
       </c>
       <c r="Q121" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R121" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="122" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -10223,10 +9666,10 @@
       <c r="C122" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E122" s="1"/>
+      <c r="D122" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E122" s="14"/>
       <c r="F122" s="1"/>
       <c r="G122" s="9">
         <v>22</v>
@@ -10247,27 +9690,22 @@
         <v>687</v>
       </c>
       <c r="M122" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2862</v>
       </c>
       <c r="N122" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O122" s="12">
         <v>2830</v>
       </c>
       <c r="P122" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2870</v>
       </c>
       <c r="Q122" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2864</v>
       </c>
       <c r="R122" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="123" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10280,10 +9718,10 @@
       <c r="C123" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E123" s="1"/>
+      <c r="D123" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E123" s="14"/>
       <c r="F123" s="1"/>
       <c r="G123" s="9">
         <v>18</v>
@@ -10304,27 +9742,22 @@
         <v>688</v>
       </c>
       <c r="M123" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N123" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="O123" s="12">
         <v>2830</v>
       </c>
       <c r="P123" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q123" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R123" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="124" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10337,10 +9770,10 @@
       <c r="C124" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E124" s="1"/>
+      <c r="D124" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E124" s="14"/>
       <c r="F124" s="1"/>
       <c r="G124" s="9">
         <v>5</v>
@@ -10361,27 +9794,22 @@
         <v>689</v>
       </c>
       <c r="M124" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N124" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O124" s="12">
         <v>2830</v>
       </c>
       <c r="P124" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q124" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R124" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="125" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -10394,10 +9822,10 @@
       <c r="C125" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E125" s="1"/>
+      <c r="D125" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E125" s="14"/>
       <c r="F125" s="1"/>
       <c r="G125" s="9">
         <v>9</v>
@@ -10418,26 +9846,21 @@
         <v>690</v>
       </c>
       <c r="M125" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N125" s="12">
-        <f t="shared" ca="1" si="6"/>
         <v>2849</v>
       </c>
       <c r="O125" s="12">
         <v>2830</v>
       </c>
       <c r="P125" s="12">
-        <f t="shared" ca="1" si="7"/>
         <v>2871</v>
       </c>
       <c r="Q125" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R125" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2840</v>
       </c>
     </row>
@@ -10451,10 +9874,10 @@
       <c r="C126" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E126" s="1"/>
+      <c r="D126" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E126" s="14"/>
       <c r="F126" s="1"/>
       <c r="G126" s="9">
         <v>12</v>
@@ -10475,27 +9898,22 @@
         <v>691</v>
       </c>
       <c r="M126" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N126" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O126" s="12">
         <v>2830</v>
       </c>
       <c r="P126" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q126" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R126" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="127" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10508,10 +9926,10 @@
       <c r="C127" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E127" s="1"/>
+      <c r="D127" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E127" s="14"/>
       <c r="F127" s="1"/>
       <c r="G127" s="9">
         <v>30</v>
@@ -10532,27 +9950,22 @@
         <v>692</v>
       </c>
       <c r="M127" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N127" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O127" s="12">
         <v>2830</v>
       </c>
       <c r="P127" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q127" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R127" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="128" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10565,10 +9978,10 @@
       <c r="C128" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E128" s="1"/>
+      <c r="D128" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E128" s="14"/>
       <c r="F128" s="1"/>
       <c r="G128" s="9">
         <v>6</v>
@@ -10589,26 +10002,21 @@
         <v>693</v>
       </c>
       <c r="M128" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N128" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O128" s="12">
         <v>2830</v>
       </c>
       <c r="P128" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q128" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R128" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2840</v>
       </c>
     </row>
@@ -10622,10 +10030,10 @@
       <c r="C129" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E129" s="1"/>
+      <c r="D129" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E129" s="14"/>
       <c r="F129" s="1"/>
       <c r="G129" s="9">
         <v>26</v>
@@ -10646,27 +10054,22 @@
         <v>694</v>
       </c>
       <c r="M129" s="13">
-        <f t="shared" ca="1" si="5"/>
         <v>2858</v>
       </c>
       <c r="N129" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="O129" s="12">
         <v>2830</v>
       </c>
       <c r="P129" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q129" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R129" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="130" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -10679,10 +10082,10 @@
       <c r="C130" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E130" s="1"/>
+      <c r="D130" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E130" s="14"/>
       <c r="F130" s="1"/>
       <c r="G130" s="9">
         <v>29</v>
@@ -10703,26 +10106,21 @@
         <v>695</v>
       </c>
       <c r="M130" s="13">
-        <f t="shared" ca="1" si="5"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N130" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O130" s="12">
         <v>2830</v>
       </c>
       <c r="P130" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="Q130" s="12">
-        <f t="shared" ca="1" si="8"/>
         <v>2863</v>
       </c>
       <c r="R130" s="12">
-        <f t="shared" ca="1" si="9"/>
         <v>2841</v>
       </c>
     </row>
@@ -10736,10 +10134,10 @@
       <c r="C131" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E131" s="1"/>
+      <c r="D131" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E131" s="14"/>
       <c r="F131" s="1"/>
       <c r="G131" s="9">
         <v>4</v>
@@ -10760,27 +10158,22 @@
         <v>696</v>
       </c>
       <c r="M131" s="13">
-        <f t="shared" ref="M131:M154" ca="1" si="10">IF(RANDBETWEEN(1,2)=1,2858,2862)</f>
         <v>2858</v>
       </c>
       <c r="N131" s="12">
-        <f t="shared" ref="N131:N154" ca="1" si="11">RANDBETWEEN(2849,2852)</f>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O131" s="12">
         <v>2830</v>
       </c>
       <c r="P131" s="12">
-        <f t="shared" ref="P131:P154" ca="1" si="12">RANDBETWEEN(2870,2872)</f>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q131" s="12">
-        <f t="shared" ref="Q131:Q154" ca="1" si="13">RANDBETWEEN(2863,2864)</f>
         <v>2864</v>
       </c>
       <c r="R131" s="12">
-        <f t="shared" ref="R131:R154" ca="1" si="14">RANDBETWEEN(2840,2842)</f>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="132" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10793,10 +10186,10 @@
       <c r="C132" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E132" s="1"/>
+      <c r="D132" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E132" s="14"/>
       <c r="F132" s="1"/>
       <c r="G132" s="9">
         <v>11</v>
@@ -10817,26 +10210,21 @@
         <v>697</v>
       </c>
       <c r="M132" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N132" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O132" s="12">
         <v>2830</v>
       </c>
       <c r="P132" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q132" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R132" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2841</v>
       </c>
     </row>
@@ -10850,10 +10238,10 @@
       <c r="C133" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E133" s="1"/>
+      <c r="D133" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E133" s="14"/>
       <c r="F133" s="1"/>
       <c r="G133" s="9">
         <v>12</v>
@@ -10874,27 +10262,22 @@
         <v>698</v>
       </c>
       <c r="M133" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N133" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O133" s="12">
         <v>2830</v>
       </c>
       <c r="P133" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q133" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R133" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="134" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10907,10 +10290,10 @@
       <c r="C134" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E134" s="1"/>
+      <c r="D134" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E134" s="14"/>
       <c r="F134" s="1"/>
       <c r="G134" s="9">
         <v>6</v>
@@ -10931,27 +10314,22 @@
         <v>699</v>
       </c>
       <c r="M134" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N134" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O134" s="12">
         <v>2830</v>
       </c>
       <c r="P134" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q134" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R134" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="135" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -10964,10 +10342,10 @@
       <c r="C135" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E135" s="1"/>
+      <c r="D135" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E135" s="14"/>
       <c r="F135" s="1"/>
       <c r="G135" s="9">
         <v>24</v>
@@ -10988,27 +10366,22 @@
         <v>700</v>
       </c>
       <c r="M135" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N135" s="12">
-        <f t="shared" ca="1" si="11"/>
         <v>2852</v>
       </c>
       <c r="O135" s="12">
         <v>2830</v>
       </c>
       <c r="P135" s="12">
-        <f t="shared" ca="1" si="12"/>
         <v>2870</v>
       </c>
       <c r="Q135" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R135" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="136" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11021,10 +10394,10 @@
       <c r="C136" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E136" s="1"/>
+      <c r="D136" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E136" s="14"/>
       <c r="F136" s="1"/>
       <c r="G136" s="9">
         <v>13</v>
@@ -11045,27 +10418,22 @@
         <v>701</v>
       </c>
       <c r="M136" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N136" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O136" s="12">
         <v>2830</v>
       </c>
       <c r="P136" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q136" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R136" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="137" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11078,10 +10446,10 @@
       <c r="C137" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E137" s="1"/>
+      <c r="D137" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E137" s="14"/>
       <c r="F137" s="1"/>
       <c r="G137" s="9">
         <v>29</v>
@@ -11102,26 +10470,21 @@
         <v>702</v>
       </c>
       <c r="M137" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2862</v>
       </c>
       <c r="N137" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="O137" s="12">
         <v>2830</v>
       </c>
       <c r="P137" s="12">
-        <f t="shared" ca="1" si="12"/>
         <v>2870</v>
       </c>
       <c r="Q137" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R137" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2841</v>
       </c>
     </row>
@@ -11135,10 +10498,10 @@
       <c r="C138" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E138" s="1"/>
+      <c r="D138" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E138" s="14"/>
       <c r="F138" s="1"/>
       <c r="G138" s="9">
         <v>14</v>
@@ -11159,27 +10522,22 @@
         <v>703</v>
       </c>
       <c r="M138" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N138" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O138" s="12">
         <v>2830</v>
       </c>
       <c r="P138" s="12">
-        <f t="shared" ca="1" si="12"/>
         <v>2871</v>
       </c>
       <c r="Q138" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R138" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="139" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11192,10 +10550,10 @@
       <c r="C139" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E139" s="1"/>
+      <c r="D139" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E139" s="14"/>
       <c r="F139" s="1"/>
       <c r="G139" s="9">
         <v>12</v>
@@ -11216,27 +10574,22 @@
         <v>704</v>
       </c>
       <c r="M139" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N139" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="O139" s="12">
         <v>2830</v>
       </c>
       <c r="P139" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q139" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R139" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="140" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -11249,10 +10602,10 @@
       <c r="C140" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E140" s="1"/>
+      <c r="D140" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E140" s="14"/>
       <c r="F140" s="1"/>
       <c r="G140" s="9">
         <v>6</v>
@@ -11273,27 +10626,22 @@
         <v>705</v>
       </c>
       <c r="M140" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2862</v>
       </c>
       <c r="N140" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O140" s="12">
         <v>2830</v>
       </c>
       <c r="P140" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q140" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R140" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="141" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -11306,10 +10654,10 @@
       <c r="C141" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E141" s="1"/>
+      <c r="D141" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E141" s="14"/>
       <c r="F141" s="1"/>
       <c r="G141" s="9">
         <v>9</v>
@@ -11330,27 +10678,22 @@
         <v>706</v>
       </c>
       <c r="M141" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2862</v>
       </c>
       <c r="N141" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O141" s="12">
         <v>2830</v>
       </c>
       <c r="P141" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="Q141" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R141" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="142" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -11363,10 +10706,10 @@
       <c r="C142" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E142" s="1"/>
+      <c r="D142" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E142" s="14"/>
       <c r="F142" s="1"/>
       <c r="G142" s="9">
         <v>21</v>
@@ -11387,26 +10730,21 @@
         <v>707</v>
       </c>
       <c r="M142" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2862</v>
       </c>
       <c r="N142" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O142" s="12">
         <v>2830</v>
       </c>
       <c r="P142" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q142" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R142" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2841</v>
       </c>
     </row>
@@ -11420,10 +10758,10 @@
       <c r="C143" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E143" s="1"/>
+      <c r="D143" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E143" s="14"/>
       <c r="F143" s="1"/>
       <c r="G143" s="9">
         <v>20</v>
@@ -11444,27 +10782,22 @@
         <v>708</v>
       </c>
       <c r="M143" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N143" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="O143" s="12">
         <v>2830</v>
       </c>
       <c r="P143" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q143" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R143" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="144" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -11477,10 +10810,10 @@
       <c r="C144" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E144" s="1"/>
+      <c r="D144" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E144" s="14"/>
       <c r="F144" s="1"/>
       <c r="G144" s="9">
         <v>5</v>
@@ -11501,26 +10834,21 @@
         <v>709</v>
       </c>
       <c r="M144" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N144" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="O144" s="12">
         <v>2830</v>
       </c>
       <c r="P144" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q144" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="R144" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2842</v>
       </c>
     </row>
@@ -11534,10 +10862,10 @@
       <c r="C145" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E145" s="1"/>
+      <c r="D145" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E145" s="14"/>
       <c r="F145" s="1"/>
       <c r="G145" s="9">
         <v>1</v>
@@ -11558,26 +10886,21 @@
         <v>710</v>
       </c>
       <c r="M145" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2862</v>
       </c>
       <c r="N145" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O145" s="12">
         <v>2830</v>
       </c>
       <c r="P145" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q145" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R145" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2842</v>
       </c>
     </row>
@@ -11591,10 +10914,10 @@
       <c r="C146" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E146" s="1"/>
+      <c r="D146" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E146" s="14"/>
       <c r="F146" s="1"/>
       <c r="G146" s="9">
         <v>7</v>
@@ -11615,27 +10938,22 @@
         <v>711</v>
       </c>
       <c r="M146" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N146" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O146" s="12">
         <v>2830</v>
       </c>
       <c r="P146" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q146" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R146" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="147" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -11648,10 +10966,10 @@
       <c r="C147" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E147" s="1"/>
+      <c r="D147" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E147" s="14"/>
       <c r="F147" s="1"/>
       <c r="G147" s="9">
         <v>20</v>
@@ -11672,27 +10990,22 @@
         <v>712</v>
       </c>
       <c r="M147" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N147" s="12">
-        <f t="shared" ca="1" si="11"/>
         <v>2850</v>
       </c>
       <c r="O147" s="12">
         <v>2830</v>
       </c>
       <c r="P147" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q147" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R147" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="148" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11705,10 +11018,10 @@
       <c r="C148" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E148" s="1"/>
+      <c r="D148" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E148" s="14"/>
       <c r="F148" s="1"/>
       <c r="G148" s="9">
         <v>2</v>
@@ -11729,27 +11042,22 @@
         <v>713</v>
       </c>
       <c r="M148" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N148" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="O148" s="12">
         <v>2830</v>
       </c>
       <c r="P148" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q148" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R148" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="149" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11762,10 +11070,10 @@
       <c r="C149" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E149" s="1"/>
+      <c r="D149" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E149" s="14"/>
       <c r="F149" s="1"/>
       <c r="G149" s="9">
         <v>1</v>
@@ -11786,27 +11094,22 @@
         <v>714</v>
       </c>
       <c r="M149" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N149" s="12">
-        <f t="shared" ca="1" si="11"/>
         <v>2852</v>
       </c>
       <c r="O149" s="12">
         <v>2830</v>
       </c>
       <c r="P149" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q149" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R149" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="150" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11819,10 +11122,10 @@
       <c r="C150" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E150" s="1"/>
+      <c r="D150" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E150" s="14"/>
       <c r="F150" s="1"/>
       <c r="G150" s="9">
         <v>19</v>
@@ -11843,27 +11146,22 @@
         <v>715</v>
       </c>
       <c r="M150" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N150" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="O150" s="12">
         <v>2830</v>
       </c>
       <c r="P150" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q150" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R150" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="151" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11876,10 +11174,10 @@
       <c r="C151" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E151" s="1"/>
+      <c r="D151" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E151" s="14"/>
       <c r="F151" s="1"/>
       <c r="G151" s="9">
         <v>16</v>
@@ -11900,26 +11198,21 @@
         <v>716</v>
       </c>
       <c r="M151" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N151" s="12">
-        <f t="shared" ca="1" si="11"/>
         <v>2849</v>
       </c>
       <c r="O151" s="12">
         <v>2830</v>
       </c>
       <c r="P151" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="Q151" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2864</v>
       </c>
       <c r="R151" s="12">
-        <f t="shared" ca="1" si="14"/>
         <v>2841</v>
       </c>
     </row>
@@ -11933,10 +11226,10 @@
       <c r="C152" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E152" s="1"/>
+      <c r="D152" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E152" s="14"/>
       <c r="F152" s="1"/>
       <c r="G152" s="9">
         <v>25</v>
@@ -11957,27 +11250,22 @@
         <v>717</v>
       </c>
       <c r="M152" s="13">
-        <f t="shared" ca="1" si="10"/>
         <v>2858</v>
       </c>
       <c r="N152" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="O152" s="12">
         <v>2830</v>
       </c>
       <c r="P152" s="12">
-        <f t="shared" ca="1" si="12"/>
         <v>2871</v>
       </c>
       <c r="Q152" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R152" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="153" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11990,10 +11278,10 @@
       <c r="C153" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E153" s="1"/>
+      <c r="D153" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E153" s="14"/>
       <c r="F153" s="1"/>
       <c r="G153" s="9">
         <v>11</v>
@@ -12014,27 +11302,22 @@
         <v>718</v>
       </c>
       <c r="M153" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="N153" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="O153" s="12">
         <v>2830</v>
       </c>
       <c r="P153" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="Q153" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="R153" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="154" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12047,10 +11330,10 @@
       <c r="C154" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="E154" s="1"/>
+      <c r="D154" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="E154" s="14"/>
       <c r="F154" s="1"/>
       <c r="G154" s="9">
         <v>20</v>
@@ -12071,27 +11354,22 @@
         <v>719</v>
       </c>
       <c r="M154" s="13">
-        <f t="shared" ca="1" si="10"/>
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="N154" s="12">
-        <f t="shared" ca="1" si="11"/>
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="O154" s="12">
         <v>2830</v>
       </c>
       <c r="P154" s="12">
-        <f t="shared" ca="1" si="12"/>
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="Q154" s="12">
-        <f t="shared" ca="1" si="13"/>
         <v>2863</v>
       </c>
       <c r="R154" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
   </sheetData>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="738">
   <si>
     <t>Adam</t>
   </si>
@@ -1920,465 +1920,6 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t xml:space="preserve"> 94587</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91761</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92345</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90813</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91762</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92805</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95630</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90731</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92054</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94501</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95127</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93905</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94538</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91402</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90280</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92056</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92324</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92117</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91770</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91405</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92336</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90063</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91910</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93727</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95828</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90250</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92069</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91744</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92708</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94541</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90221</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91335</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93307</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93274</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93309</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92126</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90042</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93230</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92071</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92804</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90262</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94806</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95608</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92404</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94591</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91730</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91732</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94086</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90703</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94509</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95616</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92646</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92647</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91766</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90744</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92701</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90037</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93436</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94565</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92201</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90723</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91710</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92154</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93535</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94558</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93033</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90706</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91406</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90805</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91801</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95116</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92703</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91605</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91977</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94533</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92392</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94544</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92503</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92882</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90631</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93722</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92630</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91911</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92840</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92553</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94550</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90006</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93257</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92335</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95111</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94087</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90066</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90034</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91702</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95687</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92683</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92114</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91351</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91709</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95051</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92677</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91342</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90640</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95076</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91706</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93906</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90660</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94080</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90004</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93550</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92627</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92509</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91343</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92801</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92707</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91950</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94601</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95823</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92376</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93030</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95376</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94122</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92780</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94109</t>
-  </si>
-  <si>
     <t>NVIDIA Quadro K2000M</t>
   </si>
   <si>
@@ -2887,6 +2428,9 @@
   </si>
   <si>
     <t>demographics_Gender_2829</t>
+  </si>
+  <si>
+    <t>demographics_Education</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +2569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,8 +2591,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3331,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="H139" workbookViewId="0">
+      <selection activeCell="Q148" sqref="Q148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,43 +2895,43 @@
     <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
     <col min="9" max="10" width="14.7109375" style="8" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="19" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="16" customWidth="1"/>
     <col min="14" max="14" width="17.7109375" style="7" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="7"/>
     <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="7" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>877</v>
+        <v>724</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>878</v>
+        <v>725</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>879</v>
+        <v>726</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>564</v>
@@ -3390,31 +2939,31 @@
       <c r="K1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>882</v>
+      <c r="M1" s="15" t="s">
+        <v>729</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>883</v>
+        <v>730</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>885</v>
+        <v>732</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>886</v>
+        <v>733</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>887</v>
+        <v>734</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>822</v>
+        <v>669</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>154</v>
@@ -3423,13 +2972,13 @@
         <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>888</v>
+        <v>735</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>880</v>
+        <v>727</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>881</v>
+        <v>728</v>
       </c>
       <c r="G2" s="9">
         <v>29</v>
@@ -3446,10 +2995,10 @@
       <c r="K2" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="L2" s="17">
+        <v>94587</v>
+      </c>
+      <c r="M2" s="17">
         <v>2858</v>
       </c>
       <c r="N2" s="12">
@@ -3470,7 +3019,7 @@
     </row>
     <row r="3" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>756</v>
+        <v>603</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>155</v>
@@ -3479,9 +3028,9 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="1"/>
       <c r="G3" s="9">
         <v>5</v>
@@ -3498,10 +3047,10 @@
       <c r="K3" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="L3" s="17">
+        <v>95122</v>
+      </c>
+      <c r="M3" s="15">
         <v>2858</v>
       </c>
       <c r="N3" s="12">
@@ -3522,7 +3071,7 @@
     </row>
     <row r="4" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>771</v>
+        <v>618</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>156</v>
@@ -3531,9 +3080,9 @@
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="1"/>
       <c r="G4" s="9">
         <v>30</v>
@@ -3550,10 +3099,10 @@
       <c r="K4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="L4" s="17">
+        <v>91761</v>
+      </c>
+      <c r="M4" s="15">
         <v>2858</v>
       </c>
       <c r="N4" s="12">
@@ -3574,7 +3123,7 @@
     </row>
     <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>830</v>
+        <v>677</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>157</v>
@@ -3583,9 +3132,9 @@
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9">
         <v>18</v>
@@ -3602,10 +3151,10 @@
       <c r="K5" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="L5" s="17">
+        <v>92345</v>
+      </c>
+      <c r="M5" s="15">
         <v>2858</v>
       </c>
       <c r="N5" s="12">
@@ -3626,7 +3175,7 @@
     </row>
     <row r="6" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>787</v>
+        <v>634</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>158</v>
@@ -3635,9 +3184,9 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="1"/>
       <c r="G6" s="9">
         <v>1</v>
@@ -3654,10 +3203,10 @@
       <c r="K6" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M6" s="13">
+      <c r="L6" s="17">
+        <v>90813</v>
+      </c>
+      <c r="M6" s="15">
         <v>2862</v>
       </c>
       <c r="N6" s="12">
@@ -3678,7 +3227,7 @@
     </row>
     <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>757</v>
+        <v>604</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>159</v>
@@ -3687,9 +3236,9 @@
         <v>7</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9">
         <v>16</v>
@@ -3706,10 +3255,10 @@
       <c r="K7" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="L7" s="17">
+        <v>91762</v>
+      </c>
+      <c r="M7" s="15">
         <v>2862</v>
       </c>
       <c r="N7" s="12">
@@ -3730,7 +3279,7 @@
     </row>
     <row r="8" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>749</v>
+        <v>596</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>160</v>
@@ -3739,9 +3288,9 @@
         <v>8</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="1"/>
       <c r="G8" s="9">
         <v>13</v>
@@ -3758,10 +3307,10 @@
       <c r="K8" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="M8" s="13">
+      <c r="L8" s="17">
+        <v>92805</v>
+      </c>
+      <c r="M8" s="15">
         <v>2858</v>
       </c>
       <c r="N8" s="12">
@@ -3782,7 +3331,7 @@
     </row>
     <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>762</v>
+        <v>609</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>161</v>
@@ -3791,9 +3340,9 @@
         <v>9</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
       <c r="G9" s="9">
         <v>27</v>
@@ -3810,10 +3359,10 @@
       <c r="K9" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="L9" s="17">
+        <v>95630</v>
+      </c>
+      <c r="M9" s="15">
         <v>2862</v>
       </c>
       <c r="N9" s="12">
@@ -3834,7 +3383,7 @@
     </row>
     <row r="10" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>816</v>
+        <v>663</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>162</v>
@@ -3843,9 +3392,9 @@
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9">
         <v>22</v>
@@ -3862,10 +3411,10 @@
       <c r="K10" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="M10" s="13">
+      <c r="L10" s="17">
+        <v>92115</v>
+      </c>
+      <c r="M10" s="15">
         <v>2858</v>
       </c>
       <c r="N10" s="12">
@@ -3886,7 +3435,7 @@
     </row>
     <row r="11" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>720</v>
+        <v>567</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>163</v>
@@ -3895,9 +3444,9 @@
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9">
         <v>15</v>
@@ -3914,10 +3463,10 @@
       <c r="K11" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="17">
+        <v>90731</v>
+      </c>
+      <c r="M11" s="15">
         <v>2862</v>
       </c>
       <c r="N11" s="12">
@@ -3938,7 +3487,7 @@
     </row>
     <row r="12" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>870</v>
+        <v>717</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>164</v>
@@ -3947,9 +3496,9 @@
         <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E12" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E12" s="13"/>
       <c r="F12" s="1"/>
       <c r="G12" s="9">
         <v>17</v>
@@ -3966,10 +3515,10 @@
       <c r="K12" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="L12" s="17">
+        <v>92054</v>
+      </c>
+      <c r="M12" s="15">
         <v>2862</v>
       </c>
       <c r="N12" s="12">
@@ -3990,7 +3539,7 @@
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>814</v>
+        <v>661</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>165</v>
@@ -3999,9 +3548,9 @@
         <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E13" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="1"/>
       <c r="G13" s="9">
         <v>6</v>
@@ -4018,10 +3567,10 @@
       <c r="K13" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="M13" s="13">
+      <c r="L13" s="17">
+        <v>94501</v>
+      </c>
+      <c r="M13" s="15">
         <v>2858</v>
       </c>
       <c r="N13" s="12">
@@ -4042,7 +3591,7 @@
     </row>
     <row r="14" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>752</v>
+        <v>599</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>166</v>
@@ -4051,9 +3600,9 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E14" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
       <c r="G14" s="9">
         <v>30</v>
@@ -4070,10 +3619,10 @@
       <c r="K14" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M14" s="13">
+      <c r="L14" s="17">
+        <v>95127</v>
+      </c>
+      <c r="M14" s="15">
         <v>2862</v>
       </c>
       <c r="N14" s="12">
@@ -4094,7 +3643,7 @@
     </row>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>739</v>
+        <v>586</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>167</v>
@@ -4103,9 +3652,9 @@
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="1"/>
       <c r="G15" s="9">
         <v>18</v>
@@ -4122,10 +3671,10 @@
       <c r="K15" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="L15" s="17">
+        <v>93905</v>
+      </c>
+      <c r="M15" s="15">
         <v>2858</v>
       </c>
       <c r="N15" s="12">
@@ -4146,7 +3695,7 @@
     </row>
     <row r="16" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>759</v>
+        <v>606</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>168</v>
@@ -4155,9 +3704,9 @@
         <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="1"/>
       <c r="G16" s="9">
         <v>21</v>
@@ -4174,10 +3723,10 @@
       <c r="K16" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="M16" s="13">
+      <c r="L16" s="17">
+        <v>94538</v>
+      </c>
+      <c r="M16" s="15">
         <v>2862</v>
       </c>
       <c r="N16" s="12">
@@ -4198,7 +3747,7 @@
     </row>
     <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>740</v>
+        <v>587</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>169</v>
@@ -4207,9 +3756,9 @@
         <v>17</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E17" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E17" s="13"/>
       <c r="F17" s="1"/>
       <c r="G17" s="9">
         <v>25</v>
@@ -4226,10 +3775,10 @@
       <c r="K17" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M17" s="13">
+      <c r="L17" s="17">
+        <v>91402</v>
+      </c>
+      <c r="M17" s="15">
         <v>2858</v>
       </c>
       <c r="N17" s="12">
@@ -4250,7 +3799,7 @@
     </row>
     <row r="18" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>781</v>
+        <v>628</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>170</v>
@@ -4259,9 +3808,9 @@
         <v>18</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="1"/>
       <c r="G18" s="9">
         <v>28</v>
@@ -4278,10 +3827,10 @@
       <c r="K18" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="M18" s="13">
+      <c r="L18" s="17">
+        <v>90280</v>
+      </c>
+      <c r="M18" s="15">
         <v>2858</v>
       </c>
       <c r="N18" s="12">
@@ -4302,7 +3851,7 @@
     </row>
     <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>736</v>
+        <v>583</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>171</v>
@@ -4311,9 +3860,9 @@
         <v>19</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E19" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="1"/>
       <c r="G19" s="9">
         <v>14</v>
@@ -4330,10 +3879,10 @@
       <c r="K19" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="M19" s="13">
+      <c r="L19" s="17">
+        <v>92056</v>
+      </c>
+      <c r="M19" s="15">
         <v>2862</v>
       </c>
       <c r="N19" s="12">
@@ -4354,7 +3903,7 @@
     </row>
     <row r="20" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>866</v>
+        <v>713</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>172</v>
@@ -4363,9 +3912,9 @@
         <v>20</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="1"/>
       <c r="G20" s="9">
         <v>3</v>
@@ -4382,10 +3931,10 @@
       <c r="K20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="M20" s="13">
+      <c r="L20" s="17">
+        <v>92324</v>
+      </c>
+      <c r="M20" s="15">
         <v>2862</v>
       </c>
       <c r="N20" s="12">
@@ -4406,7 +3955,7 @@
     </row>
     <row r="21" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>812</v>
+        <v>659</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>173</v>
@@ -4415,9 +3964,9 @@
         <v>21</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E21" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="1"/>
       <c r="G21" s="9">
         <v>30</v>
@@ -4434,10 +3983,10 @@
       <c r="K21" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="M21" s="13">
+      <c r="L21" s="17">
+        <v>92117</v>
+      </c>
+      <c r="M21" s="15">
         <v>2862</v>
       </c>
       <c r="N21" s="12">
@@ -4458,7 +4007,7 @@
     </row>
     <row r="22" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>861</v>
+        <v>708</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>174</v>
@@ -4467,9 +4016,9 @@
         <v>22</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E22" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="1"/>
       <c r="G22" s="9">
         <v>26</v>
@@ -4486,10 +4035,10 @@
       <c r="K22" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="M22" s="13">
+      <c r="L22" s="17">
+        <v>91770</v>
+      </c>
+      <c r="M22" s="15">
         <v>2858</v>
       </c>
       <c r="N22" s="12">
@@ -4510,7 +4059,7 @@
     </row>
     <row r="23" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>775</v>
+        <v>622</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>175</v>
@@ -4519,9 +4068,9 @@
         <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E23" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="1"/>
       <c r="G23" s="9">
         <v>3</v>
@@ -4538,10 +4087,10 @@
       <c r="K23" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="L23" s="17">
+        <v>91405</v>
+      </c>
+      <c r="M23" s="15">
         <v>2862</v>
       </c>
       <c r="N23" s="12">
@@ -4562,7 +4111,7 @@
     </row>
     <row r="24" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>746</v>
+        <v>593</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>176</v>
@@ -4571,9 +4120,9 @@
         <v>24</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E24" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="1"/>
       <c r="G24" s="9">
         <v>11</v>
@@ -4590,10 +4139,10 @@
       <c r="K24" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="M24" s="13">
+      <c r="L24" s="17">
+        <v>92336</v>
+      </c>
+      <c r="M24" s="15">
         <v>2858</v>
       </c>
       <c r="N24" s="12">
@@ -4614,7 +4163,7 @@
     </row>
     <row r="25" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>802</v>
+        <v>649</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>177</v>
@@ -4623,9 +4172,9 @@
         <v>25</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E25" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="1"/>
       <c r="G25" s="9">
         <v>13</v>
@@ -4642,10 +4191,10 @@
       <c r="K25" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="L25" s="17">
+        <v>90063</v>
+      </c>
+      <c r="M25" s="15">
         <v>2862</v>
       </c>
       <c r="N25" s="12">
@@ -4666,7 +4215,7 @@
     </row>
     <row r="26" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>862</v>
+        <v>709</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>178</v>
@@ -4675,9 +4224,9 @@
         <v>26</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E26" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="1"/>
       <c r="G26" s="9">
         <v>25</v>
@@ -4694,10 +4243,10 @@
       <c r="K26" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="M26" s="13">
+      <c r="L26" s="17">
+        <v>91910</v>
+      </c>
+      <c r="M26" s="15">
         <v>2858</v>
       </c>
       <c r="N26" s="12">
@@ -4718,7 +4267,7 @@
     </row>
     <row r="27" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>772</v>
+        <v>619</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>179</v>
@@ -4727,9 +4276,9 @@
         <v>27</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E27" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="1"/>
       <c r="G27" s="9">
         <v>21</v>
@@ -4746,14 +4295,14 @@
       <c r="K27" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M27" s="13">
+      <c r="L27" s="17">
+        <v>93727</v>
+      </c>
+      <c r="M27" s="15">
         <v>2858</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>884</v>
+        <v>731</v>
       </c>
       <c r="O27" s="12">
         <v>2830</v>
@@ -4770,7 +4319,7 @@
     </row>
     <row r="28" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>826</v>
+        <v>673</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>180</v>
@@ -4779,9 +4328,9 @@
         <v>28</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E28" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
       <c r="G28" s="9">
         <v>8</v>
@@ -4798,10 +4347,10 @@
       <c r="K28" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="M28" s="13">
+      <c r="L28" s="17">
+        <v>95035</v>
+      </c>
+      <c r="M28" s="15">
         <v>2858</v>
       </c>
       <c r="N28" s="12">
@@ -4822,7 +4371,7 @@
     </row>
     <row r="29" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>818</v>
+        <v>665</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>181</v>
@@ -4831,9 +4380,9 @@
         <v>29</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E29" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E29" s="13"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9">
         <v>28</v>
@@ -4850,10 +4399,10 @@
       <c r="K29" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="M29" s="13">
+      <c r="L29" s="17">
+        <v>95828</v>
+      </c>
+      <c r="M29" s="15">
         <v>2862</v>
       </c>
       <c r="N29" s="12">
@@ -4874,7 +4423,7 @@
     </row>
     <row r="30" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>803</v>
+        <v>650</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>182</v>
@@ -4883,9 +4432,9 @@
         <v>30</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E30" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E30" s="13"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9">
         <v>13</v>
@@ -4902,10 +4451,10 @@
       <c r="K30" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="L30" s="17">
+        <v>90003</v>
+      </c>
+      <c r="M30" s="15">
         <v>2858</v>
       </c>
       <c r="N30" s="12">
@@ -4926,7 +4475,7 @@
     </row>
     <row r="31" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>727</v>
+        <v>574</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>183</v>
@@ -4935,9 +4484,9 @@
         <v>31</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E31" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E31" s="13"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9">
         <v>5</v>
@@ -4954,10 +4503,10 @@
       <c r="K31" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="L31" s="17">
+        <v>90250</v>
+      </c>
+      <c r="M31" s="15">
         <v>2862</v>
       </c>
       <c r="N31" s="12">
@@ -4978,7 +4527,7 @@
     </row>
     <row r="32" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>737</v>
+        <v>584</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>184</v>
@@ -4987,9 +4536,9 @@
         <v>32</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E32" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E32" s="13"/>
       <c r="F32" s="1"/>
       <c r="G32" s="9">
         <v>18</v>
@@ -5006,10 +4555,10 @@
       <c r="K32" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M32" s="13">
+      <c r="L32" s="17">
+        <v>90022</v>
+      </c>
+      <c r="M32" s="15">
         <v>2858</v>
       </c>
       <c r="N32" s="12">
@@ -5030,7 +4579,7 @@
     </row>
     <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>868</v>
+        <v>715</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>185</v>
@@ -5039,9 +4588,9 @@
         <v>33</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E33" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E33" s="13"/>
       <c r="F33" s="1"/>
       <c r="G33" s="9">
         <v>14</v>
@@ -5058,10 +4607,10 @@
       <c r="K33" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="M33" s="13">
+      <c r="L33" s="17">
+        <v>92069</v>
+      </c>
+      <c r="M33" s="15">
         <v>2862</v>
       </c>
       <c r="N33" s="12">
@@ -5082,7 +4631,7 @@
     </row>
     <row r="34" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>873</v>
+        <v>720</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>186</v>
@@ -5091,9 +4640,9 @@
         <v>34</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E34" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="1"/>
       <c r="G34" s="9">
         <v>20</v>
@@ -5110,10 +4659,10 @@
       <c r="K34" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="M34" s="13">
+      <c r="L34" s="17">
+        <v>92021</v>
+      </c>
+      <c r="M34" s="15">
         <v>2862</v>
       </c>
       <c r="N34" s="12">
@@ -5134,7 +4683,7 @@
     </row>
     <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>797</v>
+        <v>644</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>187</v>
@@ -5143,9 +4692,9 @@
         <v>35</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E35" s="13"/>
       <c r="F35" s="1"/>
       <c r="G35" s="9">
         <v>23</v>
@@ -5162,10 +4711,10 @@
       <c r="K35" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="M35" s="13">
+      <c r="L35" s="17">
+        <v>95123</v>
+      </c>
+      <c r="M35" s="15">
         <v>2862</v>
       </c>
       <c r="N35" s="12">
@@ -5186,7 +4735,7 @@
     </row>
     <row r="36" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>751</v>
+        <v>598</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>188</v>
@@ -5195,9 +4744,9 @@
         <v>36</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E36" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E36" s="13"/>
       <c r="F36" s="1"/>
       <c r="G36" s="9">
         <v>1</v>
@@ -5214,10 +4763,10 @@
       <c r="K36" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="M36" s="13">
+      <c r="L36" s="17">
+        <v>91744</v>
+      </c>
+      <c r="M36" s="15">
         <v>2862</v>
       </c>
       <c r="N36" s="12">
@@ -5238,7 +4787,7 @@
     </row>
     <row r="37" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>831</v>
+        <v>678</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>189</v>
@@ -5247,9 +4796,9 @@
         <v>37</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E37" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E37" s="13"/>
       <c r="F37" s="1"/>
       <c r="G37" s="9">
         <v>25</v>
@@ -5266,10 +4815,10 @@
       <c r="K37" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="M37" s="13">
+      <c r="L37" s="17">
+        <v>92708</v>
+      </c>
+      <c r="M37" s="15">
         <v>2858</v>
       </c>
       <c r="N37" s="12">
@@ -5290,7 +4839,7 @@
     </row>
     <row r="38" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>864</v>
+        <v>711</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>190</v>
@@ -5299,9 +4848,9 @@
         <v>38</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E38" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E38" s="13"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9">
         <v>24</v>
@@ -5318,10 +4867,10 @@
       <c r="K38" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="M38" s="13">
+      <c r="L38" s="17">
+        <v>94541</v>
+      </c>
+      <c r="M38" s="15">
         <v>2858</v>
       </c>
       <c r="N38" s="12">
@@ -5342,7 +4891,7 @@
     </row>
     <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>821</v>
+        <v>668</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>191</v>
@@ -5351,9 +4900,9 @@
         <v>39</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E39" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E39" s="13"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9">
         <v>19</v>
@@ -5370,10 +4919,10 @@
       <c r="K39" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="M39" s="13">
+      <c r="L39" s="17">
+        <v>92704</v>
+      </c>
+      <c r="M39" s="15">
         <v>2858</v>
       </c>
       <c r="N39" s="12">
@@ -5394,7 +4943,7 @@
     </row>
     <row r="40" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>800</v>
+        <v>647</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>192</v>
@@ -5403,9 +4952,9 @@
         <v>40</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E40" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="1"/>
       <c r="G40" s="9">
         <v>13</v>
@@ -5422,10 +4971,10 @@
       <c r="K40" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="M40" s="13">
+      <c r="L40" s="17">
+        <v>90221</v>
+      </c>
+      <c r="M40" s="15">
         <v>2858</v>
       </c>
       <c r="N40" s="12">
@@ -5446,7 +4995,7 @@
     </row>
     <row r="41" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>798</v>
+        <v>645</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>193</v>
@@ -5455,9 +5004,9 @@
         <v>41</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E41" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E41" s="13"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9">
         <v>6</v>
@@ -5474,10 +5023,10 @@
       <c r="K41" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="M41" s="13">
+      <c r="L41" s="17">
+        <v>91335</v>
+      </c>
+      <c r="M41" s="15">
         <v>2862</v>
       </c>
       <c r="N41" s="12">
@@ -5498,7 +5047,7 @@
     </row>
     <row r="42" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>765</v>
+        <v>612</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>194</v>
@@ -5507,9 +5056,9 @@
         <v>42</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E42" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E42" s="13"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9">
         <v>2</v>
@@ -5526,10 +5075,10 @@
       <c r="K42" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="M42" s="13">
+      <c r="L42" s="17">
+        <v>93307</v>
+      </c>
+      <c r="M42" s="15">
         <v>2858</v>
       </c>
       <c r="N42" s="12">
@@ -5550,7 +5099,7 @@
     </row>
     <row r="43" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>777</v>
+        <v>624</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>195</v>
@@ -5559,9 +5108,9 @@
         <v>43</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E43" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E43" s="13"/>
       <c r="F43" s="1"/>
       <c r="G43" s="9">
         <v>27</v>
@@ -5578,10 +5127,10 @@
       <c r="K43" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="M43" s="13">
+      <c r="L43" s="17">
+        <v>93274</v>
+      </c>
+      <c r="M43" s="15">
         <v>2862</v>
       </c>
       <c r="N43" s="12">
@@ -5602,7 +5151,7 @@
     </row>
     <row r="44" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>791</v>
+        <v>638</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>196</v>
@@ -5611,9 +5160,9 @@
         <v>44</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E44" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E44" s="13"/>
       <c r="F44" s="1"/>
       <c r="G44" s="9">
         <v>17</v>
@@ -5630,10 +5179,10 @@
       <c r="K44" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="M44" s="13">
+      <c r="L44" s="17">
+        <v>90001</v>
+      </c>
+      <c r="M44" s="15">
         <v>2858</v>
       </c>
       <c r="N44" s="12">
@@ -5654,7 +5203,7 @@
     </row>
     <row r="45" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>865</v>
+        <v>712</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>197</v>
@@ -5663,9 +5212,9 @@
         <v>45</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E45" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E45" s="13"/>
       <c r="F45" s="1"/>
       <c r="G45" s="9">
         <v>19</v>
@@ -5682,10 +5231,10 @@
       <c r="K45" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="M45" s="13">
+      <c r="L45" s="17">
+        <v>93309</v>
+      </c>
+      <c r="M45" s="15">
         <v>2858</v>
       </c>
       <c r="N45" s="12">
@@ -5706,7 +5255,7 @@
     </row>
     <row r="46" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>785</v>
+        <v>632</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>198</v>
@@ -5715,9 +5264,9 @@
         <v>46</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E46" s="13"/>
       <c r="F46" s="1"/>
       <c r="G46" s="9">
         <v>11</v>
@@ -5734,10 +5283,10 @@
       <c r="K46" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="M46" s="13">
+      <c r="L46" s="17">
+        <v>92126</v>
+      </c>
+      <c r="M46" s="15">
         <v>2858</v>
       </c>
       <c r="N46" s="12">
@@ -5758,7 +5307,7 @@
     </row>
     <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>863</v>
+        <v>710</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>199</v>
@@ -5767,9 +5316,9 @@
         <v>47</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E47" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E47" s="13"/>
       <c r="F47" s="1"/>
       <c r="G47" s="9">
         <v>9</v>
@@ -5786,10 +5335,10 @@
       <c r="K47" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="M47" s="13">
+      <c r="L47" s="17">
+        <v>90042</v>
+      </c>
+      <c r="M47" s="15">
         <v>2858</v>
       </c>
       <c r="N47" s="12">
@@ -5810,7 +5359,7 @@
     </row>
     <row r="48" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>808</v>
+        <v>655</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>200</v>
@@ -5819,9 +5368,9 @@
         <v>48</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E48" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E48" s="13"/>
       <c r="F48" s="1"/>
       <c r="G48" s="9">
         <v>26</v>
@@ -5838,10 +5387,10 @@
       <c r="K48" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="M48" s="13">
+      <c r="L48" s="17">
+        <v>93230</v>
+      </c>
+      <c r="M48" s="15">
         <v>2858</v>
       </c>
       <c r="N48" s="12">
@@ -5862,7 +5411,7 @@
     </row>
     <row r="49" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>824</v>
+        <v>671</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>201</v>
@@ -5871,9 +5420,9 @@
         <v>49</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E49" s="13"/>
       <c r="F49" s="1"/>
       <c r="G49" s="9">
         <v>31</v>
@@ -5890,10 +5439,10 @@
       <c r="K49" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="M49" s="13">
+      <c r="L49" s="17">
+        <v>90044</v>
+      </c>
+      <c r="M49" s="15">
         <v>2862</v>
       </c>
       <c r="N49" s="12">
@@ -5914,7 +5463,7 @@
     </row>
     <row r="50" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>805</v>
+        <v>652</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>202</v>
@@ -5923,9 +5472,9 @@
         <v>50</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E50" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="1"/>
       <c r="G50" s="9">
         <v>17</v>
@@ -5942,10 +5491,10 @@
       <c r="K50" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="M50" s="13">
+      <c r="L50" s="17">
+        <v>92071</v>
+      </c>
+      <c r="M50" s="15">
         <v>2858</v>
       </c>
       <c r="N50" s="12">
@@ -5966,7 +5515,7 @@
     </row>
     <row r="51" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>843</v>
+        <v>690</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>203</v>
@@ -5975,9 +5524,9 @@
         <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E51" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E51" s="13"/>
       <c r="F51" s="1"/>
       <c r="G51" s="9">
         <v>25</v>
@@ -5994,10 +5543,10 @@
       <c r="K51" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="M51" s="13">
+      <c r="L51" s="17">
+        <v>92105</v>
+      </c>
+      <c r="M51" s="15">
         <v>2858</v>
       </c>
       <c r="N51" s="12">
@@ -6018,7 +5567,7 @@
     </row>
     <row r="52" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>793</v>
+        <v>640</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>204</v>
@@ -6027,9 +5576,9 @@
         <v>52</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E52" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E52" s="13"/>
       <c r="F52" s="1"/>
       <c r="G52" s="9">
         <v>25</v>
@@ -6046,10 +5595,10 @@
       <c r="K52" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="M52" s="13">
+      <c r="L52" s="17">
+        <v>92804</v>
+      </c>
+      <c r="M52" s="15">
         <v>2862</v>
       </c>
       <c r="N52" s="12">
@@ -6070,7 +5619,7 @@
     </row>
     <row r="53" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>728</v>
+        <v>575</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>205</v>
@@ -6079,9 +5628,9 @@
         <v>53</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E53" s="13"/>
       <c r="F53" s="1"/>
       <c r="G53" s="9">
         <v>11</v>
@@ -6098,10 +5647,10 @@
       <c r="K53" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="M53" s="13">
+      <c r="L53" s="17">
+        <v>91745</v>
+      </c>
+      <c r="M53" s="15">
         <v>2862</v>
       </c>
       <c r="N53" s="12">
@@ -6122,7 +5671,7 @@
     </row>
     <row r="54" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>766</v>
+        <v>613</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>206</v>
@@ -6131,9 +5680,9 @@
         <v>54</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E54" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E54" s="13"/>
       <c r="F54" s="1"/>
       <c r="G54" s="9">
         <v>6</v>
@@ -6150,10 +5699,10 @@
       <c r="K54" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="M54" s="13">
+      <c r="L54" s="17">
+        <v>93306</v>
+      </c>
+      <c r="M54" s="15">
         <v>2858</v>
       </c>
       <c r="N54" s="12">
@@ -6174,7 +5723,7 @@
     </row>
     <row r="55" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>729</v>
+        <v>576</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>207</v>
@@ -6183,9 +5732,9 @@
         <v>55</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E55" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E55" s="13"/>
       <c r="F55" s="1"/>
       <c r="G55" s="9">
         <v>26</v>
@@ -6202,10 +5751,10 @@
       <c r="K55" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M55" s="13">
+      <c r="L55" s="17">
+        <v>90262</v>
+      </c>
+      <c r="M55" s="15">
         <v>2862</v>
       </c>
       <c r="N55" s="12">
@@ -6226,7 +5775,7 @@
     </row>
     <row r="56" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>783</v>
+        <v>630</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>208</v>
@@ -6235,9 +5784,9 @@
         <v>56</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E56" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E56" s="13"/>
       <c r="F56" s="1"/>
       <c r="G56" s="9">
         <v>21</v>
@@ -6254,10 +5803,10 @@
       <c r="K56" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M56" s="13">
+      <c r="L56" s="17">
+        <v>94806</v>
+      </c>
+      <c r="M56" s="15">
         <v>2862</v>
       </c>
       <c r="N56" s="12">
@@ -6278,7 +5827,7 @@
     </row>
     <row r="57" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>839</v>
+        <v>686</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>209</v>
@@ -6287,9 +5836,9 @@
         <v>57</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E57" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E57" s="13"/>
       <c r="F57" s="1"/>
       <c r="G57" s="9">
         <v>29</v>
@@ -6306,10 +5855,10 @@
       <c r="K57" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="M57" s="13">
+      <c r="L57" s="17">
+        <v>94015</v>
+      </c>
+      <c r="M57" s="15">
         <v>2862</v>
       </c>
       <c r="N57" s="12">
@@ -6330,7 +5879,7 @@
     </row>
     <row r="58" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>834</v>
+        <v>681</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>210</v>
@@ -6339,9 +5888,9 @@
         <v>58</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E58" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E58" s="13"/>
       <c r="F58" s="1"/>
       <c r="G58" s="9">
         <v>11</v>
@@ -6358,10 +5907,10 @@
       <c r="K58" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="M58" s="13">
+      <c r="L58" s="17">
+        <v>95608</v>
+      </c>
+      <c r="M58" s="15">
         <v>2858</v>
       </c>
       <c r="N58" s="12">
@@ -6382,7 +5931,7 @@
     </row>
     <row r="59" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>832</v>
+        <v>679</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>211</v>
@@ -6391,9 +5940,9 @@
         <v>59</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E59" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E59" s="13"/>
       <c r="F59" s="1"/>
       <c r="G59" s="9">
         <v>18</v>
@@ -6410,10 +5959,10 @@
       <c r="K59" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="M59" s="13">
+      <c r="L59" s="17">
+        <v>92404</v>
+      </c>
+      <c r="M59" s="15">
         <v>2862</v>
       </c>
       <c r="N59" s="12">
@@ -6434,7 +5983,7 @@
     </row>
     <row r="60" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>827</v>
+        <v>674</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>212</v>
@@ -6443,9 +5992,9 @@
         <v>60</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E60" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E60" s="13"/>
       <c r="F60" s="1"/>
       <c r="G60" s="9">
         <v>3</v>
@@ -6462,10 +6011,10 @@
       <c r="K60" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="M60" s="13">
+      <c r="L60" s="17">
+        <v>94591</v>
+      </c>
+      <c r="M60" s="15">
         <v>2862</v>
       </c>
       <c r="N60" s="12">
@@ -6486,7 +6035,7 @@
     </row>
     <row r="61" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>726</v>
+        <v>573</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>213</v>
@@ -6495,9 +6044,9 @@
         <v>61</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E61" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E61" s="13"/>
       <c r="F61" s="1"/>
       <c r="G61" s="9">
         <v>28</v>
@@ -6514,10 +6063,10 @@
       <c r="K61" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="M61" s="13">
+      <c r="L61" s="17">
+        <v>91730</v>
+      </c>
+      <c r="M61" s="15">
         <v>2862</v>
       </c>
       <c r="N61" s="12">
@@ -6538,7 +6087,7 @@
     </row>
     <row r="62" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>789</v>
+        <v>636</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>214</v>
@@ -6547,9 +6096,9 @@
         <v>62</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E62" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E62" s="13"/>
       <c r="F62" s="1"/>
       <c r="G62" s="9">
         <v>29</v>
@@ -6566,10 +6115,10 @@
       <c r="K62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="M62" s="13">
+      <c r="L62" s="17">
+        <v>90026</v>
+      </c>
+      <c r="M62" s="15">
         <v>2858</v>
       </c>
       <c r="N62" s="12">
@@ -6590,7 +6139,7 @@
     </row>
     <row r="63" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>795</v>
+        <v>642</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>215</v>
@@ -6599,9 +6148,9 @@
         <v>63</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E63" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E63" s="13"/>
       <c r="F63" s="1"/>
       <c r="G63" s="9">
         <v>8</v>
@@ -6618,10 +6167,10 @@
       <c r="K63" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M63" s="13">
+      <c r="L63" s="17">
+        <v>91732</v>
+      </c>
+      <c r="M63" s="15">
         <v>2862</v>
       </c>
       <c r="N63" s="12">
@@ -6642,7 +6191,7 @@
     </row>
     <row r="64" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>734</v>
+        <v>581</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>216</v>
@@ -6651,9 +6200,9 @@
         <v>64</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E64" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E64" s="13"/>
       <c r="F64" s="1"/>
       <c r="G64" s="9">
         <v>26</v>
@@ -6670,10 +6219,10 @@
       <c r="K64" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="M64" s="13">
+      <c r="L64" s="17">
+        <v>94086</v>
+      </c>
+      <c r="M64" s="15">
         <v>2862</v>
       </c>
       <c r="N64" s="12">
@@ -6694,7 +6243,7 @@
     </row>
     <row r="65" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>819</v>
+        <v>666</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>217</v>
@@ -6703,9 +6252,9 @@
         <v>65</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E65" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E65" s="13"/>
       <c r="F65" s="1"/>
       <c r="G65" s="9">
         <v>21</v>
@@ -6722,10 +6271,10 @@
       <c r="K65" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M65" s="13">
+      <c r="L65" s="17">
+        <v>90703</v>
+      </c>
+      <c r="M65" s="15">
         <v>2858</v>
       </c>
       <c r="N65" s="12">
@@ -6746,7 +6295,7 @@
     </row>
     <row r="66" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>829</v>
+        <v>676</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>218</v>
@@ -6755,9 +6304,9 @@
         <v>66</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E66" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E66" s="13"/>
       <c r="F66" s="1"/>
       <c r="G66" s="9">
         <v>10</v>
@@ -6774,10 +6323,10 @@
       <c r="K66" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="M66" s="13">
+      <c r="L66" s="17">
+        <v>94509</v>
+      </c>
+      <c r="M66" s="15">
         <v>2858</v>
       </c>
       <c r="N66" s="12">
@@ -6798,7 +6347,7 @@
     </row>
     <row r="67" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>754</v>
+        <v>601</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>219</v>
@@ -6807,9 +6356,9 @@
         <v>67</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E67" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E67" s="13"/>
       <c r="F67" s="1"/>
       <c r="G67" s="9">
         <v>16</v>
@@ -6826,10 +6375,10 @@
       <c r="K67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="M67" s="13">
+      <c r="L67" s="17">
+        <v>95616</v>
+      </c>
+      <c r="M67" s="15">
         <v>2858</v>
       </c>
       <c r="N67" s="12">
@@ -6850,7 +6399,7 @@
     </row>
     <row r="68" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>748</v>
+        <v>595</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>220</v>
@@ -6859,9 +6408,9 @@
         <v>68</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E68" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E68" s="13"/>
       <c r="F68" s="1"/>
       <c r="G68" s="9">
         <v>1</v>
@@ -6878,10 +6427,10 @@
       <c r="K68" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="M68" s="13">
+      <c r="L68" s="17">
+        <v>92646</v>
+      </c>
+      <c r="M68" s="15">
         <v>2858</v>
       </c>
       <c r="N68" s="12">
@@ -6902,7 +6451,7 @@
     </row>
     <row r="69" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>811</v>
+        <v>658</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>221</v>
@@ -6911,9 +6460,9 @@
         <v>69</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E69" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E69" s="13"/>
       <c r="F69" s="1"/>
       <c r="G69" s="9">
         <v>15</v>
@@ -6930,10 +6479,10 @@
       <c r="K69" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M69" s="13">
+      <c r="L69" s="17">
+        <v>92647</v>
+      </c>
+      <c r="M69" s="15">
         <v>2862</v>
       </c>
       <c r="N69" s="12">
@@ -6954,7 +6503,7 @@
     </row>
     <row r="70" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>779</v>
+        <v>626</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>222</v>
@@ -6963,9 +6512,9 @@
         <v>70</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E70" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E70" s="13"/>
       <c r="F70" s="1"/>
       <c r="G70" s="9">
         <v>3</v>
@@ -6982,10 +6531,10 @@
       <c r="K70" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="M70" s="13">
+      <c r="L70" s="17">
+        <v>91766</v>
+      </c>
+      <c r="M70" s="15">
         <v>2858</v>
       </c>
       <c r="N70" s="12">
@@ -7006,7 +6555,7 @@
     </row>
     <row r="71" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>731</v>
+        <v>578</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>223</v>
@@ -7015,9 +6564,9 @@
         <v>71</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E71" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E71" s="13"/>
       <c r="F71" s="1"/>
       <c r="G71" s="9">
         <v>13</v>
@@ -7034,10 +6583,10 @@
       <c r="K71" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="M71" s="13">
+      <c r="L71" s="17">
+        <v>90744</v>
+      </c>
+      <c r="M71" s="15">
         <v>2862</v>
       </c>
       <c r="N71" s="12">
@@ -7058,7 +6607,7 @@
     </row>
     <row r="72" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>809</v>
+        <v>656</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>224</v>
@@ -7067,9 +6616,9 @@
         <v>72</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E72" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E72" s="13"/>
       <c r="F72" s="1"/>
       <c r="G72" s="9">
         <v>20</v>
@@ -7086,10 +6635,10 @@
       <c r="K72" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="M72" s="13">
+      <c r="L72" s="17">
+        <v>94112</v>
+      </c>
+      <c r="M72" s="15">
         <v>2862</v>
       </c>
       <c r="N72" s="12">
@@ -7110,7 +6659,7 @@
     </row>
     <row r="73" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>857</v>
+        <v>704</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>225</v>
@@ -7119,9 +6668,9 @@
         <v>73</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E73" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E73" s="13"/>
       <c r="F73" s="1"/>
       <c r="G73" s="9">
         <v>11</v>
@@ -7138,10 +6687,10 @@
       <c r="K73" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="M73" s="13">
+      <c r="L73" s="17">
+        <v>92701</v>
+      </c>
+      <c r="M73" s="15">
         <v>2862</v>
       </c>
       <c r="N73" s="12">
@@ -7162,7 +6711,7 @@
     </row>
     <row r="74" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>724</v>
+        <v>571</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>226</v>
@@ -7171,9 +6720,9 @@
         <v>74</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E74" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E74" s="13"/>
       <c r="F74" s="1"/>
       <c r="G74" s="9">
         <v>9</v>
@@ -7190,10 +6739,10 @@
       <c r="K74" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="M74" s="13">
+      <c r="L74" s="17">
+        <v>90037</v>
+      </c>
+      <c r="M74" s="15">
         <v>2862</v>
       </c>
       <c r="N74" s="12">
@@ -7214,7 +6763,7 @@
     </row>
     <row r="75" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>806</v>
+        <v>653</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>227</v>
@@ -7223,9 +6772,9 @@
         <v>75</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E75" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E75" s="13"/>
       <c r="F75" s="1"/>
       <c r="G75" s="9">
         <v>9</v>
@@ -7242,10 +6791,10 @@
       <c r="K75" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="M75" s="13">
+      <c r="L75" s="17">
+        <v>93436</v>
+      </c>
+      <c r="M75" s="15">
         <v>2858</v>
       </c>
       <c r="N75" s="12">
@@ -7266,7 +6815,7 @@
     </row>
     <row r="76" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>758</v>
+        <v>605</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>228</v>
@@ -7275,9 +6824,9 @@
         <v>76</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E76" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E76" s="13"/>
       <c r="F76" s="1"/>
       <c r="G76" s="9">
         <v>28</v>
@@ -7294,10 +6843,10 @@
       <c r="K76" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M76" s="13">
+      <c r="L76" s="17">
+        <v>95014</v>
+      </c>
+      <c r="M76" s="15">
         <v>2858</v>
       </c>
       <c r="N76" s="12">
@@ -7318,7 +6867,7 @@
     </row>
     <row r="77" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>844</v>
+        <v>691</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>229</v>
@@ -7327,9 +6876,9 @@
         <v>77</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E77" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E77" s="13"/>
       <c r="F77" s="1"/>
       <c r="G77" s="9">
         <v>22</v>
@@ -7346,10 +6895,10 @@
       <c r="K77" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="M77" s="13">
+      <c r="L77" s="17">
+        <v>94565</v>
+      </c>
+      <c r="M77" s="15">
         <v>2862</v>
       </c>
       <c r="N77" s="12">
@@ -7370,7 +6919,7 @@
     </row>
     <row r="78" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>869</v>
+        <v>716</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>230</v>
@@ -7379,9 +6928,9 @@
         <v>0</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E78" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E78" s="13"/>
       <c r="F78" s="1"/>
       <c r="G78" s="9">
         <v>24</v>
@@ -7398,10 +6947,10 @@
       <c r="K78" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="M78" s="13">
+      <c r="L78" s="17">
+        <v>92201</v>
+      </c>
+      <c r="M78" s="15">
         <v>2862</v>
       </c>
       <c r="N78" s="12">
@@ -7422,7 +6971,7 @@
     </row>
     <row r="79" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>796</v>
+        <v>643</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>231</v>
@@ -7431,9 +6980,9 @@
         <v>78</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E79" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E79" s="13"/>
       <c r="F79" s="1"/>
       <c r="G79" s="9">
         <v>7</v>
@@ -7450,10 +6999,10 @@
       <c r="K79" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M79" s="13">
+      <c r="L79" s="17">
+        <v>94536</v>
+      </c>
+      <c r="M79" s="15">
         <v>2862</v>
       </c>
       <c r="N79" s="12">
@@ -7474,7 +7023,7 @@
     </row>
     <row r="80" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>817</v>
+        <v>664</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>232</v>
@@ -7483,9 +7032,9 @@
         <v>79</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E80" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E80" s="13"/>
       <c r="F80" s="1"/>
       <c r="G80" s="9">
         <v>16</v>
@@ -7502,10 +7051,10 @@
       <c r="K80" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="M80" s="13">
+      <c r="L80" s="17">
+        <v>90723</v>
+      </c>
+      <c r="M80" s="15">
         <v>2862</v>
       </c>
       <c r="N80" s="12">
@@ -7526,7 +7075,7 @@
     </row>
     <row r="81" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>741</v>
+        <v>588</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>233</v>
@@ -7535,9 +7084,9 @@
         <v>80</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E81" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E81" s="13"/>
       <c r="F81" s="1"/>
       <c r="G81" s="9">
         <v>23</v>
@@ -7554,10 +7103,10 @@
       <c r="K81" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="M81" s="13">
+      <c r="L81" s="17">
+        <v>91710</v>
+      </c>
+      <c r="M81" s="15">
         <v>2862</v>
       </c>
       <c r="N81" s="12">
@@ -7578,7 +7127,7 @@
     </row>
     <row r="82" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>750</v>
+        <v>597</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>234</v>
@@ -7587,9 +7136,9 @@
         <v>81</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E82" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E82" s="13"/>
       <c r="F82" s="1"/>
       <c r="G82" s="9">
         <v>18</v>
@@ -7606,10 +7155,10 @@
       <c r="K82" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M82" s="13">
+      <c r="L82" s="17">
+        <v>92154</v>
+      </c>
+      <c r="M82" s="15">
         <v>2858</v>
       </c>
       <c r="N82" s="12">
@@ -7630,7 +7179,7 @@
     </row>
     <row r="83" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>786</v>
+        <v>633</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>235</v>
@@ -7639,9 +7188,9 @@
         <v>82</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E83" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E83" s="13"/>
       <c r="F83" s="1"/>
       <c r="G83" s="9">
         <v>12</v>
@@ -7658,10 +7207,10 @@
       <c r="K83" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="M83" s="13">
+      <c r="L83" s="17">
+        <v>93535</v>
+      </c>
+      <c r="M83" s="15">
         <v>2862</v>
       </c>
       <c r="N83" s="12">
@@ -7682,7 +7231,7 @@
     </row>
     <row r="84" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>850</v>
+        <v>697</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>236</v>
@@ -7691,9 +7240,9 @@
         <v>83</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E84" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E84" s="13"/>
       <c r="F84" s="1"/>
       <c r="G84" s="9">
         <v>20</v>
@@ -7710,10 +7259,10 @@
       <c r="K84" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M84" s="13">
+      <c r="L84" s="17">
+        <v>94558</v>
+      </c>
+      <c r="M84" s="15">
         <v>2862</v>
       </c>
       <c r="N84" s="12">
@@ -7734,7 +7283,7 @@
     </row>
     <row r="85" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>733</v>
+        <v>580</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>237</v>
@@ -7743,9 +7292,9 @@
         <v>84</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E85" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E85" s="13"/>
       <c r="F85" s="1"/>
       <c r="G85" s="9">
         <v>6</v>
@@ -7762,10 +7311,10 @@
       <c r="K85" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M85" s="13">
+      <c r="L85" s="17">
+        <v>93033</v>
+      </c>
+      <c r="M85" s="15">
         <v>2858</v>
       </c>
       <c r="N85" s="12">
@@ -7786,7 +7335,7 @@
     </row>
     <row r="86" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>794</v>
+        <v>641</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>238</v>
@@ -7795,9 +7344,9 @@
         <v>2</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E86" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E86" s="13"/>
       <c r="F86" s="1"/>
       <c r="G86" s="9">
         <v>29</v>
@@ -7814,10 +7363,10 @@
       <c r="K86" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="M86" s="13">
+      <c r="L86" s="17">
+        <v>90706</v>
+      </c>
+      <c r="M86" s="15">
         <v>2858</v>
       </c>
       <c r="N86" s="12">
@@ -7838,7 +7387,7 @@
     </row>
     <row r="87" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>858</v>
+        <v>705</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>239</v>
@@ -7847,9 +7396,9 @@
         <v>85</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E87" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E87" s="13"/>
       <c r="F87" s="1"/>
       <c r="G87" s="9">
         <v>31</v>
@@ -7866,10 +7415,10 @@
       <c r="K87" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="M87" s="13">
+      <c r="L87" s="17">
+        <v>91406</v>
+      </c>
+      <c r="M87" s="15">
         <v>2862</v>
       </c>
       <c r="N87" s="12">
@@ -7890,7 +7439,7 @@
     </row>
     <row r="88" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>837</v>
+        <v>684</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>240</v>
@@ -7899,9 +7448,9 @@
         <v>86</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E88" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E88" s="13"/>
       <c r="F88" s="1"/>
       <c r="G88" s="9">
         <v>10</v>
@@ -7918,10 +7467,10 @@
       <c r="K88" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="M88" s="13">
+      <c r="L88" s="17">
+        <v>90805</v>
+      </c>
+      <c r="M88" s="15">
         <v>2862</v>
       </c>
       <c r="N88" s="12">
@@ -7942,7 +7491,7 @@
     </row>
     <row r="89" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>776</v>
+        <v>623</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>241</v>
@@ -7951,9 +7500,9 @@
         <v>87</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E89" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E89" s="13"/>
       <c r="F89" s="1"/>
       <c r="G89" s="9">
         <v>15</v>
@@ -7970,10 +7519,10 @@
       <c r="K89" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="M89" s="13">
+      <c r="L89" s="17">
+        <v>91801</v>
+      </c>
+      <c r="M89" s="15">
         <v>2862</v>
       </c>
       <c r="N89" s="12">
@@ -7994,7 +7543,7 @@
     </row>
     <row r="90" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>851</v>
+        <v>698</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>242</v>
@@ -8003,9 +7552,9 @@
         <v>88</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E90" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E90" s="13"/>
       <c r="F90" s="1"/>
       <c r="G90" s="9">
         <v>29</v>
@@ -8022,10 +7571,10 @@
       <c r="K90" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="M90" s="13">
+      <c r="L90" s="17">
+        <v>95116</v>
+      </c>
+      <c r="M90" s="15">
         <v>2858</v>
       </c>
       <c r="N90" s="12">
@@ -8046,7 +7595,7 @@
     </row>
     <row r="91" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>761</v>
+        <v>608</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>243</v>
@@ -8055,9 +7604,9 @@
         <v>89</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E91" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E91" s="13"/>
       <c r="F91" s="1"/>
       <c r="G91" s="9">
         <v>20</v>
@@ -8074,10 +7623,10 @@
       <c r="K91" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="M91" s="13">
+      <c r="L91" s="17">
+        <v>92703</v>
+      </c>
+      <c r="M91" s="15">
         <v>2858</v>
       </c>
       <c r="N91" s="12">
@@ -8098,7 +7647,7 @@
     </row>
     <row r="92" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>835</v>
+        <v>682</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>244</v>
@@ -8107,9 +7656,9 @@
         <v>90</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E92" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E92" s="13"/>
       <c r="F92" s="1"/>
       <c r="G92" s="9">
         <v>4</v>
@@ -8126,10 +7675,10 @@
       <c r="K92" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="M92" s="13">
+      <c r="L92" s="17">
+        <v>90255</v>
+      </c>
+      <c r="M92" s="15">
         <v>2858</v>
       </c>
       <c r="N92" s="12">
@@ -8150,7 +7699,7 @@
     </row>
     <row r="93" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>799</v>
+        <v>646</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>245</v>
@@ -8159,9 +7708,9 @@
         <v>91</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E93" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E93" s="13"/>
       <c r="F93" s="1"/>
       <c r="G93" s="9">
         <v>30</v>
@@ -8178,10 +7727,10 @@
       <c r="K93" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="M93" s="13">
+      <c r="L93" s="17">
+        <v>91605</v>
+      </c>
+      <c r="M93" s="15">
         <v>2862</v>
       </c>
       <c r="N93" s="12">
@@ -8202,7 +7751,7 @@
     </row>
     <row r="94" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>836</v>
+        <v>683</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>246</v>
@@ -8211,9 +7760,9 @@
         <v>92</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="E94" s="14"/>
+        <v>735</v>
+      </c>
+      <c r="E94" s="13"/>
       <c r="F94" s="1"/>
       <c r="G94" s="9">
         <v>9</v>
@@ -8230,10 +7779,10 @@
       <c r="K94" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="M94" s="13">
+      <c r="L94" s="17">
+        <v>91977</v>
+      </c>
+      <c r="M94" s="15">
         <v>2862</v>
       </c>
       <c r="N94" s="12">
@@ -8254,7 +7803,7 @@
     </row>
     <row r="95" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>735</v>
+        <v>582</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>247</v>
@@ -8263,9 +7812,9 @@
         <v>100</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E95" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E95" s="13"/>
       <c r="F95" s="1"/>
       <c r="G95" s="9">
         <v>7</v>
@@ -8282,10 +7831,10 @@
       <c r="K95" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M95" s="13">
+      <c r="L95" s="17">
+        <v>94533</v>
+      </c>
+      <c r="M95" s="15">
         <v>2858</v>
       </c>
       <c r="N95" s="12">
@@ -8306,7 +7855,7 @@
     </row>
     <row r="96" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>782</v>
+        <v>629</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>248</v>
@@ -8315,9 +7864,9 @@
         <v>101</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E96" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E96" s="13"/>
       <c r="F96" s="1"/>
       <c r="G96" s="9">
         <v>28</v>
@@ -8334,10 +7883,10 @@
       <c r="K96" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="M96" s="13">
+      <c r="L96" s="17">
+        <v>92392</v>
+      </c>
+      <c r="M96" s="15">
         <v>2862</v>
       </c>
       <c r="N96" s="12">
@@ -8358,7 +7907,7 @@
     </row>
     <row r="97" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>764</v>
+        <v>611</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>249</v>
@@ -8367,9 +7916,9 @@
         <v>102</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E97" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E97" s="13"/>
       <c r="F97" s="1"/>
       <c r="G97" s="9">
         <v>15</v>
@@ -8386,10 +7935,10 @@
       <c r="K97" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="M97" s="13">
+      <c r="L97" s="17">
+        <v>94544</v>
+      </c>
+      <c r="M97" s="15">
         <v>2862</v>
       </c>
       <c r="N97" s="12">
@@ -8410,7 +7959,7 @@
     </row>
     <row r="98" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>725</v>
+        <v>572</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>250</v>
@@ -8419,9 +7968,9 @@
         <v>103</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E98" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E98" s="13"/>
       <c r="F98" s="1"/>
       <c r="G98" s="9">
         <v>30</v>
@@ -8438,10 +7987,10 @@
       <c r="K98" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="M98" s="13">
+      <c r="L98" s="17">
+        <v>92503</v>
+      </c>
+      <c r="M98" s="15">
         <v>2862</v>
       </c>
       <c r="N98" s="12">
@@ -8462,7 +8011,7 @@
     </row>
     <row r="99" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>828</v>
+        <v>675</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>251</v>
@@ -8471,9 +8020,9 @@
         <v>104</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E99" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E99" s="13"/>
       <c r="F99" s="1"/>
       <c r="G99" s="9">
         <v>20</v>
@@ -8490,10 +8039,10 @@
       <c r="K99" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="M99" s="13">
+      <c r="L99" s="17">
+        <v>92882</v>
+      </c>
+      <c r="M99" s="15">
         <v>2862</v>
       </c>
       <c r="N99" s="12">
@@ -8514,7 +8063,7 @@
     </row>
     <row r="100" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>770</v>
+        <v>617</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>252</v>
@@ -8523,9 +8072,9 @@
         <v>105</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E100" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E100" s="13"/>
       <c r="F100" s="1"/>
       <c r="G100" s="9">
         <v>17</v>
@@ -8542,10 +8091,10 @@
       <c r="K100" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="L100" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="M100" s="13">
+      <c r="L100" s="17">
+        <v>90631</v>
+      </c>
+      <c r="M100" s="15">
         <v>2858</v>
       </c>
       <c r="N100" s="12">
@@ -8566,7 +8115,7 @@
     </row>
     <row r="101" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>732</v>
+        <v>579</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>253</v>
@@ -8575,9 +8124,9 @@
         <v>95</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E101" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E101" s="13"/>
       <c r="F101" s="1"/>
       <c r="G101" s="9">
         <v>11</v>
@@ -8594,10 +8143,10 @@
       <c r="K101" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="L101" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="M101" s="13">
+      <c r="L101" s="17">
+        <v>93722</v>
+      </c>
+      <c r="M101" s="15">
         <v>2862</v>
       </c>
       <c r="N101" s="12">
@@ -8618,7 +8167,7 @@
     </row>
     <row r="102" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>742</v>
+        <v>589</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>254</v>
@@ -8627,9 +8176,9 @@
         <v>106</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E102" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E102" s="13"/>
       <c r="F102" s="1"/>
       <c r="G102" s="9">
         <v>18</v>
@@ -8646,10 +8195,10 @@
       <c r="K102" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L102" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="M102" s="13">
+      <c r="L102" s="17">
+        <v>92630</v>
+      </c>
+      <c r="M102" s="15">
         <v>2862</v>
       </c>
       <c r="N102" s="12">
@@ -8670,7 +8219,7 @@
     </row>
     <row r="103" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>744</v>
+        <v>591</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>255</v>
@@ -8679,9 +8228,9 @@
         <v>107</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E103" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E103" s="13"/>
       <c r="F103" s="1"/>
       <c r="G103" s="9">
         <v>29</v>
@@ -8698,10 +8247,10 @@
       <c r="K103" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="M103" s="13">
+      <c r="L103" s="17">
+        <v>91331</v>
+      </c>
+      <c r="M103" s="15">
         <v>2862</v>
       </c>
       <c r="N103" s="12">
@@ -8722,7 +8271,7 @@
     </row>
     <row r="104" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>780</v>
+        <v>627</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>256</v>
@@ -8731,9 +8280,9 @@
         <v>108</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E104" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E104" s="13"/>
       <c r="F104" s="1"/>
       <c r="G104" s="9">
         <v>20</v>
@@ -8750,10 +8299,10 @@
       <c r="K104" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="L104" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="M104" s="13">
+      <c r="L104" s="17">
+        <v>91911</v>
+      </c>
+      <c r="M104" s="15">
         <v>2858</v>
       </c>
       <c r="N104" s="12">
@@ -8774,7 +8323,7 @@
     </row>
     <row r="105" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>838</v>
+        <v>685</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>257</v>
@@ -8783,9 +8332,9 @@
         <v>109</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E105" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E105" s="13"/>
       <c r="F105" s="1"/>
       <c r="G105" s="9">
         <v>19</v>
@@ -8802,10 +8351,10 @@
       <c r="K105" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="L105" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="M105" s="13">
+      <c r="L105" s="17">
+        <v>92840</v>
+      </c>
+      <c r="M105" s="15">
         <v>2858</v>
       </c>
       <c r="N105" s="12">
@@ -8826,7 +8375,7 @@
     </row>
     <row r="106" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>788</v>
+        <v>635</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>258</v>
@@ -8835,9 +8384,9 @@
         <v>110</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E106" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E106" s="13"/>
       <c r="F106" s="1"/>
       <c r="G106" s="9">
         <v>1</v>
@@ -8854,10 +8403,10 @@
       <c r="K106" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="M106" s="13">
+      <c r="L106" s="17">
+        <v>92553</v>
+      </c>
+      <c r="M106" s="15">
         <v>2862</v>
       </c>
       <c r="N106" s="12">
@@ -8878,7 +8427,7 @@
     </row>
     <row r="107" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>804</v>
+        <v>651</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>259</v>
@@ -8887,9 +8436,9 @@
         <v>111</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E107" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E107" s="13"/>
       <c r="F107" s="1"/>
       <c r="G107" s="9">
         <v>3</v>
@@ -8906,10 +8455,10 @@
       <c r="K107" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="M107" s="13">
+      <c r="L107" s="17">
+        <v>94550</v>
+      </c>
+      <c r="M107" s="15">
         <v>2858</v>
       </c>
       <c r="N107" s="12">
@@ -8930,7 +8479,7 @@
     </row>
     <row r="108" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>872</v>
+        <v>719</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>260</v>
@@ -8939,9 +8488,9 @@
         <v>112</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E108" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E108" s="13"/>
       <c r="F108" s="1"/>
       <c r="G108" s="9">
         <v>5</v>
@@ -8958,10 +8507,10 @@
       <c r="K108" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L108" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="M108" s="13">
+      <c r="L108" s="17">
+        <v>90006</v>
+      </c>
+      <c r="M108" s="15">
         <v>2862</v>
       </c>
       <c r="N108" s="12">
@@ -8982,7 +8531,7 @@
     </row>
     <row r="109" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>768</v>
+        <v>615</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>261</v>
@@ -8991,9 +8540,9 @@
         <v>113</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E109" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E109" s="13"/>
       <c r="F109" s="1"/>
       <c r="G109" s="9">
         <v>16</v>
@@ -9010,10 +8559,10 @@
       <c r="K109" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="M109" s="13">
+      <c r="L109" s="17">
+        <v>93257</v>
+      </c>
+      <c r="M109" s="15">
         <v>2862</v>
       </c>
       <c r="N109" s="12">
@@ -9034,7 +8583,7 @@
     </row>
     <row r="110" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>755</v>
+        <v>602</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>262</v>
@@ -9043,9 +8592,9 @@
         <v>114</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E110" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E110" s="13"/>
       <c r="F110" s="1"/>
       <c r="G110" s="9">
         <v>10</v>
@@ -9062,10 +8611,10 @@
       <c r="K110" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="M110" s="13">
+      <c r="L110" s="17">
+        <v>92335</v>
+      </c>
+      <c r="M110" s="15">
         <v>2862</v>
       </c>
       <c r="N110" s="12">
@@ -9086,7 +8635,7 @@
     </row>
     <row r="111" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>747</v>
+        <v>594</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>263</v>
@@ -9095,9 +8644,9 @@
         <v>115</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E111" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E111" s="13"/>
       <c r="F111" s="1"/>
       <c r="G111" s="9">
         <v>10</v>
@@ -9114,10 +8663,10 @@
       <c r="K111" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="L111" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="M111" s="13">
+      <c r="L111" s="17">
+        <v>95340</v>
+      </c>
+      <c r="M111" s="15">
         <v>2858</v>
       </c>
       <c r="N111" s="12">
@@ -9138,7 +8687,7 @@
     </row>
     <row r="112" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>860</v>
+        <v>707</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>264</v>
@@ -9147,9 +8696,9 @@
         <v>116</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E112" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E112" s="13"/>
       <c r="F112" s="1"/>
       <c r="G112" s="9">
         <v>14</v>
@@ -9166,10 +8715,10 @@
       <c r="K112" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L112" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="M112" s="13">
+      <c r="L112" s="17">
+        <v>95111</v>
+      </c>
+      <c r="M112" s="15">
         <v>2858</v>
       </c>
       <c r="N112" s="12">
@@ -9190,7 +8739,7 @@
     </row>
     <row r="113" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>743</v>
+        <v>590</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>265</v>
@@ -9199,9 +8748,9 @@
         <v>117</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E113" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E113" s="13"/>
       <c r="F113" s="1"/>
       <c r="G113" s="9">
         <v>10</v>
@@ -9218,10 +8767,10 @@
       <c r="K113" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="L113" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="M113" s="13">
+      <c r="L113" s="17">
+        <v>94087</v>
+      </c>
+      <c r="M113" s="15">
         <v>2858</v>
       </c>
       <c r="N113" s="12">
@@ -9242,7 +8791,7 @@
     </row>
     <row r="114" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>801</v>
+        <v>648</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>266</v>
@@ -9251,9 +8800,9 @@
         <v>118</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E114" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E114" s="13"/>
       <c r="F114" s="1"/>
       <c r="G114" s="9">
         <v>29</v>
@@ -9270,10 +8819,10 @@
       <c r="K114" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="L114" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="M114" s="13">
+      <c r="L114" s="17">
+        <v>92083</v>
+      </c>
+      <c r="M114" s="15">
         <v>2862</v>
       </c>
       <c r="N114" s="12">
@@ -9294,7 +8843,7 @@
     </row>
     <row r="115" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>769</v>
+        <v>616</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>267</v>
@@ -9303,9 +8852,9 @@
         <v>119</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E115" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E115" s="13"/>
       <c r="F115" s="1"/>
       <c r="G115" s="9">
         <v>5</v>
@@ -9322,10 +8871,10 @@
       <c r="K115" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="M115" s="13">
+      <c r="L115" s="17">
+        <v>90066</v>
+      </c>
+      <c r="M115" s="15">
         <v>2862</v>
       </c>
       <c r="N115" s="12">
@@ -9346,7 +8895,7 @@
     </row>
     <row r="116" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>853</v>
+        <v>700</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>268</v>
@@ -9355,9 +8904,9 @@
         <v>120</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E116" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E116" s="13"/>
       <c r="F116" s="1"/>
       <c r="G116" s="9">
         <v>21</v>
@@ -9374,10 +8923,10 @@
       <c r="K116" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L116" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M116" s="13">
+      <c r="L116" s="17">
+        <v>90034</v>
+      </c>
+      <c r="M116" s="15">
         <v>2862</v>
       </c>
       <c r="N116" s="12">
@@ -9398,7 +8947,7 @@
     </row>
     <row r="117" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>773</v>
+        <v>620</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>269</v>
@@ -9407,9 +8956,9 @@
         <v>121</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E117" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E117" s="13"/>
       <c r="F117" s="1"/>
       <c r="G117" s="9">
         <v>26</v>
@@ -9426,10 +8975,10 @@
       <c r="K117" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="M117" s="13">
+      <c r="L117" s="17">
+        <v>91702</v>
+      </c>
+      <c r="M117" s="15">
         <v>2862</v>
       </c>
       <c r="N117" s="12">
@@ -9450,7 +8999,7 @@
     </row>
     <row r="118" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>856</v>
+        <v>703</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>270</v>
@@ -9459,9 +9008,9 @@
         <v>122</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E118" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E118" s="13"/>
       <c r="F118" s="1"/>
       <c r="G118" s="9">
         <v>6</v>
@@ -9478,10 +9027,10 @@
       <c r="K118" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="M118" s="13">
+      <c r="L118" s="17">
+        <v>95687</v>
+      </c>
+      <c r="M118" s="15">
         <v>2862</v>
       </c>
       <c r="N118" s="12">
@@ -9502,7 +9051,7 @@
     </row>
     <row r="119" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>763</v>
+        <v>610</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>271</v>
@@ -9511,9 +9060,9 @@
         <v>123</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E119" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E119" s="13"/>
       <c r="F119" s="1"/>
       <c r="G119" s="9">
         <v>16</v>
@@ -9530,10 +9079,10 @@
       <c r="K119" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="L119" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="M119" s="13">
+      <c r="L119" s="17">
+        <v>92683</v>
+      </c>
+      <c r="M119" s="15">
         <v>2858</v>
       </c>
       <c r="N119" s="12">
@@ -9554,7 +9103,7 @@
     </row>
     <row r="120" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>774</v>
+        <v>621</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>272</v>
@@ -9563,9 +9112,9 @@
         <v>124</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E120" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E120" s="13"/>
       <c r="F120" s="1"/>
       <c r="G120" s="9">
         <v>16</v>
@@ -9582,10 +9131,10 @@
       <c r="K120" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="L120" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="M120" s="13">
+      <c r="L120" s="17">
+        <v>92114</v>
+      </c>
+      <c r="M120" s="15">
         <v>2858</v>
       </c>
       <c r="N120" s="12">
@@ -9606,7 +9155,7 @@
     </row>
     <row r="121" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>721</v>
+        <v>568</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>273</v>
@@ -9615,9 +9164,9 @@
         <v>98</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E121" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E121" s="13"/>
       <c r="F121" s="1"/>
       <c r="G121" s="9">
         <v>28</v>
@@ -9634,10 +9183,10 @@
       <c r="K121" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="L121" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="M121" s="13">
+      <c r="L121" s="17">
+        <v>91351</v>
+      </c>
+      <c r="M121" s="15">
         <v>2862</v>
       </c>
       <c r="N121" s="12">
@@ -9658,7 +9207,7 @@
     </row>
     <row r="122" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>723</v>
+        <v>570</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>274</v>
@@ -9667,9 +9216,9 @@
         <v>125</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E122" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E122" s="13"/>
       <c r="F122" s="1"/>
       <c r="G122" s="9">
         <v>22</v>
@@ -9686,10 +9235,10 @@
       <c r="K122" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="L122" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="M122" s="13">
+      <c r="L122" s="17">
+        <v>91709</v>
+      </c>
+      <c r="M122" s="15">
         <v>2862</v>
       </c>
       <c r="N122" s="12">
@@ -9710,7 +9259,7 @@
     </row>
     <row r="123" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>760</v>
+        <v>607</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>275</v>
@@ -9719,9 +9268,9 @@
         <v>126</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E123" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E123" s="13"/>
       <c r="F123" s="1"/>
       <c r="G123" s="9">
         <v>18</v>
@@ -9738,10 +9287,10 @@
       <c r="K123" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="L123" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="M123" s="13">
+      <c r="L123" s="17">
+        <v>95051</v>
+      </c>
+      <c r="M123" s="15">
         <v>2858</v>
       </c>
       <c r="N123" s="12">
@@ -9762,7 +9311,7 @@
     </row>
     <row r="124" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>854</v>
+        <v>701</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>276</v>
@@ -9771,9 +9320,9 @@
         <v>127</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E124" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E124" s="13"/>
       <c r="F124" s="1"/>
       <c r="G124" s="9">
         <v>5</v>
@@ -9790,10 +9339,10 @@
       <c r="K124" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="L124" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="M124" s="13">
+      <c r="L124" s="17">
+        <v>92677</v>
+      </c>
+      <c r="M124" s="15">
         <v>2858</v>
       </c>
       <c r="N124" s="12">
@@ -9814,7 +9363,7 @@
     </row>
     <row r="125" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>840</v>
+        <v>687</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>277</v>
@@ -9823,9 +9372,9 @@
         <v>128</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E125" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E125" s="13"/>
       <c r="F125" s="1"/>
       <c r="G125" s="9">
         <v>9</v>
@@ -9842,10 +9391,10 @@
       <c r="K125" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="L125" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="M125" s="13">
+      <c r="L125" s="17">
+        <v>91342</v>
+      </c>
+      <c r="M125" s="15">
         <v>2858</v>
       </c>
       <c r="N125" s="12">
@@ -9866,7 +9415,7 @@
     </row>
     <row r="126" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>745</v>
+        <v>592</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>278</v>
@@ -9875,9 +9424,9 @@
         <v>129</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E126" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E126" s="13"/>
       <c r="F126" s="1"/>
       <c r="G126" s="9">
         <v>12</v>
@@ -9894,10 +9443,10 @@
       <c r="K126" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L126" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="M126" s="13">
+      <c r="L126" s="17">
+        <v>90640</v>
+      </c>
+      <c r="M126" s="15">
         <v>2858</v>
       </c>
       <c r="N126" s="12">
@@ -9918,7 +9467,7 @@
     </row>
     <row r="127" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>823</v>
+        <v>670</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>279</v>
@@ -9927,9 +9476,9 @@
         <v>130</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E127" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E127" s="13"/>
       <c r="F127" s="1"/>
       <c r="G127" s="9">
         <v>30</v>
@@ -9946,10 +9495,10 @@
       <c r="K127" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="L127" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="M127" s="13">
+      <c r="L127" s="17">
+        <v>95076</v>
+      </c>
+      <c r="M127" s="15">
         <v>2858</v>
       </c>
       <c r="N127" s="12">
@@ -9970,7 +9519,7 @@
     </row>
     <row r="128" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>792</v>
+        <v>639</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>280</v>
@@ -9979,9 +9528,9 @@
         <v>131</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E128" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E128" s="13"/>
       <c r="F128" s="1"/>
       <c r="G128" s="9">
         <v>6</v>
@@ -9998,10 +9547,10 @@
       <c r="K128" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="L128" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="M128" s="13">
+      <c r="L128" s="17">
+        <v>91706</v>
+      </c>
+      <c r="M128" s="15">
         <v>2862</v>
       </c>
       <c r="N128" s="12">
@@ -10022,7 +9571,7 @@
     </row>
     <row r="129" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>778</v>
+        <v>625</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>281</v>
@@ -10031,9 +9580,9 @@
         <v>132</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E129" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E129" s="13"/>
       <c r="F129" s="1"/>
       <c r="G129" s="9">
         <v>26</v>
@@ -10050,10 +9599,10 @@
       <c r="K129" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="L129" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="M129" s="13">
+      <c r="L129" s="17">
+        <v>95112</v>
+      </c>
+      <c r="M129" s="15">
         <v>2858</v>
       </c>
       <c r="N129" s="12">
@@ -10074,7 +9623,7 @@
     </row>
     <row r="130" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>790</v>
+        <v>637</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>282</v>
@@ -10083,9 +9632,9 @@
         <v>133</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E130" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E130" s="13"/>
       <c r="F130" s="1"/>
       <c r="G130" s="9">
         <v>29</v>
@@ -10102,10 +9651,10 @@
       <c r="K130" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="L130" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="M130" s="13">
+      <c r="L130" s="17">
+        <v>93906</v>
+      </c>
+      <c r="M130" s="15">
         <v>2858</v>
       </c>
       <c r="N130" s="12">
@@ -10126,7 +9675,7 @@
     </row>
     <row r="131" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>847</v>
+        <v>694</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>283</v>
@@ -10135,9 +9684,9 @@
         <v>134</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E131" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E131" s="13"/>
       <c r="F131" s="1"/>
       <c r="G131" s="9">
         <v>4</v>
@@ -10154,10 +9703,10 @@
       <c r="K131" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="L131" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="M131" s="13">
+      <c r="L131" s="17">
+        <v>90660</v>
+      </c>
+      <c r="M131" s="15">
         <v>2858</v>
       </c>
       <c r="N131" s="12">
@@ -10178,7 +9727,7 @@
     </row>
     <row r="132" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>852</v>
+        <v>699</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>284</v>
@@ -10187,9 +9736,9 @@
         <v>135</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E132" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E132" s="13"/>
       <c r="F132" s="1"/>
       <c r="G132" s="9">
         <v>11</v>
@@ -10206,10 +9755,10 @@
       <c r="K132" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="L132" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="M132" s="13">
+      <c r="L132" s="17">
+        <v>94080</v>
+      </c>
+      <c r="M132" s="15">
         <v>2858</v>
       </c>
       <c r="N132" s="12">
@@ -10230,7 +9779,7 @@
     </row>
     <row r="133" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>753</v>
+        <v>600</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>285</v>
@@ -10239,9 +9788,9 @@
         <v>136</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E133" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E133" s="13"/>
       <c r="F133" s="1"/>
       <c r="G133" s="9">
         <v>12</v>
@@ -10258,10 +9807,10 @@
       <c r="K133" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M133" s="13">
+      <c r="L133" s="17">
+        <v>90004</v>
+      </c>
+      <c r="M133" s="15">
         <v>2862</v>
       </c>
       <c r="N133" s="12">
@@ -10282,7 +9831,7 @@
     </row>
     <row r="134" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>820</v>
+        <v>667</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>286</v>
@@ -10291,9 +9840,9 @@
         <v>137</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E134" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E134" s="13"/>
       <c r="F134" s="1"/>
       <c r="G134" s="9">
         <v>6</v>
@@ -10310,10 +9859,10 @@
       <c r="K134" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="L134" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="M134" s="13">
+      <c r="L134" s="17">
+        <v>92020</v>
+      </c>
+      <c r="M134" s="15">
         <v>2858</v>
       </c>
       <c r="N134" s="12">
@@ -10334,7 +9883,7 @@
     </row>
     <row r="135" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>738</v>
+        <v>585</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>287</v>
@@ -10343,9 +9892,9 @@
         <v>138</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E135" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E135" s="13"/>
       <c r="F135" s="1"/>
       <c r="G135" s="9">
         <v>24</v>
@@ -10362,10 +9911,10 @@
       <c r="K135" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="M135" s="13">
+      <c r="L135" s="17">
+        <v>93550</v>
+      </c>
+      <c r="M135" s="15">
         <v>2862</v>
       </c>
       <c r="N135" s="12">
@@ -10386,7 +9935,7 @@
     </row>
     <row r="136" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>833</v>
+        <v>680</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>288</v>
@@ -10395,9 +9944,9 @@
         <v>139</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E136" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E136" s="13"/>
       <c r="F136" s="1"/>
       <c r="G136" s="9">
         <v>13</v>
@@ -10414,10 +9963,10 @@
       <c r="K136" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L136" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="M136" s="13">
+      <c r="L136" s="17">
+        <v>92627</v>
+      </c>
+      <c r="M136" s="15">
         <v>2858</v>
       </c>
       <c r="N136" s="12">
@@ -10438,7 +9987,7 @@
     </row>
     <row r="137" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>730</v>
+        <v>577</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>289</v>
@@ -10447,9 +9996,9 @@
         <v>140</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E137" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E137" s="13"/>
       <c r="F137" s="1"/>
       <c r="G137" s="9">
         <v>29</v>
@@ -10466,10 +10015,10 @@
       <c r="K137" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L137" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="M137" s="13">
+      <c r="L137" s="17">
+        <v>90745</v>
+      </c>
+      <c r="M137" s="15">
         <v>2862</v>
       </c>
       <c r="N137" s="12">
@@ -10490,7 +10039,7 @@
     </row>
     <row r="138" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>767</v>
+        <v>614</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>290</v>
@@ -10499,9 +10048,9 @@
         <v>141</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E138" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E138" s="13"/>
       <c r="F138" s="1"/>
       <c r="G138" s="9">
         <v>14</v>
@@ -10518,10 +10067,10 @@
       <c r="K138" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="L138" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="M138" s="13">
+      <c r="L138" s="17">
+        <v>93065</v>
+      </c>
+      <c r="M138" s="15">
         <v>2858</v>
       </c>
       <c r="N138" s="12">
@@ -10542,7 +10091,7 @@
     </row>
     <row r="139" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>813</v>
+        <v>660</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>291</v>
@@ -10551,9 +10100,9 @@
         <v>142</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E139" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E139" s="13"/>
       <c r="F139" s="1"/>
       <c r="G139" s="9">
         <v>12</v>
@@ -10570,10 +10119,10 @@
       <c r="K139" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="L139" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="M139" s="13">
+      <c r="L139" s="18">
+        <v>90019</v>
+      </c>
+      <c r="M139" s="15">
         <v>2862</v>
       </c>
       <c r="N139" s="12">
@@ -10594,7 +10143,7 @@
     </row>
     <row r="140" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>784</v>
+        <v>631</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>292</v>
@@ -10603,9 +10152,9 @@
         <v>143</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E140" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E140" s="13"/>
       <c r="F140" s="1"/>
       <c r="G140" s="9">
         <v>6</v>
@@ -10622,10 +10171,10 @@
       <c r="K140" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L140" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="M140" s="13">
+      <c r="L140" s="18">
+        <v>92509</v>
+      </c>
+      <c r="M140" s="15">
         <v>2862</v>
       </c>
       <c r="N140" s="12">
@@ -10646,7 +10195,7 @@
     </row>
     <row r="141" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>859</v>
+        <v>706</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>293</v>
@@ -10655,9 +10204,9 @@
         <v>144</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E141" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E141" s="13"/>
       <c r="F141" s="1"/>
       <c r="G141" s="9">
         <v>9</v>
@@ -10674,10 +10223,10 @@
       <c r="K141" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="L141" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="M141" s="13">
+      <c r="L141" s="18">
+        <v>91343</v>
+      </c>
+      <c r="M141" s="15">
         <v>2862</v>
       </c>
       <c r="N141" s="12">
@@ -10698,7 +10247,7 @@
     </row>
     <row r="142" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>815</v>
+        <v>662</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>294</v>
@@ -10707,9 +10256,9 @@
         <v>145</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E142" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E142" s="13"/>
       <c r="F142" s="1"/>
       <c r="G142" s="9">
         <v>21</v>
@@ -10726,10 +10275,10 @@
       <c r="K142" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="L142" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="M142" s="13">
+      <c r="L142" s="17">
+        <v>92801</v>
+      </c>
+      <c r="M142" s="15">
         <v>2862</v>
       </c>
       <c r="N142" s="12">
@@ -10750,7 +10299,7 @@
     </row>
     <row r="143" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>841</v>
+        <v>688</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>295</v>
@@ -10759,9 +10308,9 @@
         <v>94</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E143" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E143" s="13"/>
       <c r="F143" s="1"/>
       <c r="G143" s="9">
         <v>20</v>
@@ -10778,10 +10327,10 @@
       <c r="K143" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="L143" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="M143" s="13">
+      <c r="L143" s="18">
+        <v>92707</v>
+      </c>
+      <c r="M143" s="15">
         <v>2858</v>
       </c>
       <c r="N143" s="12">
@@ -10802,7 +10351,7 @@
     </row>
     <row r="144" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>849</v>
+        <v>696</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>296</v>
@@ -10811,9 +10360,9 @@
         <v>146</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E144" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E144" s="13"/>
       <c r="F144" s="1"/>
       <c r="G144" s="9">
         <v>5</v>
@@ -10830,10 +10379,10 @@
       <c r="K144" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="L144" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="M144" s="13">
+      <c r="L144" s="17">
+        <v>91950</v>
+      </c>
+      <c r="M144" s="15">
         <v>2858</v>
       </c>
       <c r="N144" s="12">
@@ -10854,7 +10403,7 @@
     </row>
     <row r="145" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>845</v>
+        <v>692</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>297</v>
@@ -10863,9 +10412,9 @@
         <v>147</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E145" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E145" s="13"/>
       <c r="F145" s="1"/>
       <c r="G145" s="9">
         <v>1</v>
@@ -10882,10 +10431,10 @@
       <c r="K145" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L145" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="M145" s="13">
+      <c r="L145" s="17">
+        <v>94601</v>
+      </c>
+      <c r="M145" s="15">
         <v>2862</v>
       </c>
       <c r="N145" s="12">
@@ -10906,7 +10455,7 @@
     </row>
     <row r="146" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>825</v>
+        <v>672</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>298</v>
@@ -10915,9 +10464,9 @@
         <v>96</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E146" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E146" s="13"/>
       <c r="F146" s="1"/>
       <c r="G146" s="9">
         <v>7</v>
@@ -10934,10 +10483,10 @@
       <c r="K146" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="L146" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="M146" s="13">
+      <c r="L146" s="17">
+        <v>95823</v>
+      </c>
+      <c r="M146" s="15">
         <v>2862</v>
       </c>
       <c r="N146" s="12">
@@ -10958,7 +10507,7 @@
     </row>
     <row r="147" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>842</v>
+        <v>689</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>299</v>
@@ -10967,9 +10516,9 @@
         <v>148</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E147" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E147" s="13"/>
       <c r="F147" s="1"/>
       <c r="G147" s="9">
         <v>20</v>
@@ -10986,10 +10535,10 @@
       <c r="K147" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="L147" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="M147" s="13">
+      <c r="L147" s="18">
+        <v>92376</v>
+      </c>
+      <c r="M147" s="15">
         <v>2858</v>
       </c>
       <c r="N147" s="12">
@@ -11010,7 +10559,7 @@
     </row>
     <row r="148" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>871</v>
+        <v>718</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>300</v>
@@ -11019,9 +10568,9 @@
         <v>149</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E148" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E148" s="13"/>
       <c r="F148" s="1"/>
       <c r="G148" s="9">
         <v>2</v>
@@ -11038,10 +10587,10 @@
       <c r="K148" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="L148" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="M148" s="13">
+      <c r="L148" s="17">
+        <v>93030</v>
+      </c>
+      <c r="M148" s="15">
         <v>2862</v>
       </c>
       <c r="N148" s="12">
@@ -11062,7 +10611,7 @@
     </row>
     <row r="149" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>848</v>
+        <v>695</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>301</v>
@@ -11071,9 +10620,9 @@
         <v>150</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E149" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E149" s="13"/>
       <c r="F149" s="1"/>
       <c r="G149" s="9">
         <v>1</v>
@@ -11090,10 +10639,10 @@
       <c r="K149" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="L149" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="M149" s="13">
+      <c r="L149" s="17">
+        <v>95376</v>
+      </c>
+      <c r="M149" s="15">
         <v>2858</v>
       </c>
       <c r="N149" s="12">
@@ -11114,7 +10663,7 @@
     </row>
     <row r="150" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>810</v>
+        <v>657</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>302</v>
@@ -11123,9 +10672,9 @@
         <v>151</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E150" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E150" s="13"/>
       <c r="F150" s="1"/>
       <c r="G150" s="9">
         <v>19</v>
@@ -11142,10 +10691,10 @@
       <c r="K150" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L150" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="M150" s="13">
+      <c r="L150" s="17">
+        <v>94122</v>
+      </c>
+      <c r="M150" s="15">
         <v>2858</v>
       </c>
       <c r="N150" s="12">
@@ -11166,7 +10715,7 @@
     </row>
     <row r="151" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>807</v>
+        <v>654</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>303</v>
@@ -11175,9 +10724,9 @@
         <v>152</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E151" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E151" s="13"/>
       <c r="F151" s="1"/>
       <c r="G151" s="9">
         <v>16</v>
@@ -11194,10 +10743,10 @@
       <c r="K151" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="M151" s="13">
+      <c r="L151" s="17">
+        <v>92780</v>
+      </c>
+      <c r="M151" s="15">
         <v>2862</v>
       </c>
       <c r="N151" s="12">
@@ -11218,7 +10767,7 @@
     </row>
     <row r="152" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>846</v>
+        <v>693</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>304</v>
@@ -11227,9 +10776,9 @@
         <v>93</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E152" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E152" s="13"/>
       <c r="F152" s="1"/>
       <c r="G152" s="9">
         <v>25</v>
@@ -11246,10 +10795,10 @@
       <c r="K152" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="L152" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="M152" s="13">
+      <c r="L152" s="17">
+        <v>95350</v>
+      </c>
+      <c r="M152" s="15">
         <v>2858</v>
       </c>
       <c r="N152" s="12">
@@ -11270,7 +10819,7 @@
     </row>
     <row r="153" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>855</v>
+        <v>702</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>305</v>
@@ -11279,9 +10828,9 @@
         <v>153</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E153" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E153" s="13"/>
       <c r="F153" s="1"/>
       <c r="G153" s="9">
         <v>11</v>
@@ -11298,10 +10847,10 @@
       <c r="K153" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L153" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="M153" s="13">
+      <c r="L153" s="17">
+        <v>94110</v>
+      </c>
+      <c r="M153" s="15">
         <v>2858</v>
       </c>
       <c r="N153" s="12">
@@ -11322,7 +10871,7 @@
     </row>
     <row r="154" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>867</v>
+        <v>714</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>306</v>
@@ -11331,9 +10880,9 @@
         <v>99</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="E154" s="14"/>
+        <v>736</v>
+      </c>
+      <c r="E154" s="13"/>
       <c r="F154" s="1"/>
       <c r="G154" s="9">
         <v>20</v>
@@ -11350,10 +10899,10 @@
       <c r="K154" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L154" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="M154" s="13">
+      <c r="L154" s="17">
+        <v>94109</v>
+      </c>
+      <c r="M154" s="15">
         <v>2862</v>
       </c>
       <c r="N154" s="12">

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -212,12 +212,109 @@
         </r>
       </text>
     </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tổng thu nhập hàng năm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tổng số nhân viên
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chức vụ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>USER:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Doanh thu</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="745">
   <si>
     <t>Adam</t>
   </si>
@@ -2431,6 +2528,27 @@
   </si>
   <si>
     <t>demographics_Education</t>
+  </si>
+  <si>
+    <t>demographics_Income</t>
+  </si>
+  <si>
+    <t>demographics_Employees</t>
+  </si>
+  <si>
+    <t>demographics_Title</t>
+  </si>
+  <si>
+    <t>demographics_Computers</t>
+  </si>
+  <si>
+    <t>demographics_Revenue</t>
+  </si>
+  <si>
+    <t>demographics_Industry</t>
+  </si>
+  <si>
+    <t>demographics_Occupation</t>
   </si>
 </sst>
 </file>
@@ -2878,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:Y154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H139" workbookViewId="0">
-      <selection activeCell="Q148" sqref="Q148"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,10 +3020,17 @@
     <col min="16" max="16" width="18.5703125" style="7" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" style="7" customWidth="1"/>
     <col min="18" max="18" width="22.7109375" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="7"/>
+    <col min="19" max="19" width="17.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7"/>
+    <col min="21" max="21" width="20.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="7" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="7"/>
+    <col min="24" max="24" width="12.7109375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" style="7" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>569</v>
       </c>
@@ -2960,8 +3085,29 @@
       <c r="R1" s="14" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>669</v>
       </c>
@@ -3016,8 +3162,29 @@
       <c r="R2" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>2749</v>
+      </c>
+      <c r="T2">
+        <v>2720</v>
+      </c>
+      <c r="U2">
+        <v>2679</v>
+      </c>
+      <c r="V2">
+        <v>2809</v>
+      </c>
+      <c r="W2">
+        <v>2733</v>
+      </c>
+      <c r="X2">
+        <v>2635</v>
+      </c>
+      <c r="Y2">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
@@ -3068,8 +3235,29 @@
       <c r="R3" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>2753</v>
+      </c>
+      <c r="T3">
+        <v>2721</v>
+      </c>
+      <c r="U3">
+        <v>2675</v>
+      </c>
+      <c r="V3">
+        <v>2808</v>
+      </c>
+      <c r="W3">
+        <v>2737</v>
+      </c>
+      <c r="X3">
+        <v>2641</v>
+      </c>
+      <c r="Y3">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>618</v>
       </c>
@@ -3120,8 +3308,29 @@
       <c r="R4" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>2753</v>
+      </c>
+      <c r="T4">
+        <v>2721</v>
+      </c>
+      <c r="U4">
+        <v>2682</v>
+      </c>
+      <c r="V4">
+        <v>2809</v>
+      </c>
+      <c r="W4">
+        <v>2737</v>
+      </c>
+      <c r="X4">
+        <v>2637</v>
+      </c>
+      <c r="Y4">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>677</v>
       </c>
@@ -3172,8 +3381,29 @@
       <c r="R5" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>2754</v>
+      </c>
+      <c r="T5">
+        <v>2722</v>
+      </c>
+      <c r="U5">
+        <v>2677</v>
+      </c>
+      <c r="V5">
+        <v>2809</v>
+      </c>
+      <c r="W5">
+        <v>2731</v>
+      </c>
+      <c r="X5">
+        <v>2638</v>
+      </c>
+      <c r="Y5">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>634</v>
       </c>
@@ -3224,8 +3454,29 @@
       <c r="R6" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>2753</v>
+      </c>
+      <c r="T6">
+        <v>2721</v>
+      </c>
+      <c r="U6">
+        <v>2674</v>
+      </c>
+      <c r="V6">
+        <v>2809</v>
+      </c>
+      <c r="W6">
+        <v>2732</v>
+      </c>
+      <c r="X6">
+        <v>2633</v>
+      </c>
+      <c r="Y6">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>604</v>
       </c>
@@ -3276,8 +3527,29 @@
       <c r="R7" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>2754</v>
+      </c>
+      <c r="T7">
+        <v>2722</v>
+      </c>
+      <c r="U7">
+        <v>2675</v>
+      </c>
+      <c r="V7">
+        <v>2811</v>
+      </c>
+      <c r="W7">
+        <v>2731</v>
+      </c>
+      <c r="X7">
+        <v>2640</v>
+      </c>
+      <c r="Y7">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>596</v>
       </c>
@@ -3328,8 +3600,29 @@
       <c r="R8" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>2752</v>
+      </c>
+      <c r="T8">
+        <v>2721</v>
+      </c>
+      <c r="U8">
+        <v>2680</v>
+      </c>
+      <c r="V8">
+        <v>2810</v>
+      </c>
+      <c r="W8">
+        <v>2735</v>
+      </c>
+      <c r="X8">
+        <v>2639</v>
+      </c>
+      <c r="Y8">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>609</v>
       </c>
@@ -3380,8 +3673,29 @@
       <c r="R9" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>2752</v>
+      </c>
+      <c r="T9">
+        <v>2720</v>
+      </c>
+      <c r="U9">
+        <v>2674</v>
+      </c>
+      <c r="V9">
+        <v>2810</v>
+      </c>
+      <c r="W9">
+        <v>2736</v>
+      </c>
+      <c r="X9">
+        <v>2634</v>
+      </c>
+      <c r="Y9">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>663</v>
       </c>
@@ -3432,8 +3746,29 @@
       <c r="R10" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>2754</v>
+      </c>
+      <c r="T10">
+        <v>2720</v>
+      </c>
+      <c r="U10">
+        <v>2681</v>
+      </c>
+      <c r="V10">
+        <v>2809</v>
+      </c>
+      <c r="W10">
+        <v>2737</v>
+      </c>
+      <c r="X10">
+        <v>2639</v>
+      </c>
+      <c r="Y10">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>567</v>
       </c>
@@ -3484,8 +3819,29 @@
       <c r="R11" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>2757</v>
+      </c>
+      <c r="T11">
+        <v>2720</v>
+      </c>
+      <c r="U11">
+        <v>2676</v>
+      </c>
+      <c r="V11">
+        <v>2809</v>
+      </c>
+      <c r="W11">
+        <v>2731</v>
+      </c>
+      <c r="X11">
+        <v>2638</v>
+      </c>
+      <c r="Y11">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>717</v>
       </c>
@@ -3536,8 +3892,29 @@
       <c r="R12" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>2756</v>
+      </c>
+      <c r="T12">
+        <v>2719</v>
+      </c>
+      <c r="U12">
+        <v>2682</v>
+      </c>
+      <c r="V12">
+        <v>2809</v>
+      </c>
+      <c r="W12">
+        <v>2730</v>
+      </c>
+      <c r="X12">
+        <v>2634</v>
+      </c>
+      <c r="Y12">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>661</v>
       </c>
@@ -3588,8 +3965,29 @@
       <c r="R13" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>2751</v>
+      </c>
+      <c r="T13">
+        <v>2721</v>
+      </c>
+      <c r="U13">
+        <v>2678</v>
+      </c>
+      <c r="V13">
+        <v>2809</v>
+      </c>
+      <c r="W13">
+        <v>2732</v>
+      </c>
+      <c r="X13">
+        <v>2641</v>
+      </c>
+      <c r="Y13">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>599</v>
       </c>
@@ -3640,8 +4038,29 @@
       <c r="R14" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>2755</v>
+      </c>
+      <c r="T14">
+        <v>2720</v>
+      </c>
+      <c r="U14">
+        <v>2675</v>
+      </c>
+      <c r="V14">
+        <v>2811</v>
+      </c>
+      <c r="W14">
+        <v>2733</v>
+      </c>
+      <c r="X14">
+        <v>2640</v>
+      </c>
+      <c r="Y14">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>586</v>
       </c>
@@ -3692,8 +4111,29 @@
       <c r="R15" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>2757</v>
+      </c>
+      <c r="T15">
+        <v>2720</v>
+      </c>
+      <c r="U15">
+        <v>2674</v>
+      </c>
+      <c r="V15">
+        <v>2809</v>
+      </c>
+      <c r="W15">
+        <v>2733</v>
+      </c>
+      <c r="X15">
+        <v>2635</v>
+      </c>
+      <c r="Y15">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>606</v>
       </c>
@@ -3744,8 +4184,29 @@
       <c r="R16" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>2749</v>
+      </c>
+      <c r="T16">
+        <v>2720</v>
+      </c>
+      <c r="U16">
+        <v>2675</v>
+      </c>
+      <c r="V16">
+        <v>2810</v>
+      </c>
+      <c r="W16">
+        <v>2737</v>
+      </c>
+      <c r="X16">
+        <v>2636</v>
+      </c>
+      <c r="Y16">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>587</v>
       </c>
@@ -3796,8 +4257,29 @@
       <c r="R17" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>2757</v>
+      </c>
+      <c r="T17">
+        <v>2722</v>
+      </c>
+      <c r="U17">
+        <v>2680</v>
+      </c>
+      <c r="V17">
+        <v>2808</v>
+      </c>
+      <c r="W17">
+        <v>2736</v>
+      </c>
+      <c r="X17">
+        <v>2639</v>
+      </c>
+      <c r="Y17">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>628</v>
       </c>
@@ -3848,8 +4330,29 @@
       <c r="R18" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <v>2753</v>
+      </c>
+      <c r="T18">
+        <v>2719</v>
+      </c>
+      <c r="U18">
+        <v>2675</v>
+      </c>
+      <c r="V18">
+        <v>2808</v>
+      </c>
+      <c r="W18">
+        <v>2736</v>
+      </c>
+      <c r="X18">
+        <v>2633</v>
+      </c>
+      <c r="Y18">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>583</v>
       </c>
@@ -3900,8 +4403,29 @@
       <c r="R19" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <v>2753</v>
+      </c>
+      <c r="T19">
+        <v>2721</v>
+      </c>
+      <c r="U19">
+        <v>2678</v>
+      </c>
+      <c r="V19">
+        <v>2810</v>
+      </c>
+      <c r="W19">
+        <v>2736</v>
+      </c>
+      <c r="X19">
+        <v>2640</v>
+      </c>
+      <c r="Y19">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>713</v>
       </c>
@@ -3952,8 +4476,29 @@
       <c r="R20" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>2754</v>
+      </c>
+      <c r="T20">
+        <v>2719</v>
+      </c>
+      <c r="U20">
+        <v>2678</v>
+      </c>
+      <c r="V20">
+        <v>2810</v>
+      </c>
+      <c r="W20">
+        <v>2730</v>
+      </c>
+      <c r="X20">
+        <v>2635</v>
+      </c>
+      <c r="Y20">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>659</v>
       </c>
@@ -4004,8 +4549,29 @@
       <c r="R21" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>2751</v>
+      </c>
+      <c r="T21">
+        <v>2719</v>
+      </c>
+      <c r="U21">
+        <v>2677</v>
+      </c>
+      <c r="V21">
+        <v>2808</v>
+      </c>
+      <c r="W21">
+        <v>2736</v>
+      </c>
+      <c r="X21">
+        <v>2636</v>
+      </c>
+      <c r="Y21">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>708</v>
       </c>
@@ -4056,8 +4622,29 @@
       <c r="R22" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>2756</v>
+      </c>
+      <c r="T22">
+        <v>2722</v>
+      </c>
+      <c r="U22">
+        <v>2681</v>
+      </c>
+      <c r="V22">
+        <v>2811</v>
+      </c>
+      <c r="W22">
+        <v>2735</v>
+      </c>
+      <c r="X22">
+        <v>2637</v>
+      </c>
+      <c r="Y22">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>622</v>
       </c>
@@ -4108,8 +4695,29 @@
       <c r="R23" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>2755</v>
+      </c>
+      <c r="T23">
+        <v>2719</v>
+      </c>
+      <c r="U23">
+        <v>2682</v>
+      </c>
+      <c r="V23">
+        <v>2810</v>
+      </c>
+      <c r="W23">
+        <v>2731</v>
+      </c>
+      <c r="X23">
+        <v>2636</v>
+      </c>
+      <c r="Y23">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>593</v>
       </c>
@@ -4160,8 +4768,29 @@
       <c r="R24" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <v>2757</v>
+      </c>
+      <c r="T24">
+        <v>2721</v>
+      </c>
+      <c r="U24">
+        <v>2676</v>
+      </c>
+      <c r="V24">
+        <v>2808</v>
+      </c>
+      <c r="W24">
+        <v>2736</v>
+      </c>
+      <c r="X24">
+        <v>2637</v>
+      </c>
+      <c r="Y24">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>649</v>
       </c>
@@ -4212,8 +4841,29 @@
       <c r="R25" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <v>2754</v>
+      </c>
+      <c r="T25">
+        <v>2720</v>
+      </c>
+      <c r="U25">
+        <v>2675</v>
+      </c>
+      <c r="V25">
+        <v>2808</v>
+      </c>
+      <c r="W25">
+        <v>2734</v>
+      </c>
+      <c r="X25">
+        <v>2638</v>
+      </c>
+      <c r="Y25">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>709</v>
       </c>
@@ -4264,8 +4914,29 @@
       <c r="R26" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <v>2755</v>
+      </c>
+      <c r="T26">
+        <v>2720</v>
+      </c>
+      <c r="U26">
+        <v>2681</v>
+      </c>
+      <c r="V26">
+        <v>2811</v>
+      </c>
+      <c r="W26">
+        <v>2737</v>
+      </c>
+      <c r="X26">
+        <v>2635</v>
+      </c>
+      <c r="Y26">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>619</v>
       </c>
@@ -4316,8 +4987,29 @@
       <c r="R27" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <v>2750</v>
+      </c>
+      <c r="T27">
+        <v>2722</v>
+      </c>
+      <c r="U27">
+        <v>2676</v>
+      </c>
+      <c r="V27">
+        <v>2810</v>
+      </c>
+      <c r="W27">
+        <v>2730</v>
+      </c>
+      <c r="X27">
+        <v>2640</v>
+      </c>
+      <c r="Y27">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>673</v>
       </c>
@@ -4368,8 +5060,29 @@
       <c r="R28" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>2751</v>
+      </c>
+      <c r="T28">
+        <v>2721</v>
+      </c>
+      <c r="U28">
+        <v>2678</v>
+      </c>
+      <c r="V28">
+        <v>2808</v>
+      </c>
+      <c r="W28">
+        <v>2732</v>
+      </c>
+      <c r="X28">
+        <v>2640</v>
+      </c>
+      <c r="Y28">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>665</v>
       </c>
@@ -4420,8 +5133,29 @@
       <c r="R29" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <v>2752</v>
+      </c>
+      <c r="T29">
+        <v>2719</v>
+      </c>
+      <c r="U29">
+        <v>2678</v>
+      </c>
+      <c r="V29">
+        <v>2808</v>
+      </c>
+      <c r="W29">
+        <v>2731</v>
+      </c>
+      <c r="X29">
+        <v>2634</v>
+      </c>
+      <c r="Y29">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>650</v>
       </c>
@@ -4472,8 +5206,29 @@
       <c r="R30" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <v>2756</v>
+      </c>
+      <c r="T30">
+        <v>2721</v>
+      </c>
+      <c r="U30">
+        <v>2680</v>
+      </c>
+      <c r="V30">
+        <v>2810</v>
+      </c>
+      <c r="W30">
+        <v>2730</v>
+      </c>
+      <c r="X30">
+        <v>2636</v>
+      </c>
+      <c r="Y30">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>574</v>
       </c>
@@ -4524,8 +5279,29 @@
       <c r="R31" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <v>2750</v>
+      </c>
+      <c r="T31">
+        <v>2720</v>
+      </c>
+      <c r="U31">
+        <v>2680</v>
+      </c>
+      <c r="V31">
+        <v>2811</v>
+      </c>
+      <c r="W31">
+        <v>2735</v>
+      </c>
+      <c r="X31">
+        <v>2635</v>
+      </c>
+      <c r="Y31">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>584</v>
       </c>
@@ -4576,8 +5352,29 @@
       <c r="R32" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <v>2754</v>
+      </c>
+      <c r="T32">
+        <v>2719</v>
+      </c>
+      <c r="U32">
+        <v>2681</v>
+      </c>
+      <c r="V32">
+        <v>2808</v>
+      </c>
+      <c r="W32">
+        <v>2735</v>
+      </c>
+      <c r="X32">
+        <v>2636</v>
+      </c>
+      <c r="Y32">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>715</v>
       </c>
@@ -4628,8 +5425,29 @@
       <c r="R33" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>2751</v>
+      </c>
+      <c r="T33">
+        <v>2720</v>
+      </c>
+      <c r="U33">
+        <v>2674</v>
+      </c>
+      <c r="V33">
+        <v>2809</v>
+      </c>
+      <c r="W33">
+        <v>2732</v>
+      </c>
+      <c r="X33">
+        <v>2637</v>
+      </c>
+      <c r="Y33">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>720</v>
       </c>
@@ -4680,8 +5498,29 @@
       <c r="R34" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <v>2752</v>
+      </c>
+      <c r="T34">
+        <v>2719</v>
+      </c>
+      <c r="U34">
+        <v>2676</v>
+      </c>
+      <c r="V34">
+        <v>2810</v>
+      </c>
+      <c r="W34">
+        <v>2732</v>
+      </c>
+      <c r="X34">
+        <v>2641</v>
+      </c>
+      <c r="Y34">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>644</v>
       </c>
@@ -4732,8 +5571,29 @@
       <c r="R35" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <v>2750</v>
+      </c>
+      <c r="T35">
+        <v>2722</v>
+      </c>
+      <c r="U35">
+        <v>2674</v>
+      </c>
+      <c r="V35">
+        <v>2811</v>
+      </c>
+      <c r="W35">
+        <v>2734</v>
+      </c>
+      <c r="X35">
+        <v>2634</v>
+      </c>
+      <c r="Y35">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>598</v>
       </c>
@@ -4784,8 +5644,29 @@
       <c r="R36" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <v>2756</v>
+      </c>
+      <c r="T36">
+        <v>2720</v>
+      </c>
+      <c r="U36">
+        <v>2680</v>
+      </c>
+      <c r="V36">
+        <v>2810</v>
+      </c>
+      <c r="W36">
+        <v>2732</v>
+      </c>
+      <c r="X36">
+        <v>2637</v>
+      </c>
+      <c r="Y36">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>678</v>
       </c>
@@ -4836,8 +5717,29 @@
       <c r="R37" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <v>2752</v>
+      </c>
+      <c r="T37">
+        <v>2721</v>
+      </c>
+      <c r="U37">
+        <v>2677</v>
+      </c>
+      <c r="V37">
+        <v>2811</v>
+      </c>
+      <c r="W37">
+        <v>2731</v>
+      </c>
+      <c r="X37">
+        <v>2638</v>
+      </c>
+      <c r="Y37">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>711</v>
       </c>
@@ -4888,8 +5790,29 @@
       <c r="R38" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <v>2754</v>
+      </c>
+      <c r="T38">
+        <v>2719</v>
+      </c>
+      <c r="U38">
+        <v>2680</v>
+      </c>
+      <c r="V38">
+        <v>2808</v>
+      </c>
+      <c r="W38">
+        <v>2736</v>
+      </c>
+      <c r="X38">
+        <v>2636</v>
+      </c>
+      <c r="Y38">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>668</v>
       </c>
@@ -4940,8 +5863,29 @@
       <c r="R39" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <v>2750</v>
+      </c>
+      <c r="T39">
+        <v>2719</v>
+      </c>
+      <c r="U39">
+        <v>2676</v>
+      </c>
+      <c r="V39">
+        <v>2811</v>
+      </c>
+      <c r="W39">
+        <v>2736</v>
+      </c>
+      <c r="X39">
+        <v>2640</v>
+      </c>
+      <c r="Y39">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>647</v>
       </c>
@@ -4992,8 +5936,29 @@
       <c r="R40" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <v>2754</v>
+      </c>
+      <c r="T40">
+        <v>2721</v>
+      </c>
+      <c r="U40">
+        <v>2676</v>
+      </c>
+      <c r="V40">
+        <v>2810</v>
+      </c>
+      <c r="W40">
+        <v>2732</v>
+      </c>
+      <c r="X40">
+        <v>2642</v>
+      </c>
+      <c r="Y40">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>645</v>
       </c>
@@ -5044,8 +6009,29 @@
       <c r="R41" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <v>2749</v>
+      </c>
+      <c r="T41">
+        <v>2722</v>
+      </c>
+      <c r="U41">
+        <v>2677</v>
+      </c>
+      <c r="V41">
+        <v>2809</v>
+      </c>
+      <c r="W41">
+        <v>2735</v>
+      </c>
+      <c r="X41">
+        <v>2638</v>
+      </c>
+      <c r="Y41">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>612</v>
       </c>
@@ -5096,8 +6082,29 @@
       <c r="R42" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>2753</v>
+      </c>
+      <c r="T42">
+        <v>2720</v>
+      </c>
+      <c r="U42">
+        <v>2677</v>
+      </c>
+      <c r="V42">
+        <v>2811</v>
+      </c>
+      <c r="W42">
+        <v>2731</v>
+      </c>
+      <c r="X42">
+        <v>2636</v>
+      </c>
+      <c r="Y42">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>624</v>
       </c>
@@ -5148,8 +6155,29 @@
       <c r="R43" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <v>2754</v>
+      </c>
+      <c r="T43">
+        <v>2722</v>
+      </c>
+      <c r="U43">
+        <v>2674</v>
+      </c>
+      <c r="V43">
+        <v>2810</v>
+      </c>
+      <c r="W43">
+        <v>2731</v>
+      </c>
+      <c r="X43">
+        <v>2637</v>
+      </c>
+      <c r="Y43">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>638</v>
       </c>
@@ -5200,8 +6228,29 @@
       <c r="R44" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <v>2749</v>
+      </c>
+      <c r="T44">
+        <v>2719</v>
+      </c>
+      <c r="U44">
+        <v>2681</v>
+      </c>
+      <c r="V44">
+        <v>2811</v>
+      </c>
+      <c r="W44">
+        <v>2733</v>
+      </c>
+      <c r="X44">
+        <v>2636</v>
+      </c>
+      <c r="Y44">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>712</v>
       </c>
@@ -5252,8 +6301,29 @@
       <c r="R45" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>2755</v>
+      </c>
+      <c r="T45">
+        <v>2720</v>
+      </c>
+      <c r="U45">
+        <v>2677</v>
+      </c>
+      <c r="V45">
+        <v>2810</v>
+      </c>
+      <c r="W45">
+        <v>2733</v>
+      </c>
+      <c r="X45">
+        <v>2634</v>
+      </c>
+      <c r="Y45">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>632</v>
       </c>
@@ -5304,8 +6374,29 @@
       <c r="R46" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>2757</v>
+      </c>
+      <c r="T46">
+        <v>2721</v>
+      </c>
+      <c r="U46">
+        <v>2675</v>
+      </c>
+      <c r="V46">
+        <v>2808</v>
+      </c>
+      <c r="W46">
+        <v>2737</v>
+      </c>
+      <c r="X46">
+        <v>2637</v>
+      </c>
+      <c r="Y46">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>710</v>
       </c>
@@ -5356,8 +6447,29 @@
       <c r="R47" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>2751</v>
+      </c>
+      <c r="T47">
+        <v>2719</v>
+      </c>
+      <c r="U47">
+        <v>2675</v>
+      </c>
+      <c r="V47">
+        <v>2811</v>
+      </c>
+      <c r="W47">
+        <v>2730</v>
+      </c>
+      <c r="X47">
+        <v>2637</v>
+      </c>
+      <c r="Y47">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>655</v>
       </c>
@@ -5408,8 +6520,29 @@
       <c r="R48" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>2754</v>
+      </c>
+      <c r="T48">
+        <v>2719</v>
+      </c>
+      <c r="U48">
+        <v>2677</v>
+      </c>
+      <c r="V48">
+        <v>2809</v>
+      </c>
+      <c r="W48">
+        <v>2733</v>
+      </c>
+      <c r="X48">
+        <v>2639</v>
+      </c>
+      <c r="Y48">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>671</v>
       </c>
@@ -5460,8 +6593,29 @@
       <c r="R49" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>2754</v>
+      </c>
+      <c r="T49">
+        <v>2722</v>
+      </c>
+      <c r="U49">
+        <v>2677</v>
+      </c>
+      <c r="V49">
+        <v>2808</v>
+      </c>
+      <c r="W49">
+        <v>2734</v>
+      </c>
+      <c r="X49">
+        <v>2639</v>
+      </c>
+      <c r="Y49">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>652</v>
       </c>
@@ -5512,8 +6666,29 @@
       <c r="R50" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>2753</v>
+      </c>
+      <c r="T50">
+        <v>2720</v>
+      </c>
+      <c r="U50">
+        <v>2680</v>
+      </c>
+      <c r="V50">
+        <v>2810</v>
+      </c>
+      <c r="W50">
+        <v>2732</v>
+      </c>
+      <c r="X50">
+        <v>2641</v>
+      </c>
+      <c r="Y50">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>690</v>
       </c>
@@ -5564,8 +6739,29 @@
       <c r="R51" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>2752</v>
+      </c>
+      <c r="T51">
+        <v>2722</v>
+      </c>
+      <c r="U51">
+        <v>2679</v>
+      </c>
+      <c r="V51">
+        <v>2808</v>
+      </c>
+      <c r="W51">
+        <v>2730</v>
+      </c>
+      <c r="X51">
+        <v>2641</v>
+      </c>
+      <c r="Y51">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>640</v>
       </c>
@@ -5616,8 +6812,29 @@
       <c r="R52" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>2749</v>
+      </c>
+      <c r="T52">
+        <v>2720</v>
+      </c>
+      <c r="U52">
+        <v>2675</v>
+      </c>
+      <c r="V52">
+        <v>2811</v>
+      </c>
+      <c r="W52">
+        <v>2733</v>
+      </c>
+      <c r="X52">
+        <v>2641</v>
+      </c>
+      <c r="Y52">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>575</v>
       </c>
@@ -5668,8 +6885,29 @@
       <c r="R53" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>2755</v>
+      </c>
+      <c r="T53">
+        <v>2721</v>
+      </c>
+      <c r="U53">
+        <v>2681</v>
+      </c>
+      <c r="V53">
+        <v>2809</v>
+      </c>
+      <c r="W53">
+        <v>2732</v>
+      </c>
+      <c r="X53">
+        <v>2640</v>
+      </c>
+      <c r="Y53">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>613</v>
       </c>
@@ -5720,8 +6958,29 @@
       <c r="R54" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>2757</v>
+      </c>
+      <c r="T54">
+        <v>2721</v>
+      </c>
+      <c r="U54">
+        <v>2677</v>
+      </c>
+      <c r="V54">
+        <v>2811</v>
+      </c>
+      <c r="W54">
+        <v>2736</v>
+      </c>
+      <c r="X54">
+        <v>2635</v>
+      </c>
+      <c r="Y54">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>576</v>
       </c>
@@ -5772,8 +7031,29 @@
       <c r="R55" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>2752</v>
+      </c>
+      <c r="T55">
+        <v>2721</v>
+      </c>
+      <c r="U55">
+        <v>2682</v>
+      </c>
+      <c r="V55">
+        <v>2808</v>
+      </c>
+      <c r="W55">
+        <v>2733</v>
+      </c>
+      <c r="X55">
+        <v>2633</v>
+      </c>
+      <c r="Y55">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>630</v>
       </c>
@@ -5824,8 +7104,29 @@
       <c r="R56" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <v>2750</v>
+      </c>
+      <c r="T56">
+        <v>2721</v>
+      </c>
+      <c r="U56">
+        <v>2677</v>
+      </c>
+      <c r="V56">
+        <v>2811</v>
+      </c>
+      <c r="W56">
+        <v>2733</v>
+      </c>
+      <c r="X56">
+        <v>2640</v>
+      </c>
+      <c r="Y56">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>686</v>
       </c>
@@ -5876,8 +7177,29 @@
       <c r="R57" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <v>2751</v>
+      </c>
+      <c r="T57">
+        <v>2719</v>
+      </c>
+      <c r="U57">
+        <v>2675</v>
+      </c>
+      <c r="V57">
+        <v>2811</v>
+      </c>
+      <c r="W57">
+        <v>2735</v>
+      </c>
+      <c r="X57">
+        <v>2639</v>
+      </c>
+      <c r="Y57">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>681</v>
       </c>
@@ -5928,8 +7250,29 @@
       <c r="R58" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <v>2752</v>
+      </c>
+      <c r="T58">
+        <v>2722</v>
+      </c>
+      <c r="U58">
+        <v>2679</v>
+      </c>
+      <c r="V58">
+        <v>2809</v>
+      </c>
+      <c r="W58">
+        <v>2737</v>
+      </c>
+      <c r="X58">
+        <v>2641</v>
+      </c>
+      <c r="Y58">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -5980,8 +7323,29 @@
       <c r="R59" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <v>2751</v>
+      </c>
+      <c r="T59">
+        <v>2721</v>
+      </c>
+      <c r="U59">
+        <v>2674</v>
+      </c>
+      <c r="V59">
+        <v>2808</v>
+      </c>
+      <c r="W59">
+        <v>2735</v>
+      </c>
+      <c r="X59">
+        <v>2634</v>
+      </c>
+      <c r="Y59">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>674</v>
       </c>
@@ -6032,8 +7396,29 @@
       <c r="R60" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <v>2756</v>
+      </c>
+      <c r="T60">
+        <v>2719</v>
+      </c>
+      <c r="U60">
+        <v>2677</v>
+      </c>
+      <c r="V60">
+        <v>2808</v>
+      </c>
+      <c r="W60">
+        <v>2736</v>
+      </c>
+      <c r="X60">
+        <v>2642</v>
+      </c>
+      <c r="Y60">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>573</v>
       </c>
@@ -6084,8 +7469,29 @@
       <c r="R61" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <v>2754</v>
+      </c>
+      <c r="T61">
+        <v>2722</v>
+      </c>
+      <c r="U61">
+        <v>2677</v>
+      </c>
+      <c r="V61">
+        <v>2810</v>
+      </c>
+      <c r="W61">
+        <v>2731</v>
+      </c>
+      <c r="X61">
+        <v>2642</v>
+      </c>
+      <c r="Y61">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>636</v>
       </c>
@@ -6136,8 +7542,29 @@
       <c r="R62" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <v>2755</v>
+      </c>
+      <c r="T62">
+        <v>2722</v>
+      </c>
+      <c r="U62">
+        <v>2679</v>
+      </c>
+      <c r="V62">
+        <v>2810</v>
+      </c>
+      <c r="W62">
+        <v>2735</v>
+      </c>
+      <c r="X62">
+        <v>2637</v>
+      </c>
+      <c r="Y62">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>642</v>
       </c>
@@ -6188,8 +7615,29 @@
       <c r="R63" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <v>2751</v>
+      </c>
+      <c r="T63">
+        <v>2719</v>
+      </c>
+      <c r="U63">
+        <v>2674</v>
+      </c>
+      <c r="V63">
+        <v>2810</v>
+      </c>
+      <c r="W63">
+        <v>2736</v>
+      </c>
+      <c r="X63">
+        <v>2642</v>
+      </c>
+      <c r="Y63">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>581</v>
       </c>
@@ -6240,8 +7688,29 @@
       <c r="R64" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <v>2749</v>
+      </c>
+      <c r="T64">
+        <v>2721</v>
+      </c>
+      <c r="U64">
+        <v>2682</v>
+      </c>
+      <c r="V64">
+        <v>2809</v>
+      </c>
+      <c r="W64">
+        <v>2736</v>
+      </c>
+      <c r="X64">
+        <v>2639</v>
+      </c>
+      <c r="Y64">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>666</v>
       </c>
@@ -6292,8 +7761,29 @@
       <c r="R65" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <v>2754</v>
+      </c>
+      <c r="T65">
+        <v>2720</v>
+      </c>
+      <c r="U65">
+        <v>2676</v>
+      </c>
+      <c r="V65">
+        <v>2809</v>
+      </c>
+      <c r="W65">
+        <v>2735</v>
+      </c>
+      <c r="X65">
+        <v>2638</v>
+      </c>
+      <c r="Y65">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>676</v>
       </c>
@@ -6344,8 +7834,29 @@
       <c r="R66" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <v>2757</v>
+      </c>
+      <c r="T66">
+        <v>2720</v>
+      </c>
+      <c r="U66">
+        <v>2676</v>
+      </c>
+      <c r="V66">
+        <v>2810</v>
+      </c>
+      <c r="W66">
+        <v>2737</v>
+      </c>
+      <c r="X66">
+        <v>2633</v>
+      </c>
+      <c r="Y66">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>601</v>
       </c>
@@ -6396,8 +7907,29 @@
       <c r="R67" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <v>2749</v>
+      </c>
+      <c r="T67">
+        <v>2722</v>
+      </c>
+      <c r="U67">
+        <v>2682</v>
+      </c>
+      <c r="V67">
+        <v>2810</v>
+      </c>
+      <c r="W67">
+        <v>2732</v>
+      </c>
+      <c r="X67">
+        <v>2633</v>
+      </c>
+      <c r="Y67">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>595</v>
       </c>
@@ -6448,8 +7980,29 @@
       <c r="R68" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <v>2751</v>
+      </c>
+      <c r="T68">
+        <v>2719</v>
+      </c>
+      <c r="U68">
+        <v>2674</v>
+      </c>
+      <c r="V68">
+        <v>2811</v>
+      </c>
+      <c r="W68">
+        <v>2734</v>
+      </c>
+      <c r="X68">
+        <v>2640</v>
+      </c>
+      <c r="Y68">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>658</v>
       </c>
@@ -6500,8 +8053,29 @@
       <c r="R69" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <v>2753</v>
+      </c>
+      <c r="T69">
+        <v>2722</v>
+      </c>
+      <c r="U69">
+        <v>2676</v>
+      </c>
+      <c r="V69">
+        <v>2810</v>
+      </c>
+      <c r="W69">
+        <v>2735</v>
+      </c>
+      <c r="X69">
+        <v>2636</v>
+      </c>
+      <c r="Y69">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>626</v>
       </c>
@@ -6552,8 +8126,29 @@
       <c r="R70" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>2749</v>
+      </c>
+      <c r="T70">
+        <v>2719</v>
+      </c>
+      <c r="U70">
+        <v>2681</v>
+      </c>
+      <c r="V70">
+        <v>2810</v>
+      </c>
+      <c r="W70">
+        <v>2734</v>
+      </c>
+      <c r="X70">
+        <v>2642</v>
+      </c>
+      <c r="Y70">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>578</v>
       </c>
@@ -6604,8 +8199,29 @@
       <c r="R71" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <v>2757</v>
+      </c>
+      <c r="T71">
+        <v>2721</v>
+      </c>
+      <c r="U71">
+        <v>2675</v>
+      </c>
+      <c r="V71">
+        <v>2811</v>
+      </c>
+      <c r="W71">
+        <v>2735</v>
+      </c>
+      <c r="X71">
+        <v>2633</v>
+      </c>
+      <c r="Y71">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>656</v>
       </c>
@@ -6656,8 +8272,29 @@
       <c r="R72" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <v>2750</v>
+      </c>
+      <c r="T72">
+        <v>2719</v>
+      </c>
+      <c r="U72">
+        <v>2681</v>
+      </c>
+      <c r="V72">
+        <v>2810</v>
+      </c>
+      <c r="W72">
+        <v>2731</v>
+      </c>
+      <c r="X72">
+        <v>2637</v>
+      </c>
+      <c r="Y72">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>704</v>
       </c>
@@ -6708,8 +8345,29 @@
       <c r="R73" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <v>2751</v>
+      </c>
+      <c r="T73">
+        <v>2722</v>
+      </c>
+      <c r="U73">
+        <v>2677</v>
+      </c>
+      <c r="V73">
+        <v>2809</v>
+      </c>
+      <c r="W73">
+        <v>2735</v>
+      </c>
+      <c r="X73">
+        <v>2636</v>
+      </c>
+      <c r="Y73">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>571</v>
       </c>
@@ -6760,8 +8418,29 @@
       <c r="R74" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <v>2754</v>
+      </c>
+      <c r="T74">
+        <v>2719</v>
+      </c>
+      <c r="U74">
+        <v>2674</v>
+      </c>
+      <c r="V74">
+        <v>2809</v>
+      </c>
+      <c r="W74">
+        <v>2737</v>
+      </c>
+      <c r="X74">
+        <v>2636</v>
+      </c>
+      <c r="Y74">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>653</v>
       </c>
@@ -6812,8 +8491,29 @@
       <c r="R75" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <v>2753</v>
+      </c>
+      <c r="T75">
+        <v>2721</v>
+      </c>
+      <c r="U75">
+        <v>2678</v>
+      </c>
+      <c r="V75">
+        <v>2808</v>
+      </c>
+      <c r="W75">
+        <v>2730</v>
+      </c>
+      <c r="X75">
+        <v>2635</v>
+      </c>
+      <c r="Y75">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>605</v>
       </c>
@@ -6864,8 +8564,29 @@
       <c r="R76" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <v>2754</v>
+      </c>
+      <c r="T76">
+        <v>2719</v>
+      </c>
+      <c r="U76">
+        <v>2675</v>
+      </c>
+      <c r="V76">
+        <v>2811</v>
+      </c>
+      <c r="W76">
+        <v>2734</v>
+      </c>
+      <c r="X76">
+        <v>2637</v>
+      </c>
+      <c r="Y76">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>691</v>
       </c>
@@ -6916,8 +8637,29 @@
       <c r="R77" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>2755</v>
+      </c>
+      <c r="T77">
+        <v>2722</v>
+      </c>
+      <c r="U77">
+        <v>2682</v>
+      </c>
+      <c r="V77">
+        <v>2809</v>
+      </c>
+      <c r="W77">
+        <v>2733</v>
+      </c>
+      <c r="X77">
+        <v>2639</v>
+      </c>
+      <c r="Y77">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>716</v>
       </c>
@@ -6968,8 +8710,29 @@
       <c r="R78" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>2750</v>
+      </c>
+      <c r="T78">
+        <v>2721</v>
+      </c>
+      <c r="U78">
+        <v>2676</v>
+      </c>
+      <c r="V78">
+        <v>2808</v>
+      </c>
+      <c r="W78">
+        <v>2734</v>
+      </c>
+      <c r="X78">
+        <v>2640</v>
+      </c>
+      <c r="Y78">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>643</v>
       </c>
@@ -7020,8 +8783,29 @@
       <c r="R79" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <v>2753</v>
+      </c>
+      <c r="T79">
+        <v>2721</v>
+      </c>
+      <c r="U79">
+        <v>2682</v>
+      </c>
+      <c r="V79">
+        <v>2811</v>
+      </c>
+      <c r="W79">
+        <v>2733</v>
+      </c>
+      <c r="X79">
+        <v>2633</v>
+      </c>
+      <c r="Y79">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>664</v>
       </c>
@@ -7072,8 +8856,29 @@
       <c r="R80" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <v>2755</v>
+      </c>
+      <c r="T80">
+        <v>2722</v>
+      </c>
+      <c r="U80">
+        <v>2680</v>
+      </c>
+      <c r="V80">
+        <v>2808</v>
+      </c>
+      <c r="W80">
+        <v>2734</v>
+      </c>
+      <c r="X80">
+        <v>2641</v>
+      </c>
+      <c r="Y80">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>588</v>
       </c>
@@ -7124,8 +8929,29 @@
       <c r="R81" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <v>2752</v>
+      </c>
+      <c r="T81">
+        <v>2720</v>
+      </c>
+      <c r="U81">
+        <v>2682</v>
+      </c>
+      <c r="V81">
+        <v>2810</v>
+      </c>
+      <c r="W81">
+        <v>2732</v>
+      </c>
+      <c r="X81">
+        <v>2641</v>
+      </c>
+      <c r="Y81">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>597</v>
       </c>
@@ -7176,8 +9002,29 @@
       <c r="R82" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <v>2752</v>
+      </c>
+      <c r="T82">
+        <v>2720</v>
+      </c>
+      <c r="U82">
+        <v>2682</v>
+      </c>
+      <c r="V82">
+        <v>2810</v>
+      </c>
+      <c r="W82">
+        <v>2732</v>
+      </c>
+      <c r="X82">
+        <v>2639</v>
+      </c>
+      <c r="Y82">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>633</v>
       </c>
@@ -7228,8 +9075,29 @@
       <c r="R83" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <v>2753</v>
+      </c>
+      <c r="T83">
+        <v>2722</v>
+      </c>
+      <c r="U83">
+        <v>2674</v>
+      </c>
+      <c r="V83">
+        <v>2809</v>
+      </c>
+      <c r="W83">
+        <v>2730</v>
+      </c>
+      <c r="X83">
+        <v>2641</v>
+      </c>
+      <c r="Y83">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>697</v>
       </c>
@@ -7280,8 +9148,29 @@
       <c r="R84" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <v>2753</v>
+      </c>
+      <c r="T84">
+        <v>2719</v>
+      </c>
+      <c r="U84">
+        <v>2679</v>
+      </c>
+      <c r="V84">
+        <v>2808</v>
+      </c>
+      <c r="W84">
+        <v>2734</v>
+      </c>
+      <c r="X84">
+        <v>2639</v>
+      </c>
+      <c r="Y84">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>580</v>
       </c>
@@ -7332,8 +9221,29 @@
       <c r="R85" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <v>2750</v>
+      </c>
+      <c r="T85">
+        <v>2721</v>
+      </c>
+      <c r="U85">
+        <v>2676</v>
+      </c>
+      <c r="V85">
+        <v>2811</v>
+      </c>
+      <c r="W85">
+        <v>2731</v>
+      </c>
+      <c r="X85">
+        <v>2640</v>
+      </c>
+      <c r="Y85">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>641</v>
       </c>
@@ -7384,8 +9294,29 @@
       <c r="R86" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <v>2753</v>
+      </c>
+      <c r="T86">
+        <v>2722</v>
+      </c>
+      <c r="U86">
+        <v>2679</v>
+      </c>
+      <c r="V86">
+        <v>2808</v>
+      </c>
+      <c r="W86">
+        <v>2730</v>
+      </c>
+      <c r="X86">
+        <v>2642</v>
+      </c>
+      <c r="Y86">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>705</v>
       </c>
@@ -7436,8 +9367,29 @@
       <c r="R87" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <v>2755</v>
+      </c>
+      <c r="T87">
+        <v>2719</v>
+      </c>
+      <c r="U87">
+        <v>2675</v>
+      </c>
+      <c r="V87">
+        <v>2811</v>
+      </c>
+      <c r="W87">
+        <v>2737</v>
+      </c>
+      <c r="X87">
+        <v>2640</v>
+      </c>
+      <c r="Y87">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>684</v>
       </c>
@@ -7488,8 +9440,29 @@
       <c r="R88" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <v>2757</v>
+      </c>
+      <c r="T88">
+        <v>2722</v>
+      </c>
+      <c r="U88">
+        <v>2681</v>
+      </c>
+      <c r="V88">
+        <v>2811</v>
+      </c>
+      <c r="W88">
+        <v>2730</v>
+      </c>
+      <c r="X88">
+        <v>2642</v>
+      </c>
+      <c r="Y88">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>623</v>
       </c>
@@ -7540,8 +9513,29 @@
       <c r="R89" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <v>2754</v>
+      </c>
+      <c r="T89">
+        <v>2720</v>
+      </c>
+      <c r="U89">
+        <v>2680</v>
+      </c>
+      <c r="V89">
+        <v>2808</v>
+      </c>
+      <c r="W89">
+        <v>2737</v>
+      </c>
+      <c r="X89">
+        <v>2637</v>
+      </c>
+      <c r="Y89">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>698</v>
       </c>
@@ -7592,8 +9586,29 @@
       <c r="R90" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <v>2752</v>
+      </c>
+      <c r="T90">
+        <v>2721</v>
+      </c>
+      <c r="U90">
+        <v>2674</v>
+      </c>
+      <c r="V90">
+        <v>2810</v>
+      </c>
+      <c r="W90">
+        <v>2736</v>
+      </c>
+      <c r="X90">
+        <v>2639</v>
+      </c>
+      <c r="Y90">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>608</v>
       </c>
@@ -7644,8 +9659,29 @@
       <c r="R91" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <v>2754</v>
+      </c>
+      <c r="T91">
+        <v>2722</v>
+      </c>
+      <c r="U91">
+        <v>2680</v>
+      </c>
+      <c r="V91">
+        <v>2809</v>
+      </c>
+      <c r="W91">
+        <v>2731</v>
+      </c>
+      <c r="X91">
+        <v>2642</v>
+      </c>
+      <c r="Y91">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>682</v>
       </c>
@@ -7696,8 +9732,29 @@
       <c r="R92" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <v>2755</v>
+      </c>
+      <c r="T92">
+        <v>2720</v>
+      </c>
+      <c r="U92">
+        <v>2676</v>
+      </c>
+      <c r="V92">
+        <v>2808</v>
+      </c>
+      <c r="W92">
+        <v>2732</v>
+      </c>
+      <c r="X92">
+        <v>2640</v>
+      </c>
+      <c r="Y92">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>646</v>
       </c>
@@ -7748,8 +9805,29 @@
       <c r="R93" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <v>2755</v>
+      </c>
+      <c r="T93">
+        <v>2719</v>
+      </c>
+      <c r="U93">
+        <v>2676</v>
+      </c>
+      <c r="V93">
+        <v>2808</v>
+      </c>
+      <c r="W93">
+        <v>2733</v>
+      </c>
+      <c r="X93">
+        <v>2639</v>
+      </c>
+      <c r="Y93">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>683</v>
       </c>
@@ -7800,8 +9878,29 @@
       <c r="R94" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <v>2753</v>
+      </c>
+      <c r="T94">
+        <v>2722</v>
+      </c>
+      <c r="U94">
+        <v>2676</v>
+      </c>
+      <c r="V94">
+        <v>2811</v>
+      </c>
+      <c r="W94">
+        <v>2730</v>
+      </c>
+      <c r="X94">
+        <v>2634</v>
+      </c>
+      <c r="Y94">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>582</v>
       </c>
@@ -7852,8 +9951,29 @@
       <c r="R95" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <v>2754</v>
+      </c>
+      <c r="T95">
+        <v>2721</v>
+      </c>
+      <c r="U95">
+        <v>2677</v>
+      </c>
+      <c r="V95">
+        <v>2811</v>
+      </c>
+      <c r="W95">
+        <v>2734</v>
+      </c>
+      <c r="X95">
+        <v>2639</v>
+      </c>
+      <c r="Y95">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>629</v>
       </c>
@@ -7904,8 +10024,29 @@
       <c r="R96" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <v>2752</v>
+      </c>
+      <c r="T96">
+        <v>2720</v>
+      </c>
+      <c r="U96">
+        <v>2676</v>
+      </c>
+      <c r="V96">
+        <v>2809</v>
+      </c>
+      <c r="W96">
+        <v>2736</v>
+      </c>
+      <c r="X96">
+        <v>2642</v>
+      </c>
+      <c r="Y96">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -7956,8 +10097,29 @@
       <c r="R97" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S97">
+        <v>2756</v>
+      </c>
+      <c r="T97">
+        <v>2720</v>
+      </c>
+      <c r="U97">
+        <v>2676</v>
+      </c>
+      <c r="V97">
+        <v>2810</v>
+      </c>
+      <c r="W97">
+        <v>2735</v>
+      </c>
+      <c r="X97">
+        <v>2635</v>
+      </c>
+      <c r="Y97">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>572</v>
       </c>
@@ -8008,8 +10170,29 @@
       <c r="R98" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S98">
+        <v>2751</v>
+      </c>
+      <c r="T98">
+        <v>2720</v>
+      </c>
+      <c r="U98">
+        <v>2677</v>
+      </c>
+      <c r="V98">
+        <v>2810</v>
+      </c>
+      <c r="W98">
+        <v>2730</v>
+      </c>
+      <c r="X98">
+        <v>2639</v>
+      </c>
+      <c r="Y98">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>675</v>
       </c>
@@ -8060,8 +10243,29 @@
       <c r="R99" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>2757</v>
+      </c>
+      <c r="T99">
+        <v>2722</v>
+      </c>
+      <c r="U99">
+        <v>2675</v>
+      </c>
+      <c r="V99">
+        <v>2808</v>
+      </c>
+      <c r="W99">
+        <v>2734</v>
+      </c>
+      <c r="X99">
+        <v>2642</v>
+      </c>
+      <c r="Y99">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>617</v>
       </c>
@@ -8112,8 +10316,29 @@
       <c r="R100" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S100">
+        <v>2755</v>
+      </c>
+      <c r="T100">
+        <v>2720</v>
+      </c>
+      <c r="U100">
+        <v>2681</v>
+      </c>
+      <c r="V100">
+        <v>2811</v>
+      </c>
+      <c r="W100">
+        <v>2733</v>
+      </c>
+      <c r="X100">
+        <v>2639</v>
+      </c>
+      <c r="Y100">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>579</v>
       </c>
@@ -8164,8 +10389,29 @@
       <c r="R101" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S101">
+        <v>2756</v>
+      </c>
+      <c r="T101">
+        <v>2719</v>
+      </c>
+      <c r="U101">
+        <v>2680</v>
+      </c>
+      <c r="V101">
+        <v>2810</v>
+      </c>
+      <c r="W101">
+        <v>2731</v>
+      </c>
+      <c r="X101">
+        <v>2636</v>
+      </c>
+      <c r="Y101">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>589</v>
       </c>
@@ -8216,8 +10462,29 @@
       <c r="R102" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S102">
+        <v>2753</v>
+      </c>
+      <c r="T102">
+        <v>2722</v>
+      </c>
+      <c r="U102">
+        <v>2682</v>
+      </c>
+      <c r="V102">
+        <v>2809</v>
+      </c>
+      <c r="W102">
+        <v>2736</v>
+      </c>
+      <c r="X102">
+        <v>2640</v>
+      </c>
+      <c r="Y102">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>591</v>
       </c>
@@ -8268,8 +10535,29 @@
       <c r="R103" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S103">
+        <v>2752</v>
+      </c>
+      <c r="T103">
+        <v>2721</v>
+      </c>
+      <c r="U103">
+        <v>2676</v>
+      </c>
+      <c r="V103">
+        <v>2808</v>
+      </c>
+      <c r="W103">
+        <v>2733</v>
+      </c>
+      <c r="X103">
+        <v>2641</v>
+      </c>
+      <c r="Y103">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>627</v>
       </c>
@@ -8320,8 +10608,29 @@
       <c r="R104" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S104">
+        <v>2749</v>
+      </c>
+      <c r="T104">
+        <v>2720</v>
+      </c>
+      <c r="U104">
+        <v>2677</v>
+      </c>
+      <c r="V104">
+        <v>2809</v>
+      </c>
+      <c r="W104">
+        <v>2737</v>
+      </c>
+      <c r="X104">
+        <v>2637</v>
+      </c>
+      <c r="Y104">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>685</v>
       </c>
@@ -8372,8 +10681,29 @@
       <c r="R105" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S105">
+        <v>2752</v>
+      </c>
+      <c r="T105">
+        <v>2722</v>
+      </c>
+      <c r="U105">
+        <v>2679</v>
+      </c>
+      <c r="V105">
+        <v>2810</v>
+      </c>
+      <c r="W105">
+        <v>2734</v>
+      </c>
+      <c r="X105">
+        <v>2636</v>
+      </c>
+      <c r="Y105">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>635</v>
       </c>
@@ -8424,8 +10754,29 @@
       <c r="R106" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S106">
+        <v>2753</v>
+      </c>
+      <c r="T106">
+        <v>2720</v>
+      </c>
+      <c r="U106">
+        <v>2676</v>
+      </c>
+      <c r="V106">
+        <v>2809</v>
+      </c>
+      <c r="W106">
+        <v>2732</v>
+      </c>
+      <c r="X106">
+        <v>2634</v>
+      </c>
+      <c r="Y106">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>651</v>
       </c>
@@ -8476,8 +10827,29 @@
       <c r="R107" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S107">
+        <v>2750</v>
+      </c>
+      <c r="T107">
+        <v>2722</v>
+      </c>
+      <c r="U107">
+        <v>2674</v>
+      </c>
+      <c r="V107">
+        <v>2811</v>
+      </c>
+      <c r="W107">
+        <v>2737</v>
+      </c>
+      <c r="X107">
+        <v>2636</v>
+      </c>
+      <c r="Y107">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>719</v>
       </c>
@@ -8528,8 +10900,29 @@
       <c r="R108" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S108">
+        <v>2756</v>
+      </c>
+      <c r="T108">
+        <v>2719</v>
+      </c>
+      <c r="U108">
+        <v>2675</v>
+      </c>
+      <c r="V108">
+        <v>2811</v>
+      </c>
+      <c r="W108">
+        <v>2737</v>
+      </c>
+      <c r="X108">
+        <v>2633</v>
+      </c>
+      <c r="Y108">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>615</v>
       </c>
@@ -8580,8 +10973,29 @@
       <c r="R109" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S109">
+        <v>2756</v>
+      </c>
+      <c r="T109">
+        <v>2721</v>
+      </c>
+      <c r="U109">
+        <v>2679</v>
+      </c>
+      <c r="V109">
+        <v>2810</v>
+      </c>
+      <c r="W109">
+        <v>2736</v>
+      </c>
+      <c r="X109">
+        <v>2636</v>
+      </c>
+      <c r="Y109">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>602</v>
       </c>
@@ -8632,8 +11046,29 @@
       <c r="R110" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>2753</v>
+      </c>
+      <c r="T110">
+        <v>2719</v>
+      </c>
+      <c r="U110">
+        <v>2679</v>
+      </c>
+      <c r="V110">
+        <v>2810</v>
+      </c>
+      <c r="W110">
+        <v>2731</v>
+      </c>
+      <c r="X110">
+        <v>2633</v>
+      </c>
+      <c r="Y110">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>594</v>
       </c>
@@ -8684,8 +11119,29 @@
       <c r="R111" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S111">
+        <v>2751</v>
+      </c>
+      <c r="T111">
+        <v>2720</v>
+      </c>
+      <c r="U111">
+        <v>2679</v>
+      </c>
+      <c r="V111">
+        <v>2808</v>
+      </c>
+      <c r="W111">
+        <v>2731</v>
+      </c>
+      <c r="X111">
+        <v>2641</v>
+      </c>
+      <c r="Y111">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>707</v>
       </c>
@@ -8736,8 +11192,29 @@
       <c r="R112" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S112">
+        <v>2757</v>
+      </c>
+      <c r="T112">
+        <v>2719</v>
+      </c>
+      <c r="U112">
+        <v>2674</v>
+      </c>
+      <c r="V112">
+        <v>2811</v>
+      </c>
+      <c r="W112">
+        <v>2735</v>
+      </c>
+      <c r="X112">
+        <v>2636</v>
+      </c>
+      <c r="Y112">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>590</v>
       </c>
@@ -8788,8 +11265,29 @@
       <c r="R113" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S113">
+        <v>2749</v>
+      </c>
+      <c r="T113">
+        <v>2720</v>
+      </c>
+      <c r="U113">
+        <v>2678</v>
+      </c>
+      <c r="V113">
+        <v>2811</v>
+      </c>
+      <c r="W113">
+        <v>2732</v>
+      </c>
+      <c r="X113">
+        <v>2639</v>
+      </c>
+      <c r="Y113">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>648</v>
       </c>
@@ -8840,8 +11338,29 @@
       <c r="R114" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S114">
+        <v>2753</v>
+      </c>
+      <c r="T114">
+        <v>2719</v>
+      </c>
+      <c r="U114">
+        <v>2680</v>
+      </c>
+      <c r="V114">
+        <v>2808</v>
+      </c>
+      <c r="W114">
+        <v>2736</v>
+      </c>
+      <c r="X114">
+        <v>2639</v>
+      </c>
+      <c r="Y114">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>616</v>
       </c>
@@ -8892,8 +11411,29 @@
       <c r="R115" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S115">
+        <v>2755</v>
+      </c>
+      <c r="T115">
+        <v>2720</v>
+      </c>
+      <c r="U115">
+        <v>2681</v>
+      </c>
+      <c r="V115">
+        <v>2809</v>
+      </c>
+      <c r="W115">
+        <v>2732</v>
+      </c>
+      <c r="X115">
+        <v>2635</v>
+      </c>
+      <c r="Y115">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>700</v>
       </c>
@@ -8944,8 +11484,29 @@
       <c r="R116" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S116">
+        <v>2754</v>
+      </c>
+      <c r="T116">
+        <v>2721</v>
+      </c>
+      <c r="U116">
+        <v>2676</v>
+      </c>
+      <c r="V116">
+        <v>2811</v>
+      </c>
+      <c r="W116">
+        <v>2734</v>
+      </c>
+      <c r="X116">
+        <v>2641</v>
+      </c>
+      <c r="Y116">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>620</v>
       </c>
@@ -8996,8 +11557,29 @@
       <c r="R117" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S117">
+        <v>2749</v>
+      </c>
+      <c r="T117">
+        <v>2722</v>
+      </c>
+      <c r="U117">
+        <v>2675</v>
+      </c>
+      <c r="V117">
+        <v>2810</v>
+      </c>
+      <c r="W117">
+        <v>2733</v>
+      </c>
+      <c r="X117">
+        <v>2640</v>
+      </c>
+      <c r="Y117">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>703</v>
       </c>
@@ -9048,8 +11630,29 @@
       <c r="R118" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="S118">
+        <v>2757</v>
+      </c>
+      <c r="T118">
+        <v>2722</v>
+      </c>
+      <c r="U118">
+        <v>2678</v>
+      </c>
+      <c r="V118">
+        <v>2810</v>
+      </c>
+      <c r="W118">
+        <v>2734</v>
+      </c>
+      <c r="X118">
+        <v>2635</v>
+      </c>
+      <c r="Y118">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>610</v>
       </c>
@@ -9100,8 +11703,29 @@
       <c r="R119" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S119">
+        <v>2754</v>
+      </c>
+      <c r="T119">
+        <v>2719</v>
+      </c>
+      <c r="U119">
+        <v>2677</v>
+      </c>
+      <c r="V119">
+        <v>2810</v>
+      </c>
+      <c r="W119">
+        <v>2731</v>
+      </c>
+      <c r="X119">
+        <v>2642</v>
+      </c>
+      <c r="Y119">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>621</v>
       </c>
@@ -9152,8 +11776,29 @@
       <c r="R120" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>2749</v>
+      </c>
+      <c r="T120">
+        <v>2719</v>
+      </c>
+      <c r="U120">
+        <v>2679</v>
+      </c>
+      <c r="V120">
+        <v>2809</v>
+      </c>
+      <c r="W120">
+        <v>2734</v>
+      </c>
+      <c r="X120">
+        <v>2639</v>
+      </c>
+      <c r="Y120">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>568</v>
       </c>
@@ -9204,8 +11849,29 @@
       <c r="R121" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S121">
+        <v>2753</v>
+      </c>
+      <c r="T121">
+        <v>2720</v>
+      </c>
+      <c r="U121">
+        <v>2680</v>
+      </c>
+      <c r="V121">
+        <v>2811</v>
+      </c>
+      <c r="W121">
+        <v>2735</v>
+      </c>
+      <c r="X121">
+        <v>2640</v>
+      </c>
+      <c r="Y121">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>570</v>
       </c>
@@ -9256,8 +11922,29 @@
       <c r="R122" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S122">
+        <v>2749</v>
+      </c>
+      <c r="T122">
+        <v>2719</v>
+      </c>
+      <c r="U122">
+        <v>2679</v>
+      </c>
+      <c r="V122">
+        <v>2809</v>
+      </c>
+      <c r="W122">
+        <v>2732</v>
+      </c>
+      <c r="X122">
+        <v>2642</v>
+      </c>
+      <c r="Y122">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>607</v>
       </c>
@@ -9308,8 +11995,29 @@
       <c r="R123" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S123">
+        <v>2754</v>
+      </c>
+      <c r="T123">
+        <v>2722</v>
+      </c>
+      <c r="U123">
+        <v>2679</v>
+      </c>
+      <c r="V123">
+        <v>2809</v>
+      </c>
+      <c r="W123">
+        <v>2731</v>
+      </c>
+      <c r="X123">
+        <v>2640</v>
+      </c>
+      <c r="Y123">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>701</v>
       </c>
@@ -9360,8 +12068,29 @@
       <c r="R124" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>2751</v>
+      </c>
+      <c r="T124">
+        <v>2721</v>
+      </c>
+      <c r="U124">
+        <v>2680</v>
+      </c>
+      <c r="V124">
+        <v>2811</v>
+      </c>
+      <c r="W124">
+        <v>2730</v>
+      </c>
+      <c r="X124">
+        <v>2639</v>
+      </c>
+      <c r="Y124">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>687</v>
       </c>
@@ -9412,8 +12141,29 @@
       <c r="R125" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>2750</v>
+      </c>
+      <c r="T125">
+        <v>2721</v>
+      </c>
+      <c r="U125">
+        <v>2675</v>
+      </c>
+      <c r="V125">
+        <v>2808</v>
+      </c>
+      <c r="W125">
+        <v>2734</v>
+      </c>
+      <c r="X125">
+        <v>2639</v>
+      </c>
+      <c r="Y125">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>592</v>
       </c>
@@ -9464,8 +12214,29 @@
       <c r="R126" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>2756</v>
+      </c>
+      <c r="T126">
+        <v>2720</v>
+      </c>
+      <c r="U126">
+        <v>2682</v>
+      </c>
+      <c r="V126">
+        <v>2808</v>
+      </c>
+      <c r="W126">
+        <v>2732</v>
+      </c>
+      <c r="X126">
+        <v>2639</v>
+      </c>
+      <c r="Y126">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>670</v>
       </c>
@@ -9516,8 +12287,29 @@
       <c r="R127" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S127">
+        <v>2754</v>
+      </c>
+      <c r="T127">
+        <v>2721</v>
+      </c>
+      <c r="U127">
+        <v>2682</v>
+      </c>
+      <c r="V127">
+        <v>2810</v>
+      </c>
+      <c r="W127">
+        <v>2733</v>
+      </c>
+      <c r="X127">
+        <v>2638</v>
+      </c>
+      <c r="Y127">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>639</v>
       </c>
@@ -9568,8 +12360,29 @@
       <c r="R128" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="129" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S128">
+        <v>2751</v>
+      </c>
+      <c r="T128">
+        <v>2719</v>
+      </c>
+      <c r="U128">
+        <v>2674</v>
+      </c>
+      <c r="V128">
+        <v>2809</v>
+      </c>
+      <c r="W128">
+        <v>2735</v>
+      </c>
+      <c r="X128">
+        <v>2637</v>
+      </c>
+      <c r="Y128">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>625</v>
       </c>
@@ -9620,8 +12433,29 @@
       <c r="R129" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S129">
+        <v>2757</v>
+      </c>
+      <c r="T129">
+        <v>2720</v>
+      </c>
+      <c r="U129">
+        <v>2676</v>
+      </c>
+      <c r="V129">
+        <v>2811</v>
+      </c>
+      <c r="W129">
+        <v>2733</v>
+      </c>
+      <c r="X129">
+        <v>2635</v>
+      </c>
+      <c r="Y129">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>637</v>
       </c>
@@ -9672,8 +12506,29 @@
       <c r="R130" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S130">
+        <v>2751</v>
+      </c>
+      <c r="T130">
+        <v>2719</v>
+      </c>
+      <c r="U130">
+        <v>2678</v>
+      </c>
+      <c r="V130">
+        <v>2809</v>
+      </c>
+      <c r="W130">
+        <v>2732</v>
+      </c>
+      <c r="X130">
+        <v>2634</v>
+      </c>
+      <c r="Y130">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>694</v>
       </c>
@@ -9724,8 +12579,29 @@
       <c r="R131" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S131">
+        <v>2754</v>
+      </c>
+      <c r="T131">
+        <v>2721</v>
+      </c>
+      <c r="U131">
+        <v>2678</v>
+      </c>
+      <c r="V131">
+        <v>2811</v>
+      </c>
+      <c r="W131">
+        <v>2730</v>
+      </c>
+      <c r="X131">
+        <v>2635</v>
+      </c>
+      <c r="Y131">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>699</v>
       </c>
@@ -9776,8 +12652,29 @@
       <c r="R132" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S132">
+        <v>2751</v>
+      </c>
+      <c r="T132">
+        <v>2719</v>
+      </c>
+      <c r="U132">
+        <v>2678</v>
+      </c>
+      <c r="V132">
+        <v>2810</v>
+      </c>
+      <c r="W132">
+        <v>2736</v>
+      </c>
+      <c r="X132">
+        <v>2639</v>
+      </c>
+      <c r="Y132">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>600</v>
       </c>
@@ -9828,8 +12725,29 @@
       <c r="R133" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>2756</v>
+      </c>
+      <c r="T133">
+        <v>2719</v>
+      </c>
+      <c r="U133">
+        <v>2680</v>
+      </c>
+      <c r="V133">
+        <v>2811</v>
+      </c>
+      <c r="W133">
+        <v>2731</v>
+      </c>
+      <c r="X133">
+        <v>2633</v>
+      </c>
+      <c r="Y133">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>667</v>
       </c>
@@ -9880,8 +12798,29 @@
       <c r="R134" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S134">
+        <v>2752</v>
+      </c>
+      <c r="T134">
+        <v>2721</v>
+      </c>
+      <c r="U134">
+        <v>2674</v>
+      </c>
+      <c r="V134">
+        <v>2808</v>
+      </c>
+      <c r="W134">
+        <v>2732</v>
+      </c>
+      <c r="X134">
+        <v>2635</v>
+      </c>
+      <c r="Y134">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>585</v>
       </c>
@@ -9932,8 +12871,29 @@
       <c r="R135" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="136" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S135">
+        <v>2751</v>
+      </c>
+      <c r="T135">
+        <v>2722</v>
+      </c>
+      <c r="U135">
+        <v>2680</v>
+      </c>
+      <c r="V135">
+        <v>2808</v>
+      </c>
+      <c r="W135">
+        <v>2730</v>
+      </c>
+      <c r="X135">
+        <v>2636</v>
+      </c>
+      <c r="Y135">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>680</v>
       </c>
@@ -9984,8 +12944,29 @@
       <c r="R136" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S136">
+        <v>2755</v>
+      </c>
+      <c r="T136">
+        <v>2720</v>
+      </c>
+      <c r="U136">
+        <v>2682</v>
+      </c>
+      <c r="V136">
+        <v>2811</v>
+      </c>
+      <c r="W136">
+        <v>2733</v>
+      </c>
+      <c r="X136">
+        <v>2641</v>
+      </c>
+      <c r="Y136">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>577</v>
       </c>
@@ -10036,8 +13017,29 @@
       <c r="R137" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S137">
+        <v>2755</v>
+      </c>
+      <c r="T137">
+        <v>2722</v>
+      </c>
+      <c r="U137">
+        <v>2681</v>
+      </c>
+      <c r="V137">
+        <v>2809</v>
+      </c>
+      <c r="W137">
+        <v>2731</v>
+      </c>
+      <c r="X137">
+        <v>2639</v>
+      </c>
+      <c r="Y137">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>614</v>
       </c>
@@ -10088,8 +13090,29 @@
       <c r="R138" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S138">
+        <v>2752</v>
+      </c>
+      <c r="T138">
+        <v>2722</v>
+      </c>
+      <c r="U138">
+        <v>2679</v>
+      </c>
+      <c r="V138">
+        <v>2811</v>
+      </c>
+      <c r="W138">
+        <v>2736</v>
+      </c>
+      <c r="X138">
+        <v>2638</v>
+      </c>
+      <c r="Y138">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>660</v>
       </c>
@@ -10140,8 +13163,29 @@
       <c r="R139" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S139">
+        <v>2749</v>
+      </c>
+      <c r="T139">
+        <v>2722</v>
+      </c>
+      <c r="U139">
+        <v>2680</v>
+      </c>
+      <c r="V139">
+        <v>2810</v>
+      </c>
+      <c r="W139">
+        <v>2735</v>
+      </c>
+      <c r="X139">
+        <v>2635</v>
+      </c>
+      <c r="Y139">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>631</v>
       </c>
@@ -10192,8 +13236,29 @@
       <c r="R140" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S140">
+        <v>2756</v>
+      </c>
+      <c r="T140">
+        <v>2722</v>
+      </c>
+      <c r="U140">
+        <v>2682</v>
+      </c>
+      <c r="V140">
+        <v>2810</v>
+      </c>
+      <c r="W140">
+        <v>2737</v>
+      </c>
+      <c r="X140">
+        <v>2638</v>
+      </c>
+      <c r="Y140">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>706</v>
       </c>
@@ -10244,8 +13309,29 @@
       <c r="R141" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S141">
+        <v>2752</v>
+      </c>
+      <c r="T141">
+        <v>2721</v>
+      </c>
+      <c r="U141">
+        <v>2675</v>
+      </c>
+      <c r="V141">
+        <v>2810</v>
+      </c>
+      <c r="W141">
+        <v>2730</v>
+      </c>
+      <c r="X141">
+        <v>2642</v>
+      </c>
+      <c r="Y141">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>662</v>
       </c>
@@ -10296,8 +13382,29 @@
       <c r="R142" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S142">
+        <v>2751</v>
+      </c>
+      <c r="T142">
+        <v>2722</v>
+      </c>
+      <c r="U142">
+        <v>2674</v>
+      </c>
+      <c r="V142">
+        <v>2811</v>
+      </c>
+      <c r="W142">
+        <v>2731</v>
+      </c>
+      <c r="X142">
+        <v>2636</v>
+      </c>
+      <c r="Y142">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>688</v>
       </c>
@@ -10348,8 +13455,29 @@
       <c r="R143" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S143">
+        <v>2751</v>
+      </c>
+      <c r="T143">
+        <v>2719</v>
+      </c>
+      <c r="U143">
+        <v>2681</v>
+      </c>
+      <c r="V143">
+        <v>2810</v>
+      </c>
+      <c r="W143">
+        <v>2732</v>
+      </c>
+      <c r="X143">
+        <v>2639</v>
+      </c>
+      <c r="Y143">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>696</v>
       </c>
@@ -10400,8 +13528,29 @@
       <c r="R144" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S144">
+        <v>2751</v>
+      </c>
+      <c r="T144">
+        <v>2721</v>
+      </c>
+      <c r="U144">
+        <v>2679</v>
+      </c>
+      <c r="V144">
+        <v>2808</v>
+      </c>
+      <c r="W144">
+        <v>2737</v>
+      </c>
+      <c r="X144">
+        <v>2635</v>
+      </c>
+      <c r="Y144">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>692</v>
       </c>
@@ -10452,8 +13601,29 @@
       <c r="R145" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>2753</v>
+      </c>
+      <c r="T145">
+        <v>2720</v>
+      </c>
+      <c r="U145">
+        <v>2682</v>
+      </c>
+      <c r="V145">
+        <v>2811</v>
+      </c>
+      <c r="W145">
+        <v>2735</v>
+      </c>
+      <c r="X145">
+        <v>2634</v>
+      </c>
+      <c r="Y145">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>672</v>
       </c>
@@ -10504,8 +13674,29 @@
       <c r="R146" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="S146">
+        <v>2757</v>
+      </c>
+      <c r="T146">
+        <v>2722</v>
+      </c>
+      <c r="U146">
+        <v>2676</v>
+      </c>
+      <c r="V146">
+        <v>2810</v>
+      </c>
+      <c r="W146">
+        <v>2733</v>
+      </c>
+      <c r="X146">
+        <v>2635</v>
+      </c>
+      <c r="Y146">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>689</v>
       </c>
@@ -10556,8 +13747,29 @@
       <c r="R147" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S147">
+        <v>2753</v>
+      </c>
+      <c r="T147">
+        <v>2719</v>
+      </c>
+      <c r="U147">
+        <v>2682</v>
+      </c>
+      <c r="V147">
+        <v>2809</v>
+      </c>
+      <c r="W147">
+        <v>2730</v>
+      </c>
+      <c r="X147">
+        <v>2636</v>
+      </c>
+      <c r="Y147">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>718</v>
       </c>
@@ -10608,8 +13820,29 @@
       <c r="R148" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="149" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S148">
+        <v>2751</v>
+      </c>
+      <c r="T148">
+        <v>2720</v>
+      </c>
+      <c r="U148">
+        <v>2675</v>
+      </c>
+      <c r="V148">
+        <v>2810</v>
+      </c>
+      <c r="W148">
+        <v>2736</v>
+      </c>
+      <c r="X148">
+        <v>2638</v>
+      </c>
+      <c r="Y148">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>695</v>
       </c>
@@ -10660,8 +13893,29 @@
       <c r="R149" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="150" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S149">
+        <v>2755</v>
+      </c>
+      <c r="T149">
+        <v>2719</v>
+      </c>
+      <c r="U149">
+        <v>2677</v>
+      </c>
+      <c r="V149">
+        <v>2811</v>
+      </c>
+      <c r="W149">
+        <v>2736</v>
+      </c>
+      <c r="X149">
+        <v>2637</v>
+      </c>
+      <c r="Y149">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>657</v>
       </c>
@@ -10712,8 +13966,29 @@
       <c r="R150" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="151" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S150">
+        <v>2752</v>
+      </c>
+      <c r="T150">
+        <v>2720</v>
+      </c>
+      <c r="U150">
+        <v>2676</v>
+      </c>
+      <c r="V150">
+        <v>2808</v>
+      </c>
+      <c r="W150">
+        <v>2734</v>
+      </c>
+      <c r="X150">
+        <v>2639</v>
+      </c>
+      <c r="Y150">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>654</v>
       </c>
@@ -10764,8 +14039,29 @@
       <c r="R151" s="12">
         <v>2841</v>
       </c>
-    </row>
-    <row r="152" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S151">
+        <v>2754</v>
+      </c>
+      <c r="T151">
+        <v>2719</v>
+      </c>
+      <c r="U151">
+        <v>2679</v>
+      </c>
+      <c r="V151">
+        <v>2811</v>
+      </c>
+      <c r="W151">
+        <v>2733</v>
+      </c>
+      <c r="X151">
+        <v>2640</v>
+      </c>
+      <c r="Y151">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>693</v>
       </c>
@@ -10816,8 +14112,29 @@
       <c r="R152" s="12">
         <v>2840</v>
       </c>
-    </row>
-    <row r="153" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S152">
+        <v>2753</v>
+      </c>
+      <c r="T152">
+        <v>2722</v>
+      </c>
+      <c r="U152">
+        <v>2676</v>
+      </c>
+      <c r="V152">
+        <v>2810</v>
+      </c>
+      <c r="W152">
+        <v>2736</v>
+      </c>
+      <c r="X152">
+        <v>2634</v>
+      </c>
+      <c r="Y152">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>702</v>
       </c>
@@ -10868,8 +14185,29 @@
       <c r="R153" s="12">
         <v>2842</v>
       </c>
-    </row>
-    <row r="154" spans="1:18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S153">
+        <v>2749</v>
+      </c>
+      <c r="T153">
+        <v>2719</v>
+      </c>
+      <c r="U153">
+        <v>2674</v>
+      </c>
+      <c r="V153">
+        <v>2810</v>
+      </c>
+      <c r="W153">
+        <v>2737</v>
+      </c>
+      <c r="X153">
+        <v>2640</v>
+      </c>
+      <c r="Y153">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>714</v>
       </c>
@@ -10919,6 +14257,27 @@
       </c>
       <c r="R154" s="12">
         <v>2841</v>
+      </c>
+      <c r="S154">
+        <v>2749</v>
+      </c>
+      <c r="T154">
+        <v>2720</v>
+      </c>
+      <c r="U154">
+        <v>2679</v>
+      </c>
+      <c r="V154">
+        <v>2811</v>
+      </c>
+      <c r="W154">
+        <v>2737</v>
+      </c>
+      <c r="X154">
+        <v>2635</v>
+      </c>
+      <c r="Y154">
+        <v>2778</v>
       </c>
     </row>
   </sheetData>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="751">
   <si>
     <t>Adam</t>
   </si>
@@ -2549,6 +2549,24 @@
   </si>
   <si>
     <t>demographics_Occupation</t>
+  </si>
+  <si>
+    <t>demographics_Children</t>
+  </si>
+  <si>
+    <t>demographics_18_to_24</t>
+  </si>
+  <si>
+    <t>demographics_Day_to_day_purchases</t>
+  </si>
+  <si>
+    <t>demographics_New_Vehicle</t>
+  </si>
+  <si>
+    <t>demographics_12_to_17</t>
+  </si>
+  <si>
+    <t>demographics_Residence</t>
   </si>
 </sst>
 </file>
@@ -2996,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y154"/>
+  <dimension ref="A1:AE154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3048,7 @@
     <col min="26" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>569</v>
       </c>
@@ -3106,8 +3124,26 @@
       <c r="Y1" s="14" t="s">
         <v>744</v>
       </c>
+      <c r="Z1" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>750</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>669</v>
       </c>
@@ -3183,8 +3219,26 @@
       <c r="Y2">
         <v>2772</v>
       </c>
+      <c r="Z2">
+        <v>2879</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB2">
+        <v>2916</v>
+      </c>
+      <c r="AC2">
+        <v>2913</v>
+      </c>
+      <c r="AD2">
+        <v>2887</v>
+      </c>
+      <c r="AE2">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
@@ -3256,8 +3310,26 @@
       <c r="Y3">
         <v>2774</v>
       </c>
+      <c r="Z3">
+        <v>2879</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB3">
+        <v>2916</v>
+      </c>
+      <c r="AC3">
+        <v>2913</v>
+      </c>
+      <c r="AD3">
+        <v>2887</v>
+      </c>
+      <c r="AE3">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>618</v>
       </c>
@@ -3329,8 +3401,26 @@
       <c r="Y4">
         <v>2774</v>
       </c>
+      <c r="Z4">
+        <v>2877</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB4">
+        <v>2916</v>
+      </c>
+      <c r="AC4">
+        <v>2914</v>
+      </c>
+      <c r="AD4">
+        <v>2887</v>
+      </c>
+      <c r="AE4">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>677</v>
       </c>
@@ -3402,8 +3492,26 @@
       <c r="Y5">
         <v>2771</v>
       </c>
+      <c r="Z5">
+        <v>2877</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB5">
+        <v>2916</v>
+      </c>
+      <c r="AC5">
+        <v>2913</v>
+      </c>
+      <c r="AD5">
+        <v>2887</v>
+      </c>
+      <c r="AE5">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>634</v>
       </c>
@@ -3475,8 +3583,26 @@
       <c r="Y6">
         <v>2774</v>
       </c>
+      <c r="Z6">
+        <v>2879</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB6">
+        <v>2916</v>
+      </c>
+      <c r="AC6">
+        <v>2914</v>
+      </c>
+      <c r="AD6">
+        <v>2887</v>
+      </c>
+      <c r="AE6">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>604</v>
       </c>
@@ -3548,8 +3674,26 @@
       <c r="Y7">
         <v>2777</v>
       </c>
+      <c r="Z7">
+        <v>2877</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB7">
+        <v>2916</v>
+      </c>
+      <c r="AC7">
+        <v>2914</v>
+      </c>
+      <c r="AD7">
+        <v>2887</v>
+      </c>
+      <c r="AE7">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>596</v>
       </c>
@@ -3621,8 +3765,26 @@
       <c r="Y8">
         <v>2772</v>
       </c>
+      <c r="Z8">
+        <v>2878</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB8">
+        <v>2916</v>
+      </c>
+      <c r="AC8">
+        <v>2913</v>
+      </c>
+      <c r="AD8">
+        <v>2887</v>
+      </c>
+      <c r="AE8">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>609</v>
       </c>
@@ -3694,8 +3856,26 @@
       <c r="Y9">
         <v>2774</v>
       </c>
+      <c r="Z9">
+        <v>2877</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB9">
+        <v>2916</v>
+      </c>
+      <c r="AC9">
+        <v>2914</v>
+      </c>
+      <c r="AD9">
+        <v>2887</v>
+      </c>
+      <c r="AE9">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>663</v>
       </c>
@@ -3767,8 +3947,26 @@
       <c r="Y10">
         <v>2777</v>
       </c>
+      <c r="Z10">
+        <v>2879</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB10">
+        <v>2916</v>
+      </c>
+      <c r="AC10">
+        <v>2913</v>
+      </c>
+      <c r="AD10">
+        <v>2887</v>
+      </c>
+      <c r="AE10">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>567</v>
       </c>
@@ -3840,8 +4038,26 @@
       <c r="Y11">
         <v>2776</v>
       </c>
+      <c r="Z11">
+        <v>2878</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB11">
+        <v>2916</v>
+      </c>
+      <c r="AC11">
+        <v>2914</v>
+      </c>
+      <c r="AD11">
+        <v>2887</v>
+      </c>
+      <c r="AE11">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>717</v>
       </c>
@@ -3913,8 +4129,26 @@
       <c r="Y12">
         <v>2775</v>
       </c>
+      <c r="Z12">
+        <v>2878</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB12">
+        <v>2916</v>
+      </c>
+      <c r="AC12">
+        <v>2914</v>
+      </c>
+      <c r="AD12">
+        <v>2887</v>
+      </c>
+      <c r="AE12">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>661</v>
       </c>
@@ -3986,8 +4220,26 @@
       <c r="Y13">
         <v>2772</v>
       </c>
+      <c r="Z13">
+        <v>2878</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB13">
+        <v>2916</v>
+      </c>
+      <c r="AC13">
+        <v>2913</v>
+      </c>
+      <c r="AD13">
+        <v>2887</v>
+      </c>
+      <c r="AE13">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>599</v>
       </c>
@@ -4059,8 +4311,26 @@
       <c r="Y14">
         <v>2775</v>
       </c>
+      <c r="Z14">
+        <v>2878</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB14">
+        <v>2916</v>
+      </c>
+      <c r="AC14">
+        <v>2913</v>
+      </c>
+      <c r="AD14">
+        <v>2887</v>
+      </c>
+      <c r="AE14">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>586</v>
       </c>
@@ -4132,8 +4402,26 @@
       <c r="Y15">
         <v>2771</v>
       </c>
+      <c r="Z15">
+        <v>2877</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB15">
+        <v>2916</v>
+      </c>
+      <c r="AC15">
+        <v>2914</v>
+      </c>
+      <c r="AD15">
+        <v>2887</v>
+      </c>
+      <c r="AE15">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>606</v>
       </c>
@@ -4205,8 +4493,26 @@
       <c r="Y16">
         <v>2778</v>
       </c>
+      <c r="Z16">
+        <v>2878</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB16">
+        <v>2916</v>
+      </c>
+      <c r="AC16">
+        <v>2914</v>
+      </c>
+      <c r="AD16">
+        <v>2887</v>
+      </c>
+      <c r="AE16">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>587</v>
       </c>
@@ -4278,8 +4584,26 @@
       <c r="Y17">
         <v>2774</v>
       </c>
+      <c r="Z17">
+        <v>2877</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB17">
+        <v>2916</v>
+      </c>
+      <c r="AC17">
+        <v>2913</v>
+      </c>
+      <c r="AD17">
+        <v>2887</v>
+      </c>
+      <c r="AE17">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>628</v>
       </c>
@@ -4351,8 +4675,26 @@
       <c r="Y18">
         <v>2771</v>
       </c>
+      <c r="Z18">
+        <v>2877</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB18">
+        <v>2916</v>
+      </c>
+      <c r="AC18">
+        <v>2913</v>
+      </c>
+      <c r="AD18">
+        <v>2887</v>
+      </c>
+      <c r="AE18">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>583</v>
       </c>
@@ -4424,8 +4766,26 @@
       <c r="Y19">
         <v>2771</v>
       </c>
+      <c r="Z19">
+        <v>2877</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB19">
+        <v>2916</v>
+      </c>
+      <c r="AC19">
+        <v>2914</v>
+      </c>
+      <c r="AD19">
+        <v>2887</v>
+      </c>
+      <c r="AE19">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>713</v>
       </c>
@@ -4497,8 +4857,26 @@
       <c r="Y20">
         <v>2776</v>
       </c>
+      <c r="Z20">
+        <v>2879</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB20">
+        <v>2916</v>
+      </c>
+      <c r="AC20">
+        <v>2914</v>
+      </c>
+      <c r="AD20">
+        <v>2887</v>
+      </c>
+      <c r="AE20">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>659</v>
       </c>
@@ -4570,8 +4948,26 @@
       <c r="Y21">
         <v>2773</v>
       </c>
+      <c r="Z21">
+        <v>2877</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB21">
+        <v>2916</v>
+      </c>
+      <c r="AC21">
+        <v>2913</v>
+      </c>
+      <c r="AD21">
+        <v>2887</v>
+      </c>
+      <c r="AE21">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>708</v>
       </c>
@@ -4643,8 +5039,26 @@
       <c r="Y22">
         <v>2771</v>
       </c>
+      <c r="Z22">
+        <v>2877</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB22">
+        <v>2916</v>
+      </c>
+      <c r="AC22">
+        <v>2914</v>
+      </c>
+      <c r="AD22">
+        <v>2887</v>
+      </c>
+      <c r="AE22">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>622</v>
       </c>
@@ -4716,8 +5130,26 @@
       <c r="Y23">
         <v>2774</v>
       </c>
+      <c r="Z23">
+        <v>2877</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB23">
+        <v>2916</v>
+      </c>
+      <c r="AC23">
+        <v>2913</v>
+      </c>
+      <c r="AD23">
+        <v>2887</v>
+      </c>
+      <c r="AE23">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>593</v>
       </c>
@@ -4789,8 +5221,26 @@
       <c r="Y24">
         <v>2774</v>
       </c>
+      <c r="Z24">
+        <v>2879</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB24">
+        <v>2916</v>
+      </c>
+      <c r="AC24">
+        <v>2913</v>
+      </c>
+      <c r="AD24">
+        <v>2887</v>
+      </c>
+      <c r="AE24">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>649</v>
       </c>
@@ -4862,8 +5312,26 @@
       <c r="Y25">
         <v>2773</v>
       </c>
+      <c r="Z25">
+        <v>2879</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB25">
+        <v>2916</v>
+      </c>
+      <c r="AC25">
+        <v>2913</v>
+      </c>
+      <c r="AD25">
+        <v>2887</v>
+      </c>
+      <c r="AE25">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>709</v>
       </c>
@@ -4935,8 +5403,26 @@
       <c r="Y26">
         <v>2772</v>
       </c>
+      <c r="Z26">
+        <v>2877</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB26">
+        <v>2916</v>
+      </c>
+      <c r="AC26">
+        <v>2914</v>
+      </c>
+      <c r="AD26">
+        <v>2887</v>
+      </c>
+      <c r="AE26">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>619</v>
       </c>
@@ -5008,8 +5494,26 @@
       <c r="Y27">
         <v>2775</v>
       </c>
+      <c r="Z27">
+        <v>2877</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB27">
+        <v>2916</v>
+      </c>
+      <c r="AC27">
+        <v>2914</v>
+      </c>
+      <c r="AD27">
+        <v>2887</v>
+      </c>
+      <c r="AE27">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>673</v>
       </c>
@@ -5081,8 +5585,26 @@
       <c r="Y28">
         <v>2773</v>
       </c>
+      <c r="Z28">
+        <v>2878</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB28">
+        <v>2916</v>
+      </c>
+      <c r="AC28">
+        <v>2913</v>
+      </c>
+      <c r="AD28">
+        <v>2887</v>
+      </c>
+      <c r="AE28">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>665</v>
       </c>
@@ -5154,8 +5676,26 @@
       <c r="Y29">
         <v>2776</v>
       </c>
+      <c r="Z29">
+        <v>2879</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB29">
+        <v>2916</v>
+      </c>
+      <c r="AC29">
+        <v>2914</v>
+      </c>
+      <c r="AD29">
+        <v>2887</v>
+      </c>
+      <c r="AE29">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>650</v>
       </c>
@@ -5227,8 +5767,26 @@
       <c r="Y30">
         <v>2774</v>
       </c>
+      <c r="Z30">
+        <v>2879</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB30">
+        <v>2916</v>
+      </c>
+      <c r="AC30">
+        <v>2913</v>
+      </c>
+      <c r="AD30">
+        <v>2887</v>
+      </c>
+      <c r="AE30">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>574</v>
       </c>
@@ -5300,8 +5858,26 @@
       <c r="Y31">
         <v>2773</v>
       </c>
+      <c r="Z31">
+        <v>2877</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB31">
+        <v>2916</v>
+      </c>
+      <c r="AC31">
+        <v>2913</v>
+      </c>
+      <c r="AD31">
+        <v>2887</v>
+      </c>
+      <c r="AE31">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="32" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>584</v>
       </c>
@@ -5373,8 +5949,26 @@
       <c r="Y32">
         <v>2778</v>
       </c>
+      <c r="Z32">
+        <v>2879</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB32">
+        <v>2916</v>
+      </c>
+      <c r="AC32">
+        <v>2914</v>
+      </c>
+      <c r="AD32">
+        <v>2887</v>
+      </c>
+      <c r="AE32">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>715</v>
       </c>
@@ -5446,8 +6040,26 @@
       <c r="Y33">
         <v>2778</v>
       </c>
+      <c r="Z33">
+        <v>2878</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB33">
+        <v>2916</v>
+      </c>
+      <c r="AC33">
+        <v>2914</v>
+      </c>
+      <c r="AD33">
+        <v>2887</v>
+      </c>
+      <c r="AE33">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>720</v>
       </c>
@@ -5519,8 +6131,26 @@
       <c r="Y34">
         <v>2778</v>
       </c>
+      <c r="Z34">
+        <v>2879</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB34">
+        <v>2916</v>
+      </c>
+      <c r="AC34">
+        <v>2913</v>
+      </c>
+      <c r="AD34">
+        <v>2887</v>
+      </c>
+      <c r="AE34">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>644</v>
       </c>
@@ -5592,8 +6222,26 @@
       <c r="Y35">
         <v>2773</v>
       </c>
+      <c r="Z35">
+        <v>2878</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB35">
+        <v>2916</v>
+      </c>
+      <c r="AC35">
+        <v>2913</v>
+      </c>
+      <c r="AD35">
+        <v>2887</v>
+      </c>
+      <c r="AE35">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>598</v>
       </c>
@@ -5665,8 +6313,26 @@
       <c r="Y36">
         <v>2777</v>
       </c>
+      <c r="Z36">
+        <v>2879</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB36">
+        <v>2916</v>
+      </c>
+      <c r="AC36">
+        <v>2913</v>
+      </c>
+      <c r="AD36">
+        <v>2887</v>
+      </c>
+      <c r="AE36">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>678</v>
       </c>
@@ -5738,8 +6404,26 @@
       <c r="Y37">
         <v>2771</v>
       </c>
+      <c r="Z37">
+        <v>2878</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB37">
+        <v>2916</v>
+      </c>
+      <c r="AC37">
+        <v>2914</v>
+      </c>
+      <c r="AD37">
+        <v>2887</v>
+      </c>
+      <c r="AE37">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>711</v>
       </c>
@@ -5811,8 +6495,26 @@
       <c r="Y38">
         <v>2777</v>
       </c>
+      <c r="Z38">
+        <v>2877</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB38">
+        <v>2916</v>
+      </c>
+      <c r="AC38">
+        <v>2913</v>
+      </c>
+      <c r="AD38">
+        <v>2887</v>
+      </c>
+      <c r="AE38">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>668</v>
       </c>
@@ -5884,8 +6586,26 @@
       <c r="Y39">
         <v>2775</v>
       </c>
+      <c r="Z39">
+        <v>2879</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB39">
+        <v>2916</v>
+      </c>
+      <c r="AC39">
+        <v>2914</v>
+      </c>
+      <c r="AD39">
+        <v>2887</v>
+      </c>
+      <c r="AE39">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>647</v>
       </c>
@@ -5957,8 +6677,26 @@
       <c r="Y40">
         <v>2777</v>
       </c>
+      <c r="Z40">
+        <v>2878</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB40">
+        <v>2916</v>
+      </c>
+      <c r="AC40">
+        <v>2913</v>
+      </c>
+      <c r="AD40">
+        <v>2887</v>
+      </c>
+      <c r="AE40">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>645</v>
       </c>
@@ -6030,8 +6768,26 @@
       <c r="Y41">
         <v>2774</v>
       </c>
+      <c r="Z41">
+        <v>2877</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB41">
+        <v>2916</v>
+      </c>
+      <c r="AC41">
+        <v>2914</v>
+      </c>
+      <c r="AD41">
+        <v>2887</v>
+      </c>
+      <c r="AE41">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>612</v>
       </c>
@@ -6103,8 +6859,26 @@
       <c r="Y42">
         <v>2773</v>
       </c>
+      <c r="Z42">
+        <v>2879</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB42">
+        <v>2916</v>
+      </c>
+      <c r="AC42">
+        <v>2913</v>
+      </c>
+      <c r="AD42">
+        <v>2887</v>
+      </c>
+      <c r="AE42">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>624</v>
       </c>
@@ -6176,8 +6950,26 @@
       <c r="Y43">
         <v>2775</v>
       </c>
+      <c r="Z43">
+        <v>2877</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB43">
+        <v>2916</v>
+      </c>
+      <c r="AC43">
+        <v>2913</v>
+      </c>
+      <c r="AD43">
+        <v>2887</v>
+      </c>
+      <c r="AE43">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>638</v>
       </c>
@@ -6249,8 +7041,26 @@
       <c r="Y44">
         <v>2778</v>
       </c>
+      <c r="Z44">
+        <v>2877</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB44">
+        <v>2916</v>
+      </c>
+      <c r="AC44">
+        <v>2913</v>
+      </c>
+      <c r="AD44">
+        <v>2887</v>
+      </c>
+      <c r="AE44">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>712</v>
       </c>
@@ -6322,8 +7132,26 @@
       <c r="Y45">
         <v>2771</v>
       </c>
+      <c r="Z45">
+        <v>2877</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB45">
+        <v>2916</v>
+      </c>
+      <c r="AC45">
+        <v>2914</v>
+      </c>
+      <c r="AD45">
+        <v>2887</v>
+      </c>
+      <c r="AE45">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>632</v>
       </c>
@@ -6395,8 +7223,26 @@
       <c r="Y46">
         <v>2777</v>
       </c>
+      <c r="Z46">
+        <v>2878</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB46">
+        <v>2916</v>
+      </c>
+      <c r="AC46">
+        <v>2914</v>
+      </c>
+      <c r="AD46">
+        <v>2887</v>
+      </c>
+      <c r="AE46">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>710</v>
       </c>
@@ -6468,8 +7314,26 @@
       <c r="Y47">
         <v>2771</v>
       </c>
+      <c r="Z47">
+        <v>2878</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB47">
+        <v>2916</v>
+      </c>
+      <c r="AC47">
+        <v>2914</v>
+      </c>
+      <c r="AD47">
+        <v>2887</v>
+      </c>
+      <c r="AE47">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>655</v>
       </c>
@@ -6541,8 +7405,26 @@
       <c r="Y48">
         <v>2773</v>
       </c>
+      <c r="Z48">
+        <v>2879</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB48">
+        <v>2916</v>
+      </c>
+      <c r="AC48">
+        <v>2913</v>
+      </c>
+      <c r="AD48">
+        <v>2887</v>
+      </c>
+      <c r="AE48">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>671</v>
       </c>
@@ -6614,8 +7496,26 @@
       <c r="Y49">
         <v>2771</v>
       </c>
+      <c r="Z49">
+        <v>2877</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB49">
+        <v>2916</v>
+      </c>
+      <c r="AC49">
+        <v>2914</v>
+      </c>
+      <c r="AD49">
+        <v>2887</v>
+      </c>
+      <c r="AE49">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>652</v>
       </c>
@@ -6687,8 +7587,26 @@
       <c r="Y50">
         <v>2774</v>
       </c>
+      <c r="Z50">
+        <v>2878</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB50">
+        <v>2916</v>
+      </c>
+      <c r="AC50">
+        <v>2913</v>
+      </c>
+      <c r="AD50">
+        <v>2887</v>
+      </c>
+      <c r="AE50">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>690</v>
       </c>
@@ -6760,8 +7678,26 @@
       <c r="Y51">
         <v>2771</v>
       </c>
+      <c r="Z51">
+        <v>2878</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB51">
+        <v>2916</v>
+      </c>
+      <c r="AC51">
+        <v>2914</v>
+      </c>
+      <c r="AD51">
+        <v>2887</v>
+      </c>
+      <c r="AE51">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>640</v>
       </c>
@@ -6833,8 +7769,26 @@
       <c r="Y52">
         <v>2773</v>
       </c>
+      <c r="Z52">
+        <v>2878</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB52">
+        <v>2916</v>
+      </c>
+      <c r="AC52">
+        <v>2913</v>
+      </c>
+      <c r="AD52">
+        <v>2887</v>
+      </c>
+      <c r="AE52">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>575</v>
       </c>
@@ -6906,8 +7860,26 @@
       <c r="Y53">
         <v>2777</v>
       </c>
+      <c r="Z53">
+        <v>2879</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB53">
+        <v>2916</v>
+      </c>
+      <c r="AC53">
+        <v>2914</v>
+      </c>
+      <c r="AD53">
+        <v>2887</v>
+      </c>
+      <c r="AE53">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>613</v>
       </c>
@@ -6979,8 +7951,26 @@
       <c r="Y54">
         <v>2774</v>
       </c>
+      <c r="Z54">
+        <v>2878</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB54">
+        <v>2916</v>
+      </c>
+      <c r="AC54">
+        <v>2914</v>
+      </c>
+      <c r="AD54">
+        <v>2887</v>
+      </c>
+      <c r="AE54">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>576</v>
       </c>
@@ -7052,8 +8042,26 @@
       <c r="Y55">
         <v>2778</v>
       </c>
+      <c r="Z55">
+        <v>2878</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB55">
+        <v>2916</v>
+      </c>
+      <c r="AC55">
+        <v>2913</v>
+      </c>
+      <c r="AD55">
+        <v>2887</v>
+      </c>
+      <c r="AE55">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>630</v>
       </c>
@@ -7125,8 +8133,26 @@
       <c r="Y56">
         <v>2772</v>
       </c>
+      <c r="Z56">
+        <v>2877</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB56">
+        <v>2916</v>
+      </c>
+      <c r="AC56">
+        <v>2914</v>
+      </c>
+      <c r="AD56">
+        <v>2887</v>
+      </c>
+      <c r="AE56">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>686</v>
       </c>
@@ -7198,8 +8224,26 @@
       <c r="Y57">
         <v>2774</v>
       </c>
+      <c r="Z57">
+        <v>2879</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB57">
+        <v>2916</v>
+      </c>
+      <c r="AC57">
+        <v>2914</v>
+      </c>
+      <c r="AD57">
+        <v>2887</v>
+      </c>
+      <c r="AE57">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>681</v>
       </c>
@@ -7271,8 +8315,26 @@
       <c r="Y58">
         <v>2776</v>
       </c>
+      <c r="Z58">
+        <v>2878</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB58">
+        <v>2916</v>
+      </c>
+      <c r="AC58">
+        <v>2914</v>
+      </c>
+      <c r="AD58">
+        <v>2887</v>
+      </c>
+      <c r="AE58">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>679</v>
       </c>
@@ -7344,8 +8406,26 @@
       <c r="Y59">
         <v>2771</v>
       </c>
+      <c r="Z59">
+        <v>2877</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB59">
+        <v>2916</v>
+      </c>
+      <c r="AC59">
+        <v>2914</v>
+      </c>
+      <c r="AD59">
+        <v>2887</v>
+      </c>
+      <c r="AE59">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>674</v>
       </c>
@@ -7417,8 +8497,26 @@
       <c r="Y60">
         <v>2774</v>
       </c>
+      <c r="Z60">
+        <v>2879</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB60">
+        <v>2916</v>
+      </c>
+      <c r="AC60">
+        <v>2913</v>
+      </c>
+      <c r="AD60">
+        <v>2887</v>
+      </c>
+      <c r="AE60">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>573</v>
       </c>
@@ -7490,8 +8588,26 @@
       <c r="Y61">
         <v>2773</v>
       </c>
+      <c r="Z61">
+        <v>2877</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB61">
+        <v>2916</v>
+      </c>
+      <c r="AC61">
+        <v>2913</v>
+      </c>
+      <c r="AD61">
+        <v>2887</v>
+      </c>
+      <c r="AE61">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>636</v>
       </c>
@@ -7563,8 +8679,26 @@
       <c r="Y62">
         <v>2771</v>
       </c>
+      <c r="Z62">
+        <v>2879</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB62">
+        <v>2916</v>
+      </c>
+      <c r="AC62">
+        <v>2913</v>
+      </c>
+      <c r="AD62">
+        <v>2887</v>
+      </c>
+      <c r="AE62">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>642</v>
       </c>
@@ -7636,8 +8770,26 @@
       <c r="Y63">
         <v>2778</v>
       </c>
+      <c r="Z63">
+        <v>2879</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB63">
+        <v>2916</v>
+      </c>
+      <c r="AC63">
+        <v>2913</v>
+      </c>
+      <c r="AD63">
+        <v>2887</v>
+      </c>
+      <c r="AE63">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>581</v>
       </c>
@@ -7709,8 +8861,26 @@
       <c r="Y64">
         <v>2774</v>
       </c>
+      <c r="Z64">
+        <v>2879</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB64">
+        <v>2916</v>
+      </c>
+      <c r="AC64">
+        <v>2914</v>
+      </c>
+      <c r="AD64">
+        <v>2887</v>
+      </c>
+      <c r="AE64">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>666</v>
       </c>
@@ -7782,8 +8952,26 @@
       <c r="Y65">
         <v>2777</v>
       </c>
+      <c r="Z65">
+        <v>2879</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB65">
+        <v>2916</v>
+      </c>
+      <c r="AC65">
+        <v>2914</v>
+      </c>
+      <c r="AD65">
+        <v>2887</v>
+      </c>
+      <c r="AE65">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>676</v>
       </c>
@@ -7855,8 +9043,26 @@
       <c r="Y66">
         <v>2774</v>
       </c>
+      <c r="Z66">
+        <v>2879</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB66">
+        <v>2916</v>
+      </c>
+      <c r="AC66">
+        <v>2914</v>
+      </c>
+      <c r="AD66">
+        <v>2887</v>
+      </c>
+      <c r="AE66">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>601</v>
       </c>
@@ -7928,8 +9134,26 @@
       <c r="Y67">
         <v>2774</v>
       </c>
+      <c r="Z67">
+        <v>2877</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB67">
+        <v>2916</v>
+      </c>
+      <c r="AC67">
+        <v>2914</v>
+      </c>
+      <c r="AD67">
+        <v>2887</v>
+      </c>
+      <c r="AE67">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>595</v>
       </c>
@@ -8001,8 +9225,26 @@
       <c r="Y68">
         <v>2777</v>
       </c>
+      <c r="Z68">
+        <v>2878</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB68">
+        <v>2916</v>
+      </c>
+      <c r="AC68">
+        <v>2913</v>
+      </c>
+      <c r="AD68">
+        <v>2887</v>
+      </c>
+      <c r="AE68">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>658</v>
       </c>
@@ -8074,8 +9316,26 @@
       <c r="Y69">
         <v>2776</v>
       </c>
+      <c r="Z69">
+        <v>2879</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB69">
+        <v>2916</v>
+      </c>
+      <c r="AC69">
+        <v>2913</v>
+      </c>
+      <c r="AD69">
+        <v>2887</v>
+      </c>
+      <c r="AE69">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>626</v>
       </c>
@@ -8147,8 +9407,26 @@
       <c r="Y70">
         <v>2771</v>
       </c>
+      <c r="Z70">
+        <v>2878</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB70">
+        <v>2916</v>
+      </c>
+      <c r="AC70">
+        <v>2914</v>
+      </c>
+      <c r="AD70">
+        <v>2887</v>
+      </c>
+      <c r="AE70">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>578</v>
       </c>
@@ -8220,8 +9498,26 @@
       <c r="Y71">
         <v>2771</v>
       </c>
+      <c r="Z71">
+        <v>2878</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB71">
+        <v>2916</v>
+      </c>
+      <c r="AC71">
+        <v>2914</v>
+      </c>
+      <c r="AD71">
+        <v>2887</v>
+      </c>
+      <c r="AE71">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>656</v>
       </c>
@@ -8293,8 +9589,26 @@
       <c r="Y72">
         <v>2778</v>
       </c>
+      <c r="Z72">
+        <v>2878</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB72">
+        <v>2916</v>
+      </c>
+      <c r="AC72">
+        <v>2914</v>
+      </c>
+      <c r="AD72">
+        <v>2887</v>
+      </c>
+      <c r="AE72">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="73" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>704</v>
       </c>
@@ -8366,8 +9680,26 @@
       <c r="Y73">
         <v>2772</v>
       </c>
+      <c r="Z73">
+        <v>2878</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB73">
+        <v>2916</v>
+      </c>
+      <c r="AC73">
+        <v>2914</v>
+      </c>
+      <c r="AD73">
+        <v>2887</v>
+      </c>
+      <c r="AE73">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>571</v>
       </c>
@@ -8439,8 +9771,26 @@
       <c r="Y74">
         <v>2773</v>
       </c>
+      <c r="Z74">
+        <v>2879</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB74">
+        <v>2916</v>
+      </c>
+      <c r="AC74">
+        <v>2913</v>
+      </c>
+      <c r="AD74">
+        <v>2887</v>
+      </c>
+      <c r="AE74">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="75" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>653</v>
       </c>
@@ -8512,8 +9862,26 @@
       <c r="Y75">
         <v>2775</v>
       </c>
+      <c r="Z75">
+        <v>2879</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB75">
+        <v>2916</v>
+      </c>
+      <c r="AC75">
+        <v>2913</v>
+      </c>
+      <c r="AD75">
+        <v>2887</v>
+      </c>
+      <c r="AE75">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="76" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>605</v>
       </c>
@@ -8585,8 +9953,26 @@
       <c r="Y76">
         <v>2773</v>
       </c>
+      <c r="Z76">
+        <v>2877</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB76">
+        <v>2916</v>
+      </c>
+      <c r="AC76">
+        <v>2914</v>
+      </c>
+      <c r="AD76">
+        <v>2887</v>
+      </c>
+      <c r="AE76">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="77" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>691</v>
       </c>
@@ -8658,8 +10044,26 @@
       <c r="Y77">
         <v>2773</v>
       </c>
+      <c r="Z77">
+        <v>2877</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB77">
+        <v>2916</v>
+      </c>
+      <c r="AC77">
+        <v>2914</v>
+      </c>
+      <c r="AD77">
+        <v>2887</v>
+      </c>
+      <c r="AE77">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="78" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>716</v>
       </c>
@@ -8731,8 +10135,26 @@
       <c r="Y78">
         <v>2771</v>
       </c>
+      <c r="Z78">
+        <v>2879</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB78">
+        <v>2916</v>
+      </c>
+      <c r="AC78">
+        <v>2914</v>
+      </c>
+      <c r="AD78">
+        <v>2887</v>
+      </c>
+      <c r="AE78">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="79" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>643</v>
       </c>
@@ -8804,8 +10226,26 @@
       <c r="Y79">
         <v>2775</v>
       </c>
+      <c r="Z79">
+        <v>2878</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB79">
+        <v>2916</v>
+      </c>
+      <c r="AC79">
+        <v>2913</v>
+      </c>
+      <c r="AD79">
+        <v>2887</v>
+      </c>
+      <c r="AE79">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="80" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>664</v>
       </c>
@@ -8877,8 +10317,26 @@
       <c r="Y80">
         <v>2776</v>
       </c>
+      <c r="Z80">
+        <v>2879</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB80">
+        <v>2916</v>
+      </c>
+      <c r="AC80">
+        <v>2914</v>
+      </c>
+      <c r="AD80">
+        <v>2887</v>
+      </c>
+      <c r="AE80">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>588</v>
       </c>
@@ -8950,8 +10408,26 @@
       <c r="Y81">
         <v>2774</v>
       </c>
+      <c r="Z81">
+        <v>2877</v>
+      </c>
+      <c r="AA81" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB81">
+        <v>2916</v>
+      </c>
+      <c r="AC81">
+        <v>2914</v>
+      </c>
+      <c r="AD81">
+        <v>2887</v>
+      </c>
+      <c r="AE81">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="82" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>597</v>
       </c>
@@ -9023,8 +10499,26 @@
       <c r="Y82">
         <v>2778</v>
       </c>
+      <c r="Z82">
+        <v>2877</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB82">
+        <v>2916</v>
+      </c>
+      <c r="AC82">
+        <v>2913</v>
+      </c>
+      <c r="AD82">
+        <v>2887</v>
+      </c>
+      <c r="AE82">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>633</v>
       </c>
@@ -9096,8 +10590,26 @@
       <c r="Y83">
         <v>2773</v>
       </c>
+      <c r="Z83">
+        <v>2878</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB83">
+        <v>2916</v>
+      </c>
+      <c r="AC83">
+        <v>2913</v>
+      </c>
+      <c r="AD83">
+        <v>2887</v>
+      </c>
+      <c r="AE83">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="84" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>697</v>
       </c>
@@ -9169,8 +10681,26 @@
       <c r="Y84">
         <v>2774</v>
       </c>
+      <c r="Z84">
+        <v>2878</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB84">
+        <v>2916</v>
+      </c>
+      <c r="AC84">
+        <v>2914</v>
+      </c>
+      <c r="AD84">
+        <v>2887</v>
+      </c>
+      <c r="AE84">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>580</v>
       </c>
@@ -9242,8 +10772,26 @@
       <c r="Y85">
         <v>2775</v>
       </c>
+      <c r="Z85">
+        <v>2878</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB85">
+        <v>2916</v>
+      </c>
+      <c r="AC85">
+        <v>2913</v>
+      </c>
+      <c r="AD85">
+        <v>2887</v>
+      </c>
+      <c r="AE85">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="86" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>641</v>
       </c>
@@ -9315,8 +10863,26 @@
       <c r="Y86">
         <v>2775</v>
       </c>
+      <c r="Z86">
+        <v>2878</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB86">
+        <v>2916</v>
+      </c>
+      <c r="AC86">
+        <v>2913</v>
+      </c>
+      <c r="AD86">
+        <v>2887</v>
+      </c>
+      <c r="AE86">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>705</v>
       </c>
@@ -9388,8 +10954,26 @@
       <c r="Y87">
         <v>2776</v>
       </c>
+      <c r="Z87">
+        <v>2877</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB87">
+        <v>2916</v>
+      </c>
+      <c r="AC87">
+        <v>2914</v>
+      </c>
+      <c r="AD87">
+        <v>2887</v>
+      </c>
+      <c r="AE87">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="88" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>684</v>
       </c>
@@ -9461,8 +11045,26 @@
       <c r="Y88">
         <v>2772</v>
       </c>
+      <c r="Z88">
+        <v>2877</v>
+      </c>
+      <c r="AA88" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB88">
+        <v>2916</v>
+      </c>
+      <c r="AC88">
+        <v>2914</v>
+      </c>
+      <c r="AD88">
+        <v>2887</v>
+      </c>
+      <c r="AE88">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="89" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>623</v>
       </c>
@@ -9534,8 +11136,26 @@
       <c r="Y89">
         <v>2778</v>
       </c>
+      <c r="Z89">
+        <v>2879</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB89">
+        <v>2916</v>
+      </c>
+      <c r="AC89">
+        <v>2914</v>
+      </c>
+      <c r="AD89">
+        <v>2887</v>
+      </c>
+      <c r="AE89">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="90" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>698</v>
       </c>
@@ -9607,8 +11227,26 @@
       <c r="Y90">
         <v>2774</v>
       </c>
+      <c r="Z90">
+        <v>2878</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB90">
+        <v>2916</v>
+      </c>
+      <c r="AC90">
+        <v>2914</v>
+      </c>
+      <c r="AD90">
+        <v>2887</v>
+      </c>
+      <c r="AE90">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="91" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>608</v>
       </c>
@@ -9680,8 +11318,26 @@
       <c r="Y91">
         <v>2775</v>
       </c>
+      <c r="Z91">
+        <v>2879</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB91">
+        <v>2916</v>
+      </c>
+      <c r="AC91">
+        <v>2913</v>
+      </c>
+      <c r="AD91">
+        <v>2887</v>
+      </c>
+      <c r="AE91">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="92" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>682</v>
       </c>
@@ -9753,8 +11409,26 @@
       <c r="Y92">
         <v>2775</v>
       </c>
+      <c r="Z92">
+        <v>2878</v>
+      </c>
+      <c r="AA92" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB92">
+        <v>2916</v>
+      </c>
+      <c r="AC92">
+        <v>2913</v>
+      </c>
+      <c r="AD92">
+        <v>2887</v>
+      </c>
+      <c r="AE92">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>646</v>
       </c>
@@ -9826,8 +11500,26 @@
       <c r="Y93">
         <v>2771</v>
       </c>
+      <c r="Z93">
+        <v>2877</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB93">
+        <v>2916</v>
+      </c>
+      <c r="AC93">
+        <v>2914</v>
+      </c>
+      <c r="AD93">
+        <v>2887</v>
+      </c>
+      <c r="AE93">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="94" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>683</v>
       </c>
@@ -9899,8 +11591,26 @@
       <c r="Y94">
         <v>2778</v>
       </c>
+      <c r="Z94">
+        <v>2877</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB94">
+        <v>2916</v>
+      </c>
+      <c r="AC94">
+        <v>2914</v>
+      </c>
+      <c r="AD94">
+        <v>2887</v>
+      </c>
+      <c r="AE94">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="95" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>582</v>
       </c>
@@ -9972,8 +11682,26 @@
       <c r="Y95">
         <v>2778</v>
       </c>
+      <c r="Z95">
+        <v>2877</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB95">
+        <v>2916</v>
+      </c>
+      <c r="AC95">
+        <v>2913</v>
+      </c>
+      <c r="AD95">
+        <v>2887</v>
+      </c>
+      <c r="AE95">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="96" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>629</v>
       </c>
@@ -10045,8 +11773,26 @@
       <c r="Y96">
         <v>2778</v>
       </c>
+      <c r="Z96">
+        <v>2878</v>
+      </c>
+      <c r="AA96" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB96">
+        <v>2916</v>
+      </c>
+      <c r="AC96">
+        <v>2913</v>
+      </c>
+      <c r="AD96">
+        <v>2887</v>
+      </c>
+      <c r="AE96">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>611</v>
       </c>
@@ -10118,8 +11864,26 @@
       <c r="Y97">
         <v>2775</v>
       </c>
+      <c r="Z97">
+        <v>2877</v>
+      </c>
+      <c r="AA97" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB97">
+        <v>2916</v>
+      </c>
+      <c r="AC97">
+        <v>2914</v>
+      </c>
+      <c r="AD97">
+        <v>2887</v>
+      </c>
+      <c r="AE97">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="98" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>572</v>
       </c>
@@ -10191,8 +11955,26 @@
       <c r="Y98">
         <v>2772</v>
       </c>
+      <c r="Z98">
+        <v>2879</v>
+      </c>
+      <c r="AA98" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB98">
+        <v>2916</v>
+      </c>
+      <c r="AC98">
+        <v>2913</v>
+      </c>
+      <c r="AD98">
+        <v>2887</v>
+      </c>
+      <c r="AE98">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>675</v>
       </c>
@@ -10264,8 +12046,26 @@
       <c r="Y99">
         <v>2771</v>
       </c>
+      <c r="Z99">
+        <v>2879</v>
+      </c>
+      <c r="AA99" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB99">
+        <v>2916</v>
+      </c>
+      <c r="AC99">
+        <v>2914</v>
+      </c>
+      <c r="AD99">
+        <v>2887</v>
+      </c>
+      <c r="AE99">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>617</v>
       </c>
@@ -10337,8 +12137,26 @@
       <c r="Y100">
         <v>2775</v>
       </c>
+      <c r="Z100">
+        <v>2878</v>
+      </c>
+      <c r="AA100" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB100">
+        <v>2916</v>
+      </c>
+      <c r="AC100">
+        <v>2914</v>
+      </c>
+      <c r="AD100">
+        <v>2887</v>
+      </c>
+      <c r="AE100">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>579</v>
       </c>
@@ -10410,8 +12228,26 @@
       <c r="Y101">
         <v>2771</v>
       </c>
+      <c r="Z101">
+        <v>2879</v>
+      </c>
+      <c r="AA101" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB101">
+        <v>2916</v>
+      </c>
+      <c r="AC101">
+        <v>2914</v>
+      </c>
+      <c r="AD101">
+        <v>2887</v>
+      </c>
+      <c r="AE101">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="102" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>589</v>
       </c>
@@ -10483,8 +12319,26 @@
       <c r="Y102">
         <v>2775</v>
       </c>
+      <c r="Z102">
+        <v>2878</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB102">
+        <v>2916</v>
+      </c>
+      <c r="AC102">
+        <v>2914</v>
+      </c>
+      <c r="AD102">
+        <v>2887</v>
+      </c>
+      <c r="AE102">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>591</v>
       </c>
@@ -10556,8 +12410,26 @@
       <c r="Y103">
         <v>2772</v>
       </c>
+      <c r="Z103">
+        <v>2879</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB103">
+        <v>2916</v>
+      </c>
+      <c r="AC103">
+        <v>2913</v>
+      </c>
+      <c r="AD103">
+        <v>2887</v>
+      </c>
+      <c r="AE103">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="104" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>627</v>
       </c>
@@ -10629,8 +12501,26 @@
       <c r="Y104">
         <v>2772</v>
       </c>
+      <c r="Z104">
+        <v>2878</v>
+      </c>
+      <c r="AA104" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB104">
+        <v>2916</v>
+      </c>
+      <c r="AC104">
+        <v>2914</v>
+      </c>
+      <c r="AD104">
+        <v>2887</v>
+      </c>
+      <c r="AE104">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>685</v>
       </c>
@@ -10702,8 +12592,26 @@
       <c r="Y105">
         <v>2771</v>
       </c>
+      <c r="Z105">
+        <v>2879</v>
+      </c>
+      <c r="AA105" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB105">
+        <v>2916</v>
+      </c>
+      <c r="AC105">
+        <v>2913</v>
+      </c>
+      <c r="AD105">
+        <v>2887</v>
+      </c>
+      <c r="AE105">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="106" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>635</v>
       </c>
@@ -10775,8 +12683,26 @@
       <c r="Y106">
         <v>2775</v>
       </c>
+      <c r="Z106">
+        <v>2877</v>
+      </c>
+      <c r="AA106" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB106">
+        <v>2916</v>
+      </c>
+      <c r="AC106">
+        <v>2914</v>
+      </c>
+      <c r="AD106">
+        <v>2887</v>
+      </c>
+      <c r="AE106">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>651</v>
       </c>
@@ -10848,8 +12774,26 @@
       <c r="Y107">
         <v>2775</v>
       </c>
+      <c r="Z107">
+        <v>2878</v>
+      </c>
+      <c r="AA107" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB107">
+        <v>2916</v>
+      </c>
+      <c r="AC107">
+        <v>2914</v>
+      </c>
+      <c r="AD107">
+        <v>2887</v>
+      </c>
+      <c r="AE107">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="108" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>719</v>
       </c>
@@ -10921,8 +12865,26 @@
       <c r="Y108">
         <v>2775</v>
       </c>
+      <c r="Z108">
+        <v>2878</v>
+      </c>
+      <c r="AA108" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB108">
+        <v>2916</v>
+      </c>
+      <c r="AC108">
+        <v>2914</v>
+      </c>
+      <c r="AD108">
+        <v>2887</v>
+      </c>
+      <c r="AE108">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>615</v>
       </c>
@@ -10994,8 +12956,26 @@
       <c r="Y109">
         <v>2773</v>
       </c>
+      <c r="Z109">
+        <v>2877</v>
+      </c>
+      <c r="AA109" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB109">
+        <v>2916</v>
+      </c>
+      <c r="AC109">
+        <v>2913</v>
+      </c>
+      <c r="AD109">
+        <v>2887</v>
+      </c>
+      <c r="AE109">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="110" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>602</v>
       </c>
@@ -11067,8 +13047,26 @@
       <c r="Y110">
         <v>2778</v>
       </c>
+      <c r="Z110">
+        <v>2878</v>
+      </c>
+      <c r="AA110" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB110">
+        <v>2916</v>
+      </c>
+      <c r="AC110">
+        <v>2913</v>
+      </c>
+      <c r="AD110">
+        <v>2887</v>
+      </c>
+      <c r="AE110">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>594</v>
       </c>
@@ -11140,8 +13138,26 @@
       <c r="Y111">
         <v>2775</v>
       </c>
+      <c r="Z111">
+        <v>2878</v>
+      </c>
+      <c r="AA111" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB111">
+        <v>2916</v>
+      </c>
+      <c r="AC111">
+        <v>2914</v>
+      </c>
+      <c r="AD111">
+        <v>2887</v>
+      </c>
+      <c r="AE111">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="112" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>707</v>
       </c>
@@ -11213,8 +13229,26 @@
       <c r="Y112">
         <v>2773</v>
       </c>
+      <c r="Z112">
+        <v>2879</v>
+      </c>
+      <c r="AA112" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB112">
+        <v>2916</v>
+      </c>
+      <c r="AC112">
+        <v>2914</v>
+      </c>
+      <c r="AD112">
+        <v>2887</v>
+      </c>
+      <c r="AE112">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="113" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>590</v>
       </c>
@@ -11286,8 +13320,26 @@
       <c r="Y113">
         <v>2773</v>
       </c>
+      <c r="Z113">
+        <v>2879</v>
+      </c>
+      <c r="AA113" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB113">
+        <v>2916</v>
+      </c>
+      <c r="AC113">
+        <v>2913</v>
+      </c>
+      <c r="AD113">
+        <v>2887</v>
+      </c>
+      <c r="AE113">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="114" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>648</v>
       </c>
@@ -11359,8 +13411,26 @@
       <c r="Y114">
         <v>2773</v>
       </c>
+      <c r="Z114">
+        <v>2878</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB114">
+        <v>2916</v>
+      </c>
+      <c r="AC114">
+        <v>2913</v>
+      </c>
+      <c r="AD114">
+        <v>2887</v>
+      </c>
+      <c r="AE114">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="115" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>616</v>
       </c>
@@ -11432,8 +13502,26 @@
       <c r="Y115">
         <v>2777</v>
       </c>
+      <c r="Z115">
+        <v>2877</v>
+      </c>
+      <c r="AA115" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB115">
+        <v>2916</v>
+      </c>
+      <c r="AC115">
+        <v>2913</v>
+      </c>
+      <c r="AD115">
+        <v>2887</v>
+      </c>
+      <c r="AE115">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="116" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>700</v>
       </c>
@@ -11505,8 +13593,26 @@
       <c r="Y116">
         <v>2771</v>
       </c>
+      <c r="Z116">
+        <v>2878</v>
+      </c>
+      <c r="AA116" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB116">
+        <v>2916</v>
+      </c>
+      <c r="AC116">
+        <v>2913</v>
+      </c>
+      <c r="AD116">
+        <v>2887</v>
+      </c>
+      <c r="AE116">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="117" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>620</v>
       </c>
@@ -11578,8 +13684,26 @@
       <c r="Y117">
         <v>2772</v>
       </c>
+      <c r="Z117">
+        <v>2879</v>
+      </c>
+      <c r="AA117" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB117">
+        <v>2916</v>
+      </c>
+      <c r="AC117">
+        <v>2913</v>
+      </c>
+      <c r="AD117">
+        <v>2887</v>
+      </c>
+      <c r="AE117">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="118" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>703</v>
       </c>
@@ -11651,8 +13775,26 @@
       <c r="Y118">
         <v>2778</v>
       </c>
+      <c r="Z118">
+        <v>2879</v>
+      </c>
+      <c r="AA118" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB118">
+        <v>2916</v>
+      </c>
+      <c r="AC118">
+        <v>2913</v>
+      </c>
+      <c r="AD118">
+        <v>2887</v>
+      </c>
+      <c r="AE118">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="119" spans="1:25" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>610</v>
       </c>
@@ -11724,8 +13866,26 @@
       <c r="Y119">
         <v>2774</v>
       </c>
+      <c r="Z119">
+        <v>2878</v>
+      </c>
+      <c r="AA119" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB119">
+        <v>2916</v>
+      </c>
+      <c r="AC119">
+        <v>2913</v>
+      </c>
+      <c r="AD119">
+        <v>2887</v>
+      </c>
+      <c r="AE119">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="120" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>621</v>
       </c>
@@ -11797,8 +13957,26 @@
       <c r="Y120">
         <v>2774</v>
       </c>
+      <c r="Z120">
+        <v>2877</v>
+      </c>
+      <c r="AA120" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB120">
+        <v>2916</v>
+      </c>
+      <c r="AC120">
+        <v>2914</v>
+      </c>
+      <c r="AD120">
+        <v>2887</v>
+      </c>
+      <c r="AE120">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="121" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>568</v>
       </c>
@@ -11870,8 +14048,26 @@
       <c r="Y121">
         <v>2776</v>
       </c>
+      <c r="Z121">
+        <v>2878</v>
+      </c>
+      <c r="AA121" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB121">
+        <v>2916</v>
+      </c>
+      <c r="AC121">
+        <v>2914</v>
+      </c>
+      <c r="AD121">
+        <v>2887</v>
+      </c>
+      <c r="AE121">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="122" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>570</v>
       </c>
@@ -11943,8 +14139,26 @@
       <c r="Y122">
         <v>2778</v>
       </c>
+      <c r="Z122">
+        <v>2877</v>
+      </c>
+      <c r="AA122" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB122">
+        <v>2916</v>
+      </c>
+      <c r="AC122">
+        <v>2914</v>
+      </c>
+      <c r="AD122">
+        <v>2887</v>
+      </c>
+      <c r="AE122">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="123" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>607</v>
       </c>
@@ -12016,8 +14230,26 @@
       <c r="Y123">
         <v>2776</v>
       </c>
+      <c r="Z123">
+        <v>2878</v>
+      </c>
+      <c r="AA123" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB123">
+        <v>2916</v>
+      </c>
+      <c r="AC123">
+        <v>2914</v>
+      </c>
+      <c r="AD123">
+        <v>2887</v>
+      </c>
+      <c r="AE123">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="124" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>701</v>
       </c>
@@ -12089,8 +14321,26 @@
       <c r="Y124">
         <v>2775</v>
       </c>
+      <c r="Z124">
+        <v>2878</v>
+      </c>
+      <c r="AA124" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB124">
+        <v>2916</v>
+      </c>
+      <c r="AC124">
+        <v>2913</v>
+      </c>
+      <c r="AD124">
+        <v>2887</v>
+      </c>
+      <c r="AE124">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="125" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>687</v>
       </c>
@@ -12162,8 +14412,26 @@
       <c r="Y125">
         <v>2776</v>
       </c>
+      <c r="Z125">
+        <v>2878</v>
+      </c>
+      <c r="AA125" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB125">
+        <v>2916</v>
+      </c>
+      <c r="AC125">
+        <v>2913</v>
+      </c>
+      <c r="AD125">
+        <v>2887</v>
+      </c>
+      <c r="AE125">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="126" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>592</v>
       </c>
@@ -12235,8 +14503,26 @@
       <c r="Y126">
         <v>2774</v>
       </c>
+      <c r="Z126">
+        <v>2878</v>
+      </c>
+      <c r="AA126" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB126">
+        <v>2916</v>
+      </c>
+      <c r="AC126">
+        <v>2913</v>
+      </c>
+      <c r="AD126">
+        <v>2887</v>
+      </c>
+      <c r="AE126">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="127" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>670</v>
       </c>
@@ -12308,8 +14594,26 @@
       <c r="Y127">
         <v>2771</v>
       </c>
+      <c r="Z127">
+        <v>2878</v>
+      </c>
+      <c r="AA127" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB127">
+        <v>2916</v>
+      </c>
+      <c r="AC127">
+        <v>2913</v>
+      </c>
+      <c r="AD127">
+        <v>2887</v>
+      </c>
+      <c r="AE127">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="128" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>639</v>
       </c>
@@ -12381,8 +14685,26 @@
       <c r="Y128">
         <v>2773</v>
       </c>
+      <c r="Z128">
+        <v>2877</v>
+      </c>
+      <c r="AA128" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB128">
+        <v>2916</v>
+      </c>
+      <c r="AC128">
+        <v>2914</v>
+      </c>
+      <c r="AD128">
+        <v>2887</v>
+      </c>
+      <c r="AE128">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="129" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>625</v>
       </c>
@@ -12454,8 +14776,26 @@
       <c r="Y129">
         <v>2775</v>
       </c>
+      <c r="Z129">
+        <v>2878</v>
+      </c>
+      <c r="AA129" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB129">
+        <v>2916</v>
+      </c>
+      <c r="AC129">
+        <v>2913</v>
+      </c>
+      <c r="AD129">
+        <v>2887</v>
+      </c>
+      <c r="AE129">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="130" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>637</v>
       </c>
@@ -12527,8 +14867,26 @@
       <c r="Y130">
         <v>2772</v>
       </c>
+      <c r="Z130">
+        <v>2877</v>
+      </c>
+      <c r="AA130" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB130">
+        <v>2916</v>
+      </c>
+      <c r="AC130">
+        <v>2914</v>
+      </c>
+      <c r="AD130">
+        <v>2887</v>
+      </c>
+      <c r="AE130">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="131" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>694</v>
       </c>
@@ -12600,8 +14958,26 @@
       <c r="Y131">
         <v>2773</v>
       </c>
+      <c r="Z131">
+        <v>2878</v>
+      </c>
+      <c r="AA131" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB131">
+        <v>2916</v>
+      </c>
+      <c r="AC131">
+        <v>2913</v>
+      </c>
+      <c r="AD131">
+        <v>2887</v>
+      </c>
+      <c r="AE131">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="132" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>699</v>
       </c>
@@ -12673,8 +15049,26 @@
       <c r="Y132">
         <v>2772</v>
       </c>
+      <c r="Z132">
+        <v>2879</v>
+      </c>
+      <c r="AA132" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB132">
+        <v>2916</v>
+      </c>
+      <c r="AC132">
+        <v>2914</v>
+      </c>
+      <c r="AD132">
+        <v>2887</v>
+      </c>
+      <c r="AE132">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="133" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>600</v>
       </c>
@@ -12746,8 +15140,26 @@
       <c r="Y133">
         <v>2776</v>
       </c>
+      <c r="Z133">
+        <v>2878</v>
+      </c>
+      <c r="AA133" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB133">
+        <v>2916</v>
+      </c>
+      <c r="AC133">
+        <v>2914</v>
+      </c>
+      <c r="AD133">
+        <v>2887</v>
+      </c>
+      <c r="AE133">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="134" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>667</v>
       </c>
@@ -12819,8 +15231,26 @@
       <c r="Y134">
         <v>2775</v>
       </c>
+      <c r="Z134">
+        <v>2877</v>
+      </c>
+      <c r="AA134" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB134">
+        <v>2916</v>
+      </c>
+      <c r="AC134">
+        <v>2913</v>
+      </c>
+      <c r="AD134">
+        <v>2887</v>
+      </c>
+      <c r="AE134">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="135" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>585</v>
       </c>
@@ -12892,8 +15322,26 @@
       <c r="Y135">
         <v>2773</v>
       </c>
+      <c r="Z135">
+        <v>2879</v>
+      </c>
+      <c r="AA135" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB135">
+        <v>2916</v>
+      </c>
+      <c r="AC135">
+        <v>2913</v>
+      </c>
+      <c r="AD135">
+        <v>2887</v>
+      </c>
+      <c r="AE135">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="136" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>680</v>
       </c>
@@ -12965,8 +15413,26 @@
       <c r="Y136">
         <v>2778</v>
       </c>
+      <c r="Z136">
+        <v>2878</v>
+      </c>
+      <c r="AA136" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB136">
+        <v>2916</v>
+      </c>
+      <c r="AC136">
+        <v>2913</v>
+      </c>
+      <c r="AD136">
+        <v>2887</v>
+      </c>
+      <c r="AE136">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="137" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>577</v>
       </c>
@@ -13038,8 +15504,26 @@
       <c r="Y137">
         <v>2772</v>
       </c>
+      <c r="Z137">
+        <v>2877</v>
+      </c>
+      <c r="AA137" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB137">
+        <v>2916</v>
+      </c>
+      <c r="AC137">
+        <v>2914</v>
+      </c>
+      <c r="AD137">
+        <v>2887</v>
+      </c>
+      <c r="AE137">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="138" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>614</v>
       </c>
@@ -13111,8 +15595,26 @@
       <c r="Y138">
         <v>2772</v>
       </c>
+      <c r="Z138">
+        <v>2877</v>
+      </c>
+      <c r="AA138" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB138">
+        <v>2916</v>
+      </c>
+      <c r="AC138">
+        <v>2913</v>
+      </c>
+      <c r="AD138">
+        <v>2887</v>
+      </c>
+      <c r="AE138">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="139" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>660</v>
       </c>
@@ -13184,8 +15686,26 @@
       <c r="Y139">
         <v>2772</v>
       </c>
+      <c r="Z139">
+        <v>2877</v>
+      </c>
+      <c r="AA139" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB139">
+        <v>2916</v>
+      </c>
+      <c r="AC139">
+        <v>2913</v>
+      </c>
+      <c r="AD139">
+        <v>2887</v>
+      </c>
+      <c r="AE139">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="140" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>631</v>
       </c>
@@ -13257,8 +15777,26 @@
       <c r="Y140">
         <v>2774</v>
       </c>
+      <c r="Z140">
+        <v>2878</v>
+      </c>
+      <c r="AA140" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB140">
+        <v>2916</v>
+      </c>
+      <c r="AC140">
+        <v>2913</v>
+      </c>
+      <c r="AD140">
+        <v>2887</v>
+      </c>
+      <c r="AE140">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="141" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>706</v>
       </c>
@@ -13330,8 +15868,26 @@
       <c r="Y141">
         <v>2777</v>
       </c>
+      <c r="Z141">
+        <v>2877</v>
+      </c>
+      <c r="AA141" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB141">
+        <v>2916</v>
+      </c>
+      <c r="AC141">
+        <v>2913</v>
+      </c>
+      <c r="AD141">
+        <v>2887</v>
+      </c>
+      <c r="AE141">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="142" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>662</v>
       </c>
@@ -13403,8 +15959,26 @@
       <c r="Y142">
         <v>2773</v>
       </c>
+      <c r="Z142">
+        <v>2878</v>
+      </c>
+      <c r="AA142" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB142">
+        <v>2916</v>
+      </c>
+      <c r="AC142">
+        <v>2914</v>
+      </c>
+      <c r="AD142">
+        <v>2887</v>
+      </c>
+      <c r="AE142">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="143" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>688</v>
       </c>
@@ -13476,8 +16050,26 @@
       <c r="Y143">
         <v>2774</v>
       </c>
+      <c r="Z143">
+        <v>2879</v>
+      </c>
+      <c r="AA143" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB143">
+        <v>2916</v>
+      </c>
+      <c r="AC143">
+        <v>2913</v>
+      </c>
+      <c r="AD143">
+        <v>2887</v>
+      </c>
+      <c r="AE143">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="144" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>696</v>
       </c>
@@ -13549,8 +16141,26 @@
       <c r="Y144">
         <v>2778</v>
       </c>
+      <c r="Z144">
+        <v>2879</v>
+      </c>
+      <c r="AA144" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB144">
+        <v>2916</v>
+      </c>
+      <c r="AC144">
+        <v>2914</v>
+      </c>
+      <c r="AD144">
+        <v>2887</v>
+      </c>
+      <c r="AE144">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="145" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>692</v>
       </c>
@@ -13622,8 +16232,26 @@
       <c r="Y145">
         <v>2774</v>
       </c>
+      <c r="Z145">
+        <v>2879</v>
+      </c>
+      <c r="AA145" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB145">
+        <v>2916</v>
+      </c>
+      <c r="AC145">
+        <v>2914</v>
+      </c>
+      <c r="AD145">
+        <v>2887</v>
+      </c>
+      <c r="AE145">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="146" spans="1:25" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>672</v>
       </c>
@@ -13695,8 +16323,26 @@
       <c r="Y146">
         <v>2776</v>
       </c>
+      <c r="Z146">
+        <v>2879</v>
+      </c>
+      <c r="AA146" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB146">
+        <v>2916</v>
+      </c>
+      <c r="AC146">
+        <v>2913</v>
+      </c>
+      <c r="AD146">
+        <v>2887</v>
+      </c>
+      <c r="AE146">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="147" spans="1:25" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:31" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>689</v>
       </c>
@@ -13768,8 +16414,26 @@
       <c r="Y147">
         <v>2777</v>
       </c>
+      <c r="Z147">
+        <v>2878</v>
+      </c>
+      <c r="AA147" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB147">
+        <v>2916</v>
+      </c>
+      <c r="AC147">
+        <v>2914</v>
+      </c>
+      <c r="AD147">
+        <v>2887</v>
+      </c>
+      <c r="AE147">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="148" spans="1:25" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>718</v>
       </c>
@@ -13841,8 +16505,26 @@
       <c r="Y148">
         <v>2773</v>
       </c>
+      <c r="Z148">
+        <v>2879</v>
+      </c>
+      <c r="AA148" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB148">
+        <v>2916</v>
+      </c>
+      <c r="AC148">
+        <v>2913</v>
+      </c>
+      <c r="AD148">
+        <v>2887</v>
+      </c>
+      <c r="AE148">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="149" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>695</v>
       </c>
@@ -13914,8 +16596,26 @@
       <c r="Y149">
         <v>2778</v>
       </c>
+      <c r="Z149">
+        <v>2877</v>
+      </c>
+      <c r="AA149" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB149">
+        <v>2916</v>
+      </c>
+      <c r="AC149">
+        <v>2913</v>
+      </c>
+      <c r="AD149">
+        <v>2887</v>
+      </c>
+      <c r="AE149">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="150" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>657</v>
       </c>
@@ -13987,8 +16687,26 @@
       <c r="Y150">
         <v>2777</v>
       </c>
+      <c r="Z150">
+        <v>2877</v>
+      </c>
+      <c r="AA150" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB150">
+        <v>2916</v>
+      </c>
+      <c r="AC150">
+        <v>2913</v>
+      </c>
+      <c r="AD150">
+        <v>2887</v>
+      </c>
+      <c r="AE150">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="151" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>654</v>
       </c>
@@ -14060,8 +16778,26 @@
       <c r="Y151">
         <v>2775</v>
       </c>
+      <c r="Z151">
+        <v>2879</v>
+      </c>
+      <c r="AA151" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB151">
+        <v>2916</v>
+      </c>
+      <c r="AC151">
+        <v>2914</v>
+      </c>
+      <c r="AD151">
+        <v>2887</v>
+      </c>
+      <c r="AE151">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="152" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>693</v>
       </c>
@@ -14133,8 +16869,26 @@
       <c r="Y152">
         <v>2772</v>
       </c>
+      <c r="Z152">
+        <v>2878</v>
+      </c>
+      <c r="AA152" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB152">
+        <v>2916</v>
+      </c>
+      <c r="AC152">
+        <v>2913</v>
+      </c>
+      <c r="AD152">
+        <v>2887</v>
+      </c>
+      <c r="AE152">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="153" spans="1:25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>702</v>
       </c>
@@ -14206,8 +16960,26 @@
       <c r="Y153">
         <v>2777</v>
       </c>
+      <c r="Z153">
+        <v>2879</v>
+      </c>
+      <c r="AA153" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB153">
+        <v>2916</v>
+      </c>
+      <c r="AC153">
+        <v>2913</v>
+      </c>
+      <c r="AD153">
+        <v>2887</v>
+      </c>
+      <c r="AE153">
+        <v>2907</v>
+      </c>
     </row>
-    <row r="154" spans="1:25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>714</v>
       </c>
@@ -14278,6 +17050,24 @@
       </c>
       <c r="Y154">
         <v>2778</v>
+      </c>
+      <c r="Z154">
+        <v>2878</v>
+      </c>
+      <c r="AA154" s="14">
+        <v>2897</v>
+      </c>
+      <c r="AB154">
+        <v>2916</v>
+      </c>
+      <c r="AC154">
+        <v>2913</v>
+      </c>
+      <c r="AD154">
+        <v>2887</v>
+      </c>
+      <c r="AE154">
+        <v>2907</v>
       </c>
     </row>
   </sheetData>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="753">
   <si>
     <t>Adam</t>
   </si>
@@ -2567,13 +2567,19 @@
   </si>
   <si>
     <t>demographics_Residence</t>
+  </si>
+  <si>
+    <t>babiekachiuxiu@gmail.com</t>
+  </si>
+  <si>
+    <t>chiukata321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2630,6 +2636,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2705,7 +2717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,6 +2746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3016,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,7 +3254,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="3" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
@@ -3251,8 +3267,12 @@
       <c r="D3" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>752</v>
+      </c>
       <c r="G3" s="9">
         <v>5</v>
       </c>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="759">
   <si>
     <t>Adam</t>
   </si>
@@ -2573,6 +2573,24 @@
   </si>
   <si>
     <t>chiukata321</t>
+  </si>
+  <si>
+    <t>coviececove2020@gmail.com</t>
+  </si>
+  <si>
+    <t>clickonet0pro</t>
+  </si>
+  <si>
+    <t>parttyonline858@gmail.com</t>
+  </si>
+  <si>
+    <t>checkfam1ly</t>
+  </si>
+  <si>
+    <t>chiumarusi4@gmail.com</t>
+  </si>
+  <si>
+    <t>wowhappyd4y</t>
   </si>
 </sst>
 </file>
@@ -3033,7 +3051,7 @@
   <dimension ref="A1:AE154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3059,7 @@
     <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="46.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="5" max="5" width="30.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="8" customWidth="1"/>
@@ -3362,8 +3380,12 @@
       <c r="D4" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="1"/>
+      <c r="E4" t="s">
+        <v>753</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>754</v>
+      </c>
       <c r="G4" s="9">
         <v>30</v>
       </c>
@@ -3453,8 +3475,12 @@
       <c r="D5" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>756</v>
+      </c>
       <c r="G5" s="9">
         <v>18</v>
       </c>
@@ -3544,8 +3570,12 @@
       <c r="D6" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>758</v>
+      </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>

--- a/Id.xlsx
+++ b/Id.xlsx
@@ -3272,7 +3272,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="3" spans="1:31" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>603</v>
       </c>
